--- a/PGA_Database.xlsx
+++ b/PGA_Database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>PLAYER NAME</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>top10Fin_2021_RANK</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Masters_RANK</t>
+  </si>
+  <si>
+    <t>MastersSG</t>
   </si>
   <si>
     <t>Current Ranking</t>
@@ -451,6 +460,9 @@
     <t>Richy Werenski</t>
   </si>
   <si>
+    <t>Rafa Cabrera Bello</t>
+  </si>
+  <si>
     <t>Tom Hoge</t>
   </si>
   <si>
@@ -464,6 +476,48 @@
   </si>
   <si>
     <t>Charles Howell III</t>
+  </si>
+  <si>
+    <t>Rory Sabbatini</t>
+  </si>
+  <si>
+    <t>Robert Streb</t>
+  </si>
+  <si>
+    <t>Graeme McDowell</t>
+  </si>
+  <si>
+    <t>Phil Mickelson</t>
+  </si>
+  <si>
+    <t>Andrew Landry</t>
+  </si>
+  <si>
+    <t>Nick Taylor</t>
+  </si>
+  <si>
+    <t>Nate Lashley</t>
+  </si>
+  <si>
+    <t>Andrew Putnam</t>
+  </si>
+  <si>
+    <t>Harry Higgs</t>
+  </si>
+  <si>
+    <t>Keegan Bradley</t>
+  </si>
+  <si>
+    <t>Sung Kang</t>
+  </si>
+  <si>
+    <t>Maverick McNealy</t>
+  </si>
+  <si>
+    <t>Wyndham Clark</t>
+  </si>
+  <si>
+    <t>Cameron Davis</t>
   </si>
 </sst>
 </file>
@@ -821,13 +875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS80"/>
+  <dimension ref="A1:BV95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:74">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,10 +1095,19 @@
       <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:74">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.612</v>
@@ -1251,15 +1314,24 @@
         <v>13.5</v>
       </c>
       <c r="BR2">
+        <v>68.64699999999999</v>
+      </c>
+      <c r="BS2">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="BT2">
+        <v>3.353000000000009</v>
+      </c>
+      <c r="BU2">
         <v>497.58</v>
       </c>
-      <c r="BS2">
+      <c r="BV2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71">
+    <row r="3" spans="1:74">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>0.405</v>
@@ -1466,15 +1538,24 @@
         <v>5</v>
       </c>
       <c r="BR3">
+        <v>70.2045</v>
+      </c>
+      <c r="BS3">
+        <v>14.75</v>
+      </c>
+      <c r="BT3">
+        <v>1.795500000000004</v>
+      </c>
+      <c r="BU3">
         <v>465.72</v>
       </c>
-      <c r="BS3">
+      <c r="BV3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:71">
+    <row r="4" spans="1:74">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>0.7559999999999999</v>
@@ -1681,15 +1762,24 @@
         <v>1</v>
       </c>
       <c r="BR4">
+        <v>69.81399999999999</v>
+      </c>
+      <c r="BS4">
+        <v>13.5</v>
+      </c>
+      <c r="BT4">
+        <v>2.186000000000007</v>
+      </c>
+      <c r="BU4">
         <v>434.43</v>
       </c>
-      <c r="BS4">
+      <c r="BV4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:71">
+    <row r="5" spans="1:74">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>1.039</v>
@@ -1896,15 +1986,24 @@
         <v>5</v>
       </c>
       <c r="BR5">
+        <v>70.61</v>
+      </c>
+      <c r="BS5">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="BT5">
+        <v>1.390000000000001</v>
+      </c>
+      <c r="BU5">
         <v>378.83</v>
       </c>
-      <c r="BS5">
+      <c r="BV5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:71">
+    <row r="6" spans="1:74">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0.44</v>
@@ -2111,15 +2210,24 @@
         <v>27</v>
       </c>
       <c r="BR6">
+        <v>71.407</v>
+      </c>
+      <c r="BS6">
+        <v>123</v>
+      </c>
+      <c r="BT6">
+        <v>0.5930000000000035</v>
+      </c>
+      <c r="BU6">
         <v>335.12</v>
       </c>
-      <c r="BS6">
+      <c r="BV6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:71">
+    <row r="7" spans="1:74">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>0.648</v>
@@ -2326,15 +2434,24 @@
         <v>5</v>
       </c>
       <c r="BR7">
+        <v>70.61233333333332</v>
+      </c>
+      <c r="BS7">
+        <v>19</v>
+      </c>
+      <c r="BT7">
+        <v>1.387666666666675</v>
+      </c>
+      <c r="BU7">
         <v>333.2</v>
       </c>
-      <c r="BS7">
+      <c r="BV7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:71">
+    <row r="8" spans="1:74">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>0.278</v>
@@ -2541,15 +2658,24 @@
         <v>27</v>
       </c>
       <c r="BR8">
+        <v>69.63566666666667</v>
+      </c>
+      <c r="BS8">
+        <v>16</v>
+      </c>
+      <c r="BT8">
+        <v>2.364333333333335</v>
+      </c>
+      <c r="BU8">
         <v>329.36</v>
       </c>
-      <c r="BS8">
+      <c r="BV8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:71">
+    <row r="9" spans="1:74">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>0.188</v>
@@ -2756,15 +2882,24 @@
         <v>52.5</v>
       </c>
       <c r="BR9">
+        <v>71.94199999999999</v>
+      </c>
+      <c r="BS9">
+        <v>46.33333333333334</v>
+      </c>
+      <c r="BT9">
+        <v>0.05800000000000693</v>
+      </c>
+      <c r="BU9">
         <v>312.99</v>
       </c>
-      <c r="BS9">
+      <c r="BV9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:71">
+    <row r="10" spans="1:74">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>0.7020000000000001</v>
@@ -2971,15 +3106,24 @@
         <v>13.5</v>
       </c>
       <c r="BR10">
+        <v>69.92325</v>
+      </c>
+      <c r="BS10">
+        <v>14.375</v>
+      </c>
+      <c r="BT10">
+        <v>2.076750000000004</v>
+      </c>
+      <c r="BU10">
         <v>295.92</v>
       </c>
-      <c r="BS10">
+      <c r="BV10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:71">
+    <row r="11" spans="1:74">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>0.341</v>
@@ -3186,15 +3330,24 @@
         <v>5</v>
       </c>
       <c r="BR11">
+        <v>69.60533333333332</v>
+      </c>
+      <c r="BS11">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="BT11">
+        <v>2.39466666666668</v>
+      </c>
+      <c r="BU11">
         <v>282.64</v>
       </c>
-      <c r="BS11">
+      <c r="BV11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:71">
+    <row r="12" spans="1:74">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>0.123</v>
@@ -3401,15 +3554,24 @@
         <v>13.5</v>
       </c>
       <c r="BR12">
+        <v>69.95266666666667</v>
+      </c>
+      <c r="BS12">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="BT12">
+        <v>2.047333333333327</v>
+      </c>
+      <c r="BU12">
         <v>267.73</v>
       </c>
-      <c r="BS12">
+      <c r="BV12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:71">
+    <row r="13" spans="1:74">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>0.362</v>
@@ -3616,15 +3778,24 @@
         <v>13.5</v>
       </c>
       <c r="BR13">
+        <v>69.65100000000001</v>
+      </c>
+      <c r="BS13">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="BT13">
+        <v>2.34899999999999</v>
+      </c>
+      <c r="BU13">
         <v>260.37</v>
       </c>
-      <c r="BS13">
+      <c r="BV13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:71">
+    <row r="14" spans="1:74">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>0.447</v>
@@ -3831,15 +4002,24 @@
         <v>13.5</v>
       </c>
       <c r="BR14">
+        <v>70.57400000000001</v>
+      </c>
+      <c r="BS14">
+        <v>24.75</v>
+      </c>
+      <c r="BT14">
+        <v>1.425999999999988</v>
+      </c>
+      <c r="BU14">
         <v>252.28</v>
       </c>
-      <c r="BS14">
+      <c r="BV14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:71">
+    <row r="15" spans="1:74">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>0.404</v>
@@ -4046,15 +4226,24 @@
         <v>13.5</v>
       </c>
       <c r="BR15">
+        <v>69.845</v>
+      </c>
+      <c r="BS15">
+        <v>19</v>
+      </c>
+      <c r="BT15">
+        <v>2.155000000000001</v>
+      </c>
+      <c r="BU15">
         <v>249.53</v>
       </c>
-      <c r="BS15">
+      <c r="BV15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:71">
+    <row r="16" spans="1:74">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>0.206</v>
@@ -4261,15 +4450,24 @@
         <v>27</v>
       </c>
       <c r="BR16">
+        <v>71.46875</v>
+      </c>
+      <c r="BS16">
+        <v>51</v>
+      </c>
+      <c r="BT16">
+        <v>0.53125</v>
+      </c>
+      <c r="BU16">
         <v>240.31</v>
       </c>
-      <c r="BS16">
+      <c r="BV16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:74">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>0.366</v>
@@ -4476,15 +4674,24 @@
         <v>13.5</v>
       </c>
       <c r="BR17">
+        <v>71.15966666666667</v>
+      </c>
+      <c r="BS17">
+        <v>38.5</v>
+      </c>
+      <c r="BT17">
+        <v>0.8403333333333336</v>
+      </c>
+      <c r="BU17">
         <v>231.12</v>
       </c>
-      <c r="BS17">
+      <c r="BV17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:74">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>0.4370000000000001</v>
@@ -4691,15 +4898,24 @@
         <v>52.5</v>
       </c>
       <c r="BR18">
+        <v>70.131</v>
+      </c>
+      <c r="BS18">
+        <v>38</v>
+      </c>
+      <c r="BT18">
+        <v>1.869</v>
+      </c>
+      <c r="BU18">
         <v>222.02</v>
       </c>
-      <c r="BS18">
+      <c r="BV18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:71">
+    <row r="19" spans="1:74">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>0.546</v>
@@ -4906,15 +5122,24 @@
         <v>13.5</v>
       </c>
       <c r="BR19">
+        <v>70.40066666666667</v>
+      </c>
+      <c r="BS19">
+        <v>50.5</v>
+      </c>
+      <c r="BT19">
+        <v>1.599333333333334</v>
+      </c>
+      <c r="BU19">
         <v>220.93</v>
       </c>
-      <c r="BS19">
+      <c r="BV19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:71">
+    <row r="20" spans="1:74">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>0.215</v>
@@ -5121,15 +5346,24 @@
         <v>5</v>
       </c>
       <c r="BR20">
+        <v>69.72399999999999</v>
+      </c>
+      <c r="BS20">
+        <v>18</v>
+      </c>
+      <c r="BT20">
+        <v>2.27600000000001</v>
+      </c>
+      <c r="BU20">
         <v>215.03</v>
       </c>
-      <c r="BS20">
+      <c r="BV20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:71">
+    <row r="21" spans="1:74">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>0.389</v>
@@ -5336,15 +5570,24 @@
         <v>101</v>
       </c>
       <c r="BR21">
+        <v>71.39333333333333</v>
+      </c>
+      <c r="BS21">
+        <v>75.33333333333333</v>
+      </c>
+      <c r="BT21">
+        <v>0.6066666666666691</v>
+      </c>
+      <c r="BU21">
         <v>196.57</v>
       </c>
-      <c r="BS21">
+      <c r="BV21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:71">
+    <row r="22" spans="1:74">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>0.285</v>
@@ -5551,15 +5794,24 @@
         <v>101</v>
       </c>
       <c r="BR22">
+        <v>70.52124999999999</v>
+      </c>
+      <c r="BS22">
+        <v>20.125</v>
+      </c>
+      <c r="BT22">
+        <v>1.478750000000005</v>
+      </c>
+      <c r="BU22">
         <v>190</v>
       </c>
-      <c r="BS22">
+      <c r="BV22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:71">
+    <row r="23" spans="1:74">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B23">
         <v>0.328</v>
@@ -5766,15 +6018,24 @@
         <v>52.5</v>
       </c>
       <c r="BR23">
+        <v>70.61</v>
+      </c>
+      <c r="BS23">
+        <v>57</v>
+      </c>
+      <c r="BT23">
+        <v>1.390000000000001</v>
+      </c>
+      <c r="BU23">
         <v>180.8</v>
       </c>
-      <c r="BS23">
+      <c r="BV23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:71">
+    <row r="24" spans="1:74">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B24">
         <v>0.37</v>
@@ -5981,15 +6242,24 @@
         <v>27</v>
       </c>
       <c r="BR24">
+        <v>69.52199999999999</v>
+      </c>
+      <c r="BS24">
+        <v>10</v>
+      </c>
+      <c r="BT24">
+        <v>2.478000000000009</v>
+      </c>
+      <c r="BU24">
         <v>180.02</v>
       </c>
-      <c r="BS24">
+      <c r="BV24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:71">
+    <row r="25" spans="1:74">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>-0.245</v>
@@ -6196,15 +6466,24 @@
         <v>27</v>
       </c>
       <c r="BR25">
+        <v>70.52066666666667</v>
+      </c>
+      <c r="BS25">
+        <v>24</v>
+      </c>
+      <c r="BT25">
+        <v>1.479333333333329</v>
+      </c>
+      <c r="BU25">
         <v>179.78</v>
       </c>
-      <c r="BS25">
+      <c r="BV25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:71">
+    <row r="26" spans="1:74">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>0.633</v>
@@ -6411,15 +6690,24 @@
         <v>13.5</v>
       </c>
       <c r="BR26">
+        <v>69.807</v>
+      </c>
+      <c r="BS26">
+        <v>20</v>
+      </c>
+      <c r="BT26">
+        <v>2.192999999999998</v>
+      </c>
+      <c r="BU26">
         <v>178.32</v>
       </c>
-      <c r="BS26">
+      <c r="BV26">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:71">
+    <row r="27" spans="1:74">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>-0.41</v>
@@ -6626,15 +6914,24 @@
         <v>101</v>
       </c>
       <c r="BR27">
+        <v>71.71850000000001</v>
+      </c>
+      <c r="BS27">
+        <v>77.5</v>
+      </c>
+      <c r="BT27">
+        <v>0.2814999999999941</v>
+      </c>
+      <c r="BU27">
         <v>172.95</v>
       </c>
-      <c r="BS27">
+      <c r="BV27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:71">
+    <row r="28" spans="1:74">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B28">
         <v>0.075</v>
@@ -6841,15 +7138,24 @@
         <v>52.5</v>
       </c>
       <c r="BR28">
+        <v>70.815</v>
+      </c>
+      <c r="BS28">
+        <v>27.125</v>
+      </c>
+      <c r="BT28">
+        <v>1.185000000000002</v>
+      </c>
+      <c r="BU28">
         <v>171.5</v>
       </c>
-      <c r="BS28">
+      <c r="BV28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:71">
+    <row r="29" spans="1:74">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B29">
         <v>0.618</v>
@@ -7056,15 +7362,24 @@
         <v>52.5</v>
       </c>
       <c r="BR29">
+        <v>71.03699999999999</v>
+      </c>
+      <c r="BS29">
+        <v>91</v>
+      </c>
+      <c r="BT29">
+        <v>0.9630000000000081</v>
+      </c>
+      <c r="BU29">
         <v>171.13</v>
       </c>
-      <c r="BS29">
+      <c r="BV29">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:71">
+    <row r="30" spans="1:74">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B30">
         <v>0.28</v>
@@ -7271,15 +7586,24 @@
         <v>27</v>
       </c>
       <c r="BR30">
+        <v>70.348</v>
+      </c>
+      <c r="BS30">
+        <v>46</v>
+      </c>
+      <c r="BT30">
+        <v>1.652000000000001</v>
+      </c>
+      <c r="BU30">
         <v>162.88</v>
       </c>
-      <c r="BS30">
+      <c r="BV30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:71">
+    <row r="31" spans="1:74">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B31">
         <v>0.607</v>
@@ -7486,15 +7810,24 @@
         <v>52.5</v>
       </c>
       <c r="BR31">
+        <v>70.785</v>
+      </c>
+      <c r="BS31">
+        <v>75</v>
+      </c>
+      <c r="BT31">
+        <v>1.215000000000003</v>
+      </c>
+      <c r="BU31">
         <v>160.8</v>
       </c>
-      <c r="BS31">
+      <c r="BV31">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:71">
+    <row r="32" spans="1:74">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>0.286</v>
@@ -7701,15 +8034,24 @@
         <v>27</v>
       </c>
       <c r="BR32">
+        <v>72.464</v>
+      </c>
+      <c r="BS32">
+        <v>104.75</v>
+      </c>
+      <c r="BT32">
+        <v>-0.4639999999999986</v>
+      </c>
+      <c r="BU32">
         <v>159.67</v>
       </c>
-      <c r="BS32">
+      <c r="BV32">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:71">
+    <row r="33" spans="1:74">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B33">
         <v>0.058</v>
@@ -7916,15 +8258,24 @@
         <v>101</v>
       </c>
       <c r="BR33">
+        <v>71.72525</v>
+      </c>
+      <c r="BS33">
+        <v>66.5</v>
+      </c>
+      <c r="BT33">
+        <v>0.2747499999999974</v>
+      </c>
+      <c r="BU33">
         <v>155.51</v>
       </c>
-      <c r="BS33">
+      <c r="BV33">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:71">
+    <row r="34" spans="1:74">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B34">
         <v>0.272</v>
@@ -8131,15 +8482,24 @@
         <v>27</v>
       </c>
       <c r="BR34">
+        <v>71.55</v>
+      </c>
+      <c r="BS34">
+        <v>136</v>
+      </c>
+      <c r="BT34">
+        <v>0.4500000000000028</v>
+      </c>
+      <c r="BU34">
         <v>148.93</v>
       </c>
-      <c r="BS34">
+      <c r="BV34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:71">
+    <row r="35" spans="1:74">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>-0.05599999999999999</v>
@@ -8346,15 +8706,24 @@
         <v>101</v>
       </c>
       <c r="BR35">
+        <v>70.62625</v>
+      </c>
+      <c r="BS35">
+        <v>23.5</v>
+      </c>
+      <c r="BT35">
+        <v>1.373750000000001</v>
+      </c>
+      <c r="BU35">
         <v>143.14</v>
       </c>
-      <c r="BS35">
+      <c r="BV35">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:71">
+    <row r="36" spans="1:74">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36">
         <v>-0.202</v>
@@ -8561,15 +8930,24 @@
         <v>101</v>
       </c>
       <c r="BR36">
+        <v>71.69199999999999</v>
+      </c>
+      <c r="BS36">
+        <v>72.625</v>
+      </c>
+      <c r="BT36">
+        <v>0.3080000000000069</v>
+      </c>
+      <c r="BU36">
         <v>140.07</v>
       </c>
-      <c r="BS36">
+      <c r="BV36">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:71">
+    <row r="37" spans="1:74">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B37">
         <v>0.203</v>
@@ -8776,15 +9154,24 @@
         <v>101</v>
       </c>
       <c r="BR37">
+        <v>70.27</v>
+      </c>
+      <c r="BS37">
+        <v>43</v>
+      </c>
+      <c r="BT37">
+        <v>1.730000000000004</v>
+      </c>
+      <c r="BU37">
         <v>136.13</v>
       </c>
-      <c r="BS37">
+      <c r="BV37">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:71">
+    <row r="38" spans="1:74">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B38">
         <v>0.218</v>
@@ -8991,15 +9378,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR38">
+        <v>69.91733333333333</v>
+      </c>
+      <c r="BS38">
+        <v>49.83333333333334</v>
+      </c>
+      <c r="BT38">
+        <v>2.082666666666668</v>
+      </c>
+      <c r="BU38">
         <v>135.95</v>
       </c>
-      <c r="BS38">
+      <c r="BV38">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:71">
+    <row r="39" spans="1:74">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>0.6</v>
@@ -9206,15 +9602,24 @@
         <v>5</v>
       </c>
       <c r="BR39">
+        <v>71.44550000000001</v>
+      </c>
+      <c r="BS39">
+        <v>54.5</v>
+      </c>
+      <c r="BT39">
+        <v>0.5544999999999902</v>
+      </c>
+      <c r="BU39">
         <v>135.94</v>
       </c>
-      <c r="BS39">
+      <c r="BV39">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:71">
+    <row r="40" spans="1:74">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40">
         <v>0.848</v>
@@ -9421,15 +9826,24 @@
         <v>52.5</v>
       </c>
       <c r="BR40">
+        <v>69.46899999999999</v>
+      </c>
+      <c r="BS40">
+        <v>33.75</v>
+      </c>
+      <c r="BT40">
+        <v>2.531000000000006</v>
+      </c>
+      <c r="BU40">
         <v>129.77</v>
       </c>
-      <c r="BS40">
+      <c r="BV40">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:71">
+    <row r="41" spans="1:74">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B41">
         <v>-0.08699999999999999</v>
@@ -9636,15 +10050,24 @@
         <v>27</v>
       </c>
       <c r="BR41">
+        <v>70.688</v>
+      </c>
+      <c r="BS41">
+        <v>64</v>
+      </c>
+      <c r="BT41">
+        <v>1.311999999999998</v>
+      </c>
+      <c r="BU41">
         <v>121.53</v>
       </c>
-      <c r="BS41">
+      <c r="BV41">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:71">
+    <row r="42" spans="1:74">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>-0.075</v>
@@ -9851,15 +10274,24 @@
         <v>27</v>
       </c>
       <c r="BR42">
+        <v>71.00766666666665</v>
+      </c>
+      <c r="BS42">
+        <v>43</v>
+      </c>
+      <c r="BT42">
+        <v>0.9923333333333488</v>
+      </c>
+      <c r="BU42">
         <v>114.78</v>
       </c>
-      <c r="BS42">
+      <c r="BV42">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:71">
+    <row r="43" spans="1:74">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B43">
         <v>0.076</v>
@@ -10066,15 +10498,24 @@
         <v>52.5</v>
       </c>
       <c r="BR43">
+        <v>70.714</v>
+      </c>
+      <c r="BS43">
+        <v>68</v>
+      </c>
+      <c r="BT43">
+        <v>1.286000000000001</v>
+      </c>
+      <c r="BU43">
         <v>113.76</v>
       </c>
-      <c r="BS43">
+      <c r="BV43">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:71">
+    <row r="44" spans="1:74">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B44">
         <v>-0.073</v>
@@ -10281,15 +10722,24 @@
         <v>101</v>
       </c>
       <c r="BR44">
+        <v>71.593</v>
+      </c>
+      <c r="BS44">
+        <v>143</v>
+      </c>
+      <c r="BT44">
+        <v>0.4069999999999965</v>
+      </c>
+      <c r="BU44">
         <v>113.66</v>
       </c>
-      <c r="BS44">
+      <c r="BV44">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:71">
+    <row r="45" spans="1:74">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45">
         <v>0.146</v>
@@ -10496,15 +10946,24 @@
         <v>52.5</v>
       </c>
       <c r="BR45">
+        <v>70.53175</v>
+      </c>
+      <c r="BS45">
+        <v>29.25</v>
+      </c>
+      <c r="BT45">
+        <v>1.468249999999998</v>
+      </c>
+      <c r="BU45">
         <v>108.44</v>
       </c>
-      <c r="BS45">
+      <c r="BV45">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:71">
+    <row r="46" spans="1:74">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B46">
         <v>0.052</v>
@@ -10711,15 +11170,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR46">
+        <v>72.34350000000001</v>
+      </c>
+      <c r="BS46">
+        <v>126.25</v>
+      </c>
+      <c r="BT46">
+        <v>-0.3435000000000059</v>
+      </c>
+      <c r="BU46">
         <v>107.81</v>
       </c>
-      <c r="BS46">
+      <c r="BV46">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:71">
+    <row r="47" spans="1:74">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B47">
         <v>-0.352</v>
@@ -10926,15 +11394,24 @@
         <v>52.5</v>
       </c>
       <c r="BR47">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="BS47">
+        <v>56</v>
+      </c>
+      <c r="BT47">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="BU47">
         <v>107.8</v>
       </c>
-      <c r="BS47">
+      <c r="BV47">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:71">
+    <row r="48" spans="1:74">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B48">
         <v>-0.279</v>
@@ -11141,15 +11618,24 @@
         <v>27</v>
       </c>
       <c r="BR48">
+        <v>70.37725</v>
+      </c>
+      <c r="BS48">
+        <v>54.375</v>
+      </c>
+      <c r="BT48">
+        <v>1.622749999999996</v>
+      </c>
+      <c r="BU48">
         <v>106.44</v>
       </c>
-      <c r="BS48">
+      <c r="BV48">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:71">
+    <row r="49" spans="1:74">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B49">
         <v>0.158</v>
@@ -11356,15 +11842,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR49">
+        <v>71.062</v>
+      </c>
+      <c r="BS49">
+        <v>94</v>
+      </c>
+      <c r="BT49">
+        <v>0.9380000000000024</v>
+      </c>
+      <c r="BU49">
         <v>105.02</v>
       </c>
-      <c r="BS49">
+      <c r="BV49">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:71">
+    <row r="50" spans="1:74">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B50">
         <v>-0.039</v>
@@ -11571,15 +12066,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR50">
+        <v>70.71225</v>
+      </c>
+      <c r="BS50">
+        <v>53</v>
+      </c>
+      <c r="BT50">
+        <v>1.287750000000003</v>
+      </c>
+      <c r="BU50">
         <v>103.88</v>
       </c>
-      <c r="BS50">
+      <c r="BV50">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:71">
+    <row r="51" spans="1:74">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B51">
         <v>0.115</v>
@@ -11786,15 +12290,24 @@
         <v>52.5</v>
       </c>
       <c r="BR51">
+        <v>71.35749999999999</v>
+      </c>
+      <c r="BS51">
+        <v>43.75</v>
+      </c>
+      <c r="BT51">
+        <v>0.6425000000000125</v>
+      </c>
+      <c r="BU51">
         <v>102.14</v>
       </c>
-      <c r="BS51">
+      <c r="BV51">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:71">
+    <row r="52" spans="1:74">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B52">
         <v>0.246</v>
@@ -12001,15 +12514,24 @@
         <v>101</v>
       </c>
       <c r="BR52">
+        <v>70.583</v>
+      </c>
+      <c r="BS52">
+        <v>55</v>
+      </c>
+      <c r="BT52">
+        <v>1.417000000000002</v>
+      </c>
+      <c r="BU52">
         <v>101.92</v>
       </c>
-      <c r="BS52">
+      <c r="BV52">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:71">
+    <row r="53" spans="1:74">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B53">
         <v>0.218</v>
@@ -12216,15 +12738,24 @@
         <v>101</v>
       </c>
       <c r="BR53">
+        <v>70.63800000000001</v>
+      </c>
+      <c r="BS53">
+        <v>59</v>
+      </c>
+      <c r="BT53">
+        <v>1.361999999999995</v>
+      </c>
+      <c r="BU53">
         <v>100.48</v>
       </c>
-      <c r="BS53">
+      <c r="BV53">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:71">
+    <row r="54" spans="1:74">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B54">
         <v>-0.049</v>
@@ -12431,15 +12962,24 @@
         <v>52.5</v>
       </c>
       <c r="BR54">
+        <v>69.923</v>
+      </c>
+      <c r="BS54">
+        <v>11.16666666666667</v>
+      </c>
+      <c r="BT54">
+        <v>2.076999999999998</v>
+      </c>
+      <c r="BU54">
         <v>98.79000000000001</v>
       </c>
-      <c r="BS54">
+      <c r="BV54">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:71">
+    <row r="55" spans="1:74">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B55">
         <v>-0.019</v>
@@ -12646,15 +13186,24 @@
         <v>27</v>
       </c>
       <c r="BR55">
+        <v>70.31399999999999</v>
+      </c>
+      <c r="BS55">
+        <v>45</v>
+      </c>
+      <c r="BT55">
+        <v>1.686000000000007</v>
+      </c>
+      <c r="BU55">
         <v>96.89</v>
       </c>
-      <c r="BS55">
+      <c r="BV55">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:71">
+    <row r="56" spans="1:74">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B56">
         <v>-0.188</v>
@@ -12861,15 +13410,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR56">
+        <v>71.29133333333333</v>
+      </c>
+      <c r="BS56">
+        <v>54.83333333333334</v>
+      </c>
+      <c r="BT56">
+        <v>0.708666666666673</v>
+      </c>
+      <c r="BU56">
         <v>96.81</v>
       </c>
-      <c r="BS56">
+      <c r="BV56">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:71">
+    <row r="57" spans="1:74">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B57">
         <v>0.649</v>
@@ -13076,15 +13634,24 @@
         <v>52.5</v>
       </c>
       <c r="BR57">
+        <v>69.96666666666665</v>
+      </c>
+      <c r="BS57">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="BT57">
+        <v>2.033333333333346</v>
+      </c>
+      <c r="BU57">
         <v>94.41</v>
       </c>
-      <c r="BS57">
+      <c r="BV57">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:71">
+    <row r="58" spans="1:74">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B58">
         <v>0.004</v>
@@ -13291,15 +13858,24 @@
         <v>52.5</v>
       </c>
       <c r="BR58">
+        <v>71.124</v>
+      </c>
+      <c r="BS58">
+        <v>100</v>
+      </c>
+      <c r="BT58">
+        <v>0.8760000000000048</v>
+      </c>
+      <c r="BU58">
         <v>94.09</v>
       </c>
-      <c r="BS58">
+      <c r="BV58">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:71">
+    <row r="59" spans="1:74">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B59">
         <v>0.13</v>
@@ -13506,15 +14082,24 @@
         <v>101</v>
       </c>
       <c r="BR59">
-        <v>90.09</v>
+        <v>70.709</v>
       </c>
       <c r="BS59">
         <v>67</v>
       </c>
+      <c r="BT59">
+        <v>1.290999999999997</v>
+      </c>
+      <c r="BU59">
+        <v>90.09</v>
+      </c>
+      <c r="BV59">
+        <v>67</v>
+      </c>
     </row>
-    <row r="60" spans="1:71">
+    <row r="60" spans="1:74">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B60">
         <v>0.046</v>
@@ -13721,15 +14306,24 @@
         <v>101</v>
       </c>
       <c r="BR60">
+        <v>71.318</v>
+      </c>
+      <c r="BS60">
+        <v>114</v>
+      </c>
+      <c r="BT60">
+        <v>0.6820000000000022</v>
+      </c>
+      <c r="BU60">
         <v>89.58</v>
       </c>
-      <c r="BS60">
+      <c r="BV60">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:71">
+    <row r="61" spans="1:74">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B61">
         <v>-0.107</v>
@@ -13936,15 +14530,24 @@
         <v>101</v>
       </c>
       <c r="BR61">
+        <v>72.61499999999999</v>
+      </c>
+      <c r="BS61">
+        <v>82.5</v>
+      </c>
+      <c r="BT61">
+        <v>-0.6149999999999949</v>
+      </c>
+      <c r="BU61">
         <v>84.76000000000001</v>
       </c>
-      <c r="BS61">
+      <c r="BV61">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:71">
+    <row r="62" spans="1:74">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B62">
         <v>-0.004</v>
@@ -14151,15 +14754,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR62">
+        <v>71.571</v>
+      </c>
+      <c r="BS62">
+        <v>139</v>
+      </c>
+      <c r="BT62">
+        <v>0.429000000000002</v>
+      </c>
+      <c r="BU62">
         <v>84.43000000000001</v>
       </c>
-      <c r="BS62">
+      <c r="BV62">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:71">
+    <row r="63" spans="1:74">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B63">
         <v>0.356</v>
@@ -14366,15 +14978,24 @@
         <v>101</v>
       </c>
       <c r="BR63">
+        <v>71.13</v>
+      </c>
+      <c r="BS63">
+        <v>101</v>
+      </c>
+      <c r="BT63">
+        <v>0.8700000000000045</v>
+      </c>
+      <c r="BU63">
         <v>82.39</v>
       </c>
-      <c r="BS63">
+      <c r="BV63">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:71">
+    <row r="64" spans="1:74">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B64">
         <v>-0.181</v>
@@ -14581,15 +15202,24 @@
         <v>101</v>
       </c>
       <c r="BR64">
+        <v>71.96325</v>
+      </c>
+      <c r="BS64">
+        <v>69.625</v>
+      </c>
+      <c r="BT64">
+        <v>0.03674999999999784</v>
+      </c>
+      <c r="BU64">
         <v>82.08</v>
       </c>
-      <c r="BS64">
+      <c r="BV64">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:71">
+    <row r="65" spans="1:74">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B65">
         <v>0.159</v>
@@ -14796,15 +15426,24 @@
         <v>52.5</v>
       </c>
       <c r="BR65">
+        <v>70.40899999999999</v>
+      </c>
+      <c r="BS65">
+        <v>49</v>
+      </c>
+      <c r="BT65">
+        <v>1.591000000000008</v>
+      </c>
+      <c r="BU65">
         <v>80.48</v>
       </c>
-      <c r="BS65">
+      <c r="BV65">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:71">
+    <row r="66" spans="1:74">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B66">
         <v>0.9990000000000001</v>
@@ -15011,15 +15650,24 @@
         <v>101</v>
       </c>
       <c r="BR66">
+        <v>71.21899999999999</v>
+      </c>
+      <c r="BS66">
+        <v>110</v>
+      </c>
+      <c r="BT66">
+        <v>0.7810000000000059</v>
+      </c>
+      <c r="BU66">
         <v>80.31</v>
       </c>
-      <c r="BS66">
+      <c r="BV66">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:71">
+    <row r="67" spans="1:74">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B67">
         <v>-0.05</v>
@@ -15226,15 +15874,24 @@
         <v>101</v>
       </c>
       <c r="BR67">
+        <v>71.86250000000001</v>
+      </c>
+      <c r="BS67">
+        <v>103</v>
+      </c>
+      <c r="BT67">
+        <v>0.1374999999999886</v>
+      </c>
+      <c r="BU67">
         <v>80.01000000000001</v>
       </c>
-      <c r="BS67">
+      <c r="BV67">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:71">
+    <row r="68" spans="1:74">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B68">
         <v>0.081</v>
@@ -15441,15 +16098,24 @@
         <v>101</v>
       </c>
       <c r="BR68">
+        <v>71.9705</v>
+      </c>
+      <c r="BS68">
+        <v>115.5</v>
+      </c>
+      <c r="BT68">
+        <v>0.02949999999999875</v>
+      </c>
+      <c r="BU68">
         <v>79.36</v>
       </c>
-      <c r="BS68">
+      <c r="BV68">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:71">
+    <row r="69" spans="1:74">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B69">
         <v>0.493</v>
@@ -15656,15 +16322,24 @@
         <v>27</v>
       </c>
       <c r="BR69">
+        <v>69.994</v>
+      </c>
+      <c r="BS69">
+        <v>30</v>
+      </c>
+      <c r="BT69">
+        <v>2.006</v>
+      </c>
+      <c r="BU69">
         <v>75.98999999999999</v>
       </c>
-      <c r="BS69">
+      <c r="BV69">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:71">
+    <row r="70" spans="1:74">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B70">
         <v>-0.231</v>
@@ -15871,15 +16546,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR70">
+        <v>73.10400000000001</v>
+      </c>
+      <c r="BS70">
+        <v>116.5</v>
+      </c>
+      <c r="BT70">
+        <v>-1.104000000000013</v>
+      </c>
+      <c r="BU70">
         <v>75.66</v>
       </c>
-      <c r="BS70">
+      <c r="BV70">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:71">
+    <row r="71" spans="1:74">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B71">
         <v>0.172</v>
@@ -16086,15 +16770,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR71">
+        <v>69.9135</v>
+      </c>
+      <c r="BS71">
+        <v>45</v>
+      </c>
+      <c r="BT71">
+        <v>2.086500000000001</v>
+      </c>
+      <c r="BU71">
         <v>73.7</v>
       </c>
-      <c r="BS71">
+      <c r="BV71">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:71">
+    <row r="72" spans="1:74">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B72">
         <v>-0.004</v>
@@ -16301,15 +16994,24 @@
         <v>64.35897435897436</v>
       </c>
       <c r="BR72">
+        <v>71.60699999999999</v>
+      </c>
+      <c r="BS72">
+        <v>69.5</v>
+      </c>
+      <c r="BT72">
+        <v>0.3930000000000149</v>
+      </c>
+      <c r="BU72">
         <v>72.7</v>
       </c>
-      <c r="BS72">
+      <c r="BV72">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:71">
+    <row r="73" spans="1:74">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B73">
         <v>0.125</v>
@@ -16516,15 +17218,24 @@
         <v>52.5</v>
       </c>
       <c r="BR73">
+        <v>71.37</v>
+      </c>
+      <c r="BS73">
+        <v>118.5</v>
+      </c>
+      <c r="BT73">
+        <v>0.6299999999999955</v>
+      </c>
+      <c r="BU73">
         <v>72.68000000000001</v>
       </c>
-      <c r="BS73">
+      <c r="BV73">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:71">
+    <row r="74" spans="1:74">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B74">
         <v>-0.125</v>
@@ -16731,15 +17442,24 @@
         <v>52.5</v>
       </c>
       <c r="BR74">
+        <v>70.389</v>
+      </c>
+      <c r="BS74">
+        <v>48</v>
+      </c>
+      <c r="BT74">
+        <v>1.611000000000004</v>
+      </c>
+      <c r="BU74">
         <v>72.48</v>
       </c>
-      <c r="BS74">
+      <c r="BV74">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:71">
+    <row r="75" spans="1:74">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B75">
         <v>-0.13</v>
@@ -16946,428 +17666,446 @@
         <v>101</v>
       </c>
       <c r="BR75">
+        <v>72.54899999999999</v>
+      </c>
+      <c r="BS75">
+        <v>196</v>
+      </c>
+      <c r="BT75">
+        <v>-0.5489999999999924</v>
+      </c>
+      <c r="BU75">
         <v>72.41</v>
       </c>
-      <c r="BS75">
+      <c r="BV75">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:71">
+    <row r="76" spans="1:74">
       <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76">
+        <v>-0.096</v>
+      </c>
+      <c r="C76">
+        <v>132</v>
+      </c>
+      <c r="D76">
+        <v>-0.527</v>
+      </c>
+      <c r="E76">
+        <v>199.5</v>
+      </c>
+      <c r="F76">
+        <v>-0.328</v>
+      </c>
+      <c r="G76">
+        <v>182</v>
+      </c>
+      <c r="H76">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="I76">
+        <v>144.5</v>
+      </c>
+      <c r="J76">
+        <v>-0.166</v>
+      </c>
+      <c r="K76">
+        <v>135</v>
+      </c>
+      <c r="L76">
+        <v>-0.364</v>
+      </c>
+      <c r="M76">
+        <v>172</v>
+      </c>
+      <c r="N76">
+        <v>0.067</v>
+      </c>
+      <c r="O76">
+        <v>90</v>
+      </c>
+      <c r="P76">
+        <v>0.435</v>
+      </c>
+      <c r="Q76">
+        <v>42.5</v>
+      </c>
+      <c r="R76">
+        <v>-0.096</v>
+      </c>
+      <c r="S76">
+        <v>132</v>
+      </c>
+      <c r="T76">
+        <v>-0.527</v>
+      </c>
+      <c r="U76">
+        <v>199.5</v>
+      </c>
+      <c r="V76">
+        <v>-0.524</v>
+      </c>
+      <c r="W76">
+        <v>156</v>
+      </c>
+      <c r="X76">
+        <v>-0.525</v>
+      </c>
+      <c r="Y76">
+        <v>161</v>
+      </c>
+      <c r="Z76">
+        <v>293.7</v>
+      </c>
+      <c r="AA76">
+        <v>134</v>
+      </c>
+      <c r="AB76">
+        <v>284.7</v>
+      </c>
+      <c r="AC76">
+        <v>195</v>
+      </c>
+      <c r="AD76">
+        <v>62.55</v>
+      </c>
+      <c r="AE76">
+        <v>66</v>
+      </c>
+      <c r="AF76">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="AG76">
+        <v>51</v>
+      </c>
+      <c r="AH76">
+        <v>3.04</v>
+      </c>
+      <c r="AI76">
+        <v>80</v>
+      </c>
+      <c r="AJ76">
+        <v>3.12</v>
+      </c>
+      <c r="AK76">
+        <v>175</v>
+      </c>
+      <c r="AL76">
+        <v>4.04</v>
+      </c>
+      <c r="AM76">
         <v>145</v>
       </c>
-      <c r="B76">
+      <c r="AN76">
+        <v>4.1</v>
+      </c>
+      <c r="AO76">
+        <v>200</v>
+      </c>
+      <c r="AP76">
+        <v>4.73</v>
+      </c>
+      <c r="AQ76">
+        <v>175</v>
+      </c>
+      <c r="AR76">
+        <v>4.68</v>
+      </c>
+      <c r="AS76">
+        <v>153.5</v>
+      </c>
+      <c r="AT76">
+        <v>63.84</v>
+      </c>
+      <c r="AU76">
+        <v>173</v>
+      </c>
+      <c r="AV76">
+        <v>63.33</v>
+      </c>
+      <c r="AW76">
+        <v>190</v>
+      </c>
+      <c r="AX76">
+        <v>57.97</v>
+      </c>
+      <c r="AY76">
+        <v>118</v>
+      </c>
+      <c r="AZ76">
+        <v>52.53</v>
+      </c>
+      <c r="BA76">
+        <v>200</v>
+      </c>
+      <c r="BB76">
+        <v>37.93</v>
+      </c>
+      <c r="BC76">
+        <v>183</v>
+      </c>
+      <c r="BD76">
+        <v>53.06</v>
+      </c>
+      <c r="BE76">
+        <v>82.5</v>
+      </c>
+      <c r="BF76">
+        <v>1.759</v>
+      </c>
+      <c r="BG76">
+        <v>87</v>
+      </c>
+      <c r="BH76">
+        <v>1.772</v>
+      </c>
+      <c r="BI76">
+        <v>136</v>
+      </c>
+      <c r="BJ76">
+        <v>281</v>
+      </c>
+      <c r="BK76">
+        <v>153</v>
+      </c>
+      <c r="BL76">
+        <v>345</v>
+      </c>
+      <c r="BM76">
+        <v>186</v>
+      </c>
+      <c r="BN76">
+        <v>2.696551724137931</v>
+      </c>
+      <c r="BO76">
+        <v>78.06206896551724</v>
+      </c>
+      <c r="BP76">
+        <v>2.051282051282051</v>
+      </c>
+      <c r="BQ76">
+        <v>64.35897435897436</v>
+      </c>
+      <c r="BR76">
+        <v>71.783</v>
+      </c>
+      <c r="BS76">
+        <v>67.16666666666667</v>
+      </c>
+      <c r="BT76">
+        <v>0.2169999999999987</v>
+      </c>
+      <c r="BU76">
+        <v>72.22</v>
+      </c>
+      <c r="BV76">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:74">
+      <c r="A77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77">
         <v>0.062</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>90</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>-0.151</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>146.5</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <v>-0.095</v>
       </c>
-      <c r="G76">
+      <c r="G77">
         <v>129.5</v>
       </c>
-      <c r="H76">
+      <c r="H77">
         <v>0</v>
       </c>
-      <c r="I76">
+      <c r="I77">
         <v>120</v>
       </c>
-      <c r="J76">
+      <c r="J77">
         <v>0.389</v>
       </c>
-      <c r="K76">
+      <c r="K77">
         <v>35</v>
       </c>
-      <c r="L76">
+      <c r="L77">
         <v>0.4320000000000001</v>
       </c>
-      <c r="M76">
+      <c r="M77">
         <v>38</v>
       </c>
-      <c r="N76">
+      <c r="N77">
         <v>0.046</v>
       </c>
-      <c r="O76">
+      <c r="O77">
         <v>97</v>
       </c>
-      <c r="P76">
+      <c r="P77">
         <v>0.237</v>
       </c>
-      <c r="Q76">
+      <c r="Q77">
         <v>76</v>
       </c>
-      <c r="R76">
+      <c r="R77">
         <v>0.062</v>
       </c>
-      <c r="S76">
+      <c r="S77">
         <v>90</v>
       </c>
-      <c r="T76">
+      <c r="T77">
         <v>-0.151</v>
       </c>
-      <c r="U76">
+      <c r="U77">
         <v>146.5</v>
       </c>
-      <c r="V76">
+      <c r="V77">
         <v>0.401</v>
       </c>
-      <c r="W76">
+      <c r="W77">
         <v>61</v>
       </c>
-      <c r="X76">
+      <c r="X77">
         <v>0.517</v>
       </c>
-      <c r="Y76">
+      <c r="Y77">
         <v>69</v>
       </c>
-      <c r="Z76">
+      <c r="Z77">
         <v>290.4</v>
       </c>
-      <c r="AA76">
+      <c r="AA77">
         <v>151</v>
       </c>
-      <c r="AB76">
+      <c r="AB77">
         <v>288.4</v>
       </c>
-      <c r="AC76">
+      <c r="AC77">
         <v>172.5</v>
       </c>
-      <c r="AD76">
+      <c r="AD77">
         <v>60.58</v>
       </c>
-      <c r="AE76">
+      <c r="AE77">
         <v>94</v>
       </c>
-      <c r="AF76">
+      <c r="AF77">
         <v>61.38</v>
       </c>
-      <c r="AG76">
+      <c r="AG77">
         <v>83</v>
       </c>
-      <c r="AH76">
+      <c r="AH77">
         <v>3.06</v>
       </c>
-      <c r="AI76">
+      <c r="AI77">
         <v>116.5</v>
       </c>
-      <c r="AJ76">
+      <c r="AJ77">
         <v>3.05</v>
       </c>
-      <c r="AK76">
+      <c r="AK77">
         <v>89</v>
       </c>
-      <c r="AL76">
+      <c r="AL77">
         <v>3.99</v>
       </c>
-      <c r="AM76">
+      <c r="AM77">
         <v>47</v>
       </c>
-      <c r="AN76">
+      <c r="AN77">
         <v>3.98</v>
       </c>
-      <c r="AO76">
+      <c r="AO77">
         <v>39</v>
       </c>
-      <c r="AP76">
+      <c r="AP77">
         <v>4.72</v>
       </c>
-      <c r="AQ76">
+      <c r="AQ77">
         <v>168.5</v>
       </c>
-      <c r="AR76">
+      <c r="AR77">
         <v>4.59</v>
       </c>
-      <c r="AS76">
+      <c r="AS77">
         <v>64.5</v>
       </c>
-      <c r="AT76">
+      <c r="AT77">
         <v>65.62</v>
       </c>
-      <c r="AU76">
+      <c r="AU77">
         <v>132.5</v>
       </c>
-      <c r="AV76">
+      <c r="AV77">
         <v>64.78</v>
       </c>
-      <c r="AW76">
+      <c r="AW77">
         <v>161</v>
       </c>
-      <c r="AX76">
+      <c r="AX77">
         <v>60.48</v>
       </c>
-      <c r="AY76">
+      <c r="AY77">
         <v>66</v>
       </c>
-      <c r="AZ76">
+      <c r="AZ77">
         <v>61.2</v>
       </c>
-      <c r="BA76">
+      <c r="BA77">
         <v>65</v>
       </c>
-      <c r="BB76">
+      <c r="BB77">
         <v>43.33</v>
       </c>
-      <c r="BC76">
+      <c r="BC77">
         <v>164</v>
       </c>
-      <c r="BD76">
+      <c r="BD77">
         <v>42.86</v>
       </c>
-      <c r="BE76">
+      <c r="BE77">
         <v>178.5</v>
       </c>
-      <c r="BF76">
+      <c r="BF77">
         <v>1.768</v>
       </c>
-      <c r="BG76">
+      <c r="BG77">
         <v>115.5</v>
       </c>
-      <c r="BH76">
+      <c r="BH77">
         <v>1.7</v>
       </c>
-      <c r="BI76">
+      <c r="BI77">
         <v>7.5</v>
       </c>
-      <c r="BJ76">
+      <c r="BJ77">
         <v>298</v>
       </c>
-      <c r="BK76">
+      <c r="BK77">
         <v>158</v>
       </c>
-      <c r="BL76">
+      <c r="BL77">
         <v>320</v>
       </c>
-      <c r="BM76">
+      <c r="BM77">
         <v>174</v>
       </c>
-      <c r="BN76">
+      <c r="BN77">
         <v>3</v>
       </c>
-      <c r="BO76">
+      <c r="BO77">
         <v>48</v>
-      </c>
-      <c r="BP76">
-        <v>1</v>
-      </c>
-      <c r="BQ76">
-        <v>101</v>
-      </c>
-      <c r="BR76">
-        <v>71.53</v>
-      </c>
-      <c r="BS76">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:71">
-      <c r="A77" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77">
-        <v>-0.187</v>
-      </c>
-      <c r="C77">
-        <v>153</v>
-      </c>
-      <c r="D77">
-        <v>-0.289</v>
-      </c>
-      <c r="E77">
-        <v>171</v>
-      </c>
-      <c r="F77">
-        <v>-0.04</v>
-      </c>
-      <c r="G77">
-        <v>109.5</v>
-      </c>
-      <c r="H77">
-        <v>0.013</v>
-      </c>
-      <c r="I77">
-        <v>119</v>
-      </c>
-      <c r="J77">
-        <v>-0.127</v>
-      </c>
-      <c r="K77">
-        <v>127</v>
-      </c>
-      <c r="L77">
-        <v>-0.004</v>
-      </c>
-      <c r="M77">
-        <v>112.5</v>
-      </c>
-      <c r="N77">
-        <v>0.181</v>
-      </c>
-      <c r="O77">
-        <v>67</v>
-      </c>
-      <c r="P77">
-        <v>0.08</v>
-      </c>
-      <c r="Q77">
-        <v>102</v>
-      </c>
-      <c r="R77">
-        <v>-0.187</v>
-      </c>
-      <c r="S77">
-        <v>153</v>
-      </c>
-      <c r="T77">
-        <v>-0.289</v>
-      </c>
-      <c r="U77">
-        <v>171</v>
-      </c>
-      <c r="V77">
-        <v>-0.173</v>
-      </c>
-      <c r="W77">
-        <v>131</v>
-      </c>
-      <c r="X77">
-        <v>-0.201</v>
-      </c>
-      <c r="Y77">
-        <v>130</v>
-      </c>
-      <c r="Z77">
-        <v>288.4</v>
-      </c>
-      <c r="AA77">
-        <v>165</v>
-      </c>
-      <c r="AB77">
-        <v>288</v>
-      </c>
-      <c r="AC77">
-        <v>174.5</v>
-      </c>
-      <c r="AD77">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="AE77">
-        <v>32</v>
-      </c>
-      <c r="AF77">
-        <v>67.45</v>
-      </c>
-      <c r="AG77">
-        <v>23</v>
-      </c>
-      <c r="AH77">
-        <v>3.02</v>
-      </c>
-      <c r="AI77">
-        <v>51</v>
-      </c>
-      <c r="AJ77">
-        <v>3.02</v>
-      </c>
-      <c r="AK77">
-        <v>53</v>
-      </c>
-      <c r="AL77">
-        <v>4.06</v>
-      </c>
-      <c r="AM77">
-        <v>168.5</v>
-      </c>
-      <c r="AN77">
-        <v>4.05</v>
-      </c>
-      <c r="AO77">
-        <v>152.5</v>
-      </c>
-      <c r="AP77">
-        <v>4.61</v>
-      </c>
-      <c r="AQ77">
-        <v>66.5</v>
-      </c>
-      <c r="AR77">
-        <v>4.66</v>
-      </c>
-      <c r="AS77">
-        <v>132</v>
-      </c>
-      <c r="AT77">
-        <v>64.95999999999999</v>
-      </c>
-      <c r="AU77">
-        <v>154</v>
-      </c>
-      <c r="AV77">
-        <v>65.83</v>
-      </c>
-      <c r="AW77">
-        <v>130</v>
-      </c>
-      <c r="AX77">
-        <v>60.87</v>
-      </c>
-      <c r="AY77">
-        <v>52.5</v>
-      </c>
-      <c r="AZ77">
-        <v>57.32</v>
-      </c>
-      <c r="BA77">
-        <v>146</v>
-      </c>
-      <c r="BB77">
-        <v>57.14</v>
-      </c>
-      <c r="BC77">
-        <v>27</v>
-      </c>
-      <c r="BD77">
-        <v>43.4</v>
-      </c>
-      <c r="BE77">
-        <v>175</v>
-      </c>
-      <c r="BF77">
-        <v>1.772</v>
-      </c>
-      <c r="BG77">
-        <v>129.5</v>
-      </c>
-      <c r="BH77">
-        <v>1.753</v>
-      </c>
-      <c r="BI77">
-        <v>90</v>
-      </c>
-      <c r="BJ77">
-        <v>257</v>
-      </c>
-      <c r="BK77">
-        <v>142</v>
-      </c>
-      <c r="BL77">
-        <v>217</v>
-      </c>
-      <c r="BM77">
-        <v>105</v>
-      </c>
-      <c r="BN77">
-        <v>2</v>
-      </c>
-      <c r="BO77">
-        <v>77.5</v>
       </c>
       <c r="BP77">
         <v>1</v>
@@ -17376,207 +18114,216 @@
         <v>101</v>
       </c>
       <c r="BR77">
-        <v>71.09</v>
+        <v>70.98399999999999</v>
       </c>
       <c r="BS77">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="BT77">
+        <v>1.016000000000005</v>
+      </c>
+      <c r="BU77">
+        <v>71.53</v>
+      </c>
+      <c r="BV77">
+        <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:71">
+    <row r="78" spans="1:74">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B78">
-        <v>-0.032</v>
+        <v>-0.187</v>
       </c>
       <c r="C78">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D78">
-        <v>0.337</v>
+        <v>-0.289</v>
       </c>
       <c r="E78">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="F78">
-        <v>-0.034</v>
+        <v>-0.04</v>
       </c>
       <c r="G78">
-        <v>106</v>
+        <v>109.5</v>
       </c>
       <c r="H78">
-        <v>-0.149</v>
+        <v>0.013</v>
       </c>
       <c r="I78">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="J78">
-        <v>0.28</v>
+        <v>-0.127</v>
       </c>
       <c r="K78">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="L78">
-        <v>0.611</v>
+        <v>-0.004</v>
       </c>
       <c r="M78">
-        <v>24</v>
+        <v>112.5</v>
       </c>
       <c r="N78">
-        <v>0.08500000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="O78">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="P78">
-        <v>0.312</v>
+        <v>0.08</v>
       </c>
       <c r="Q78">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="R78">
-        <v>-0.032</v>
+        <v>-0.187</v>
       </c>
       <c r="S78">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="T78">
-        <v>0.337</v>
+        <v>-0.289</v>
       </c>
       <c r="U78">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="V78">
-        <v>0.3</v>
+        <v>-0.173</v>
       </c>
       <c r="W78">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="X78">
-        <v>1.11</v>
+        <v>-0.201</v>
       </c>
       <c r="Y78">
+        <v>130</v>
+      </c>
+      <c r="Z78">
+        <v>288.4</v>
+      </c>
+      <c r="AA78">
+        <v>165</v>
+      </c>
+      <c r="AB78">
+        <v>288</v>
+      </c>
+      <c r="AC78">
+        <v>174.5</v>
+      </c>
+      <c r="AD78">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AE78">
+        <v>32</v>
+      </c>
+      <c r="AF78">
+        <v>67.45</v>
+      </c>
+      <c r="AG78">
+        <v>23</v>
+      </c>
+      <c r="AH78">
+        <v>3.02</v>
+      </c>
+      <c r="AI78">
+        <v>51</v>
+      </c>
+      <c r="AJ78">
+        <v>3.02</v>
+      </c>
+      <c r="AK78">
+        <v>53</v>
+      </c>
+      <c r="AL78">
+        <v>4.06</v>
+      </c>
+      <c r="AM78">
+        <v>168.5</v>
+      </c>
+      <c r="AN78">
+        <v>4.05</v>
+      </c>
+      <c r="AO78">
+        <v>152.5</v>
+      </c>
+      <c r="AP78">
+        <v>4.61</v>
+      </c>
+      <c r="AQ78">
+        <v>66.5</v>
+      </c>
+      <c r="AR78">
+        <v>4.66</v>
+      </c>
+      <c r="AS78">
+        <v>132</v>
+      </c>
+      <c r="AT78">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="AU78">
+        <v>154</v>
+      </c>
+      <c r="AV78">
+        <v>65.83</v>
+      </c>
+      <c r="AW78">
+        <v>130</v>
+      </c>
+      <c r="AX78">
+        <v>60.87</v>
+      </c>
+      <c r="AY78">
+        <v>52.5</v>
+      </c>
+      <c r="AZ78">
+        <v>57.32</v>
+      </c>
+      <c r="BA78">
+        <v>146</v>
+      </c>
+      <c r="BB78">
+        <v>57.14</v>
+      </c>
+      <c r="BC78">
         <v>27</v>
       </c>
-      <c r="Z78">
-        <v>296.5</v>
-      </c>
-      <c r="AA78">
-        <v>104</v>
-      </c>
-      <c r="AB78">
-        <v>305.9</v>
-      </c>
-      <c r="AC78">
-        <v>23</v>
-      </c>
-      <c r="AD78">
-        <v>56.85</v>
-      </c>
-      <c r="AE78">
-        <v>150</v>
-      </c>
-      <c r="AF78">
-        <v>53.12</v>
-      </c>
-      <c r="AG78">
-        <v>186</v>
-      </c>
-      <c r="AH78">
-        <v>3.05</v>
-      </c>
-      <c r="AI78">
-        <v>97.5</v>
-      </c>
-      <c r="AJ78">
-        <v>2.94</v>
-      </c>
-      <c r="AK78">
-        <v>4.5</v>
-      </c>
-      <c r="AL78">
-        <v>4.03</v>
-      </c>
-      <c r="AM78">
-        <v>128</v>
-      </c>
-      <c r="AN78">
-        <v>4</v>
-      </c>
-      <c r="AO78">
-        <v>76.5</v>
-      </c>
-      <c r="AP78">
-        <v>4.56</v>
-      </c>
-      <c r="AQ78">
-        <v>29.5</v>
-      </c>
-      <c r="AR78">
-        <v>4.64</v>
-      </c>
-      <c r="AS78">
-        <v>113.5</v>
-      </c>
-      <c r="AT78">
-        <v>68.36</v>
-      </c>
-      <c r="AU78">
-        <v>58</v>
-      </c>
-      <c r="AV78">
-        <v>70.02</v>
-      </c>
-      <c r="AW78">
-        <v>36</v>
-      </c>
-      <c r="AX78">
-        <v>55.36</v>
-      </c>
-      <c r="AY78">
-        <v>168</v>
-      </c>
-      <c r="AZ78">
-        <v>61.19</v>
-      </c>
-      <c r="BA78">
-        <v>66</v>
-      </c>
-      <c r="BB78">
-        <v>53.4</v>
-      </c>
-      <c r="BC78">
-        <v>54.5</v>
-      </c>
       <c r="BD78">
-        <v>42.86</v>
+        <v>43.4</v>
       </c>
       <c r="BE78">
-        <v>178.5</v>
+        <v>175</v>
       </c>
       <c r="BF78">
-        <v>1.726</v>
+        <v>1.772</v>
       </c>
       <c r="BG78">
-        <v>17</v>
+        <v>129.5</v>
       </c>
       <c r="BH78">
-        <v>1.747</v>
+        <v>1.753</v>
       </c>
       <c r="BI78">
-        <v>77.5</v>
+        <v>90</v>
       </c>
       <c r="BJ78">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="BK78">
-        <v>120.5</v>
+        <v>142</v>
       </c>
       <c r="BL78">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="BM78">
-        <v>56.5</v>
+        <v>105</v>
       </c>
       <c r="BN78">
         <v>2</v>
@@ -17585,434 +18332,452 @@
         <v>77.5</v>
       </c>
       <c r="BP78">
+        <v>1</v>
+      </c>
+      <c r="BQ78">
+        <v>101</v>
+      </c>
+      <c r="BR78">
+        <v>72.105</v>
+      </c>
+      <c r="BS78">
+        <v>178</v>
+      </c>
+      <c r="BT78">
+        <v>-0.105000000000004</v>
+      </c>
+      <c r="BU78">
+        <v>71.09</v>
+      </c>
+      <c r="BV78">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:74">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79">
+        <v>-0.032</v>
+      </c>
+      <c r="C79">
+        <v>111</v>
+      </c>
+      <c r="D79">
+        <v>0.337</v>
+      </c>
+      <c r="E79">
+        <v>37</v>
+      </c>
+      <c r="F79">
+        <v>-0.034</v>
+      </c>
+      <c r="G79">
+        <v>106</v>
+      </c>
+      <c r="H79">
+        <v>-0.149</v>
+      </c>
+      <c r="I79">
+        <v>166</v>
+      </c>
+      <c r="J79">
+        <v>0.28</v>
+      </c>
+      <c r="K79">
+        <v>55</v>
+      </c>
+      <c r="L79">
+        <v>0.611</v>
+      </c>
+      <c r="M79">
+        <v>24</v>
+      </c>
+      <c r="N79">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="O79">
+        <v>88</v>
+      </c>
+      <c r="P79">
+        <v>0.312</v>
+      </c>
+      <c r="Q79">
+        <v>62</v>
+      </c>
+      <c r="R79">
+        <v>-0.032</v>
+      </c>
+      <c r="S79">
+        <v>111</v>
+      </c>
+      <c r="T79">
+        <v>0.337</v>
+      </c>
+      <c r="U79">
+        <v>37</v>
+      </c>
+      <c r="V79">
+        <v>0.3</v>
+      </c>
+      <c r="W79">
+        <v>77</v>
+      </c>
+      <c r="X79">
+        <v>1.11</v>
+      </c>
+      <c r="Y79">
+        <v>27</v>
+      </c>
+      <c r="Z79">
+        <v>296.5</v>
+      </c>
+      <c r="AA79">
+        <v>104</v>
+      </c>
+      <c r="AB79">
+        <v>305.9</v>
+      </c>
+      <c r="AC79">
+        <v>23</v>
+      </c>
+      <c r="AD79">
+        <v>56.85</v>
+      </c>
+      <c r="AE79">
+        <v>150</v>
+      </c>
+      <c r="AF79">
+        <v>53.12</v>
+      </c>
+      <c r="AG79">
+        <v>186</v>
+      </c>
+      <c r="AH79">
+        <v>3.05</v>
+      </c>
+      <c r="AI79">
+        <v>97.5</v>
+      </c>
+      <c r="AJ79">
+        <v>2.94</v>
+      </c>
+      <c r="AK79">
+        <v>4.5</v>
+      </c>
+      <c r="AL79">
+        <v>4.03</v>
+      </c>
+      <c r="AM79">
+        <v>128</v>
+      </c>
+      <c r="AN79">
+        <v>4</v>
+      </c>
+      <c r="AO79">
+        <v>76.5</v>
+      </c>
+      <c r="AP79">
+        <v>4.56</v>
+      </c>
+      <c r="AQ79">
+        <v>29.5</v>
+      </c>
+      <c r="AR79">
+        <v>4.64</v>
+      </c>
+      <c r="AS79">
+        <v>113.5</v>
+      </c>
+      <c r="AT79">
+        <v>68.36</v>
+      </c>
+      <c r="AU79">
+        <v>58</v>
+      </c>
+      <c r="AV79">
+        <v>70.02</v>
+      </c>
+      <c r="AW79">
+        <v>36</v>
+      </c>
+      <c r="AX79">
+        <v>55.36</v>
+      </c>
+      <c r="AY79">
+        <v>168</v>
+      </c>
+      <c r="AZ79">
+        <v>61.19</v>
+      </c>
+      <c r="BA79">
+        <v>66</v>
+      </c>
+      <c r="BB79">
+        <v>53.4</v>
+      </c>
+      <c r="BC79">
+        <v>54.5</v>
+      </c>
+      <c r="BD79">
+        <v>42.86</v>
+      </c>
+      <c r="BE79">
+        <v>178.5</v>
+      </c>
+      <c r="BF79">
+        <v>1.726</v>
+      </c>
+      <c r="BG79">
+        <v>17</v>
+      </c>
+      <c r="BH79">
+        <v>1.747</v>
+      </c>
+      <c r="BI79">
+        <v>77.5</v>
+      </c>
+      <c r="BJ79">
+        <v>226</v>
+      </c>
+      <c r="BK79">
+        <v>120.5</v>
+      </c>
+      <c r="BL79">
+        <v>138</v>
+      </c>
+      <c r="BM79">
+        <v>56.5</v>
+      </c>
+      <c r="BN79">
+        <v>2</v>
+      </c>
+      <c r="BO79">
+        <v>77.5</v>
+      </c>
+      <c r="BP79">
         <v>3</v>
       </c>
-      <c r="BQ78">
+      <c r="BQ79">
         <v>27</v>
       </c>
-      <c r="BR78">
+      <c r="BR79">
+        <v>70.86749999999999</v>
+      </c>
+      <c r="BS79">
+        <v>45</v>
+      </c>
+      <c r="BT79">
+        <v>1.132500000000007</v>
+      </c>
+      <c r="BU79">
         <v>69.45</v>
       </c>
-      <c r="BS78">
+      <c r="BV79">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:71">
-      <c r="A79" t="s">
-        <v>148</v>
-      </c>
-      <c r="B79">
+    <row r="80" spans="1:74">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80">
         <v>0.251</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>46</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>0.09699999999999999</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>80</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>-0.023</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <v>101</v>
       </c>
-      <c r="H79">
+      <c r="H80">
         <v>0.216</v>
       </c>
-      <c r="I79">
+      <c r="I80">
         <v>53</v>
       </c>
-      <c r="J79">
+      <c r="J80">
         <v>0.187</v>
       </c>
-      <c r="K79">
+      <c r="K80">
         <v>72</v>
       </c>
-      <c r="L79">
+      <c r="L80">
         <v>-0.021</v>
       </c>
-      <c r="M79">
+      <c r="M80">
         <v>119</v>
       </c>
-      <c r="N79">
+      <c r="N80">
         <v>-0.4970000000000001</v>
       </c>
-      <c r="O79">
+      <c r="O80">
         <v>172</v>
       </c>
-      <c r="P79">
+      <c r="P80">
         <v>-0.252</v>
       </c>
-      <c r="Q79">
+      <c r="Q80">
         <v>161</v>
       </c>
-      <c r="R79">
+      <c r="R80">
         <v>0.251</v>
       </c>
-      <c r="S79">
+      <c r="S80">
         <v>46</v>
       </c>
-      <c r="T79">
+      <c r="T80">
         <v>0.09699999999999999</v>
       </c>
-      <c r="U79">
+      <c r="U80">
         <v>80</v>
       </c>
-      <c r="V79">
+      <c r="V80">
         <v>-0.08199999999999999</v>
       </c>
-      <c r="W79">
+      <c r="W80">
         <v>120</v>
       </c>
-      <c r="X79">
+      <c r="X80">
         <v>0.039</v>
       </c>
-      <c r="Y79">
+      <c r="Y80">
         <v>103</v>
       </c>
-      <c r="Z79">
+      <c r="Z80">
         <v>302.1</v>
       </c>
-      <c r="AA79">
+      <c r="AA80">
         <v>45.5</v>
       </c>
-      <c r="AB79">
+      <c r="AB80">
         <v>295.6</v>
       </c>
-      <c r="AC79">
+      <c r="AC80">
         <v>100.5</v>
       </c>
-      <c r="AD79">
+      <c r="AD80">
         <v>63.74</v>
       </c>
-      <c r="AE79">
+      <c r="AE80">
         <v>49.5</v>
       </c>
-      <c r="AF79">
+      <c r="AF80">
         <v>68.68000000000001</v>
       </c>
-      <c r="AG79">
+      <c r="AG80">
         <v>15.5</v>
       </c>
-      <c r="AH79">
+      <c r="AH80">
         <v>3.04</v>
       </c>
-      <c r="AI79">
+      <c r="AI80">
         <v>80</v>
       </c>
-      <c r="AJ79">
+      <c r="AJ80">
         <v>3.03</v>
       </c>
-      <c r="AK79">
+      <c r="AK80">
         <v>66.5</v>
       </c>
-      <c r="AL79">
+      <c r="AL80">
         <v>4.01</v>
       </c>
-      <c r="AM79">
+      <c r="AM80">
         <v>89.5</v>
       </c>
-      <c r="AN79">
+      <c r="AN80">
         <v>4.03</v>
       </c>
-      <c r="AO79">
+      <c r="AO80">
         <v>127.5</v>
       </c>
-      <c r="AP79">
+      <c r="AP80">
         <v>4.63</v>
       </c>
-      <c r="AQ79">
+      <c r="AQ80">
         <v>91</v>
       </c>
-      <c r="AR79">
+      <c r="AR80">
         <v>4.62</v>
       </c>
-      <c r="AS79">
+      <c r="AS80">
         <v>89.5</v>
       </c>
-      <c r="AT79">
+      <c r="AT80">
         <v>70.51000000000001</v>
       </c>
-      <c r="AU79">
+      <c r="AU80">
         <v>16.5</v>
       </c>
-      <c r="AV79">
+      <c r="AV80">
         <v>71.94</v>
       </c>
-      <c r="AW79">
+      <c r="AW80">
         <v>11</v>
       </c>
-      <c r="AX79">
+      <c r="AX80">
         <v>60.87</v>
       </c>
-      <c r="AY79">
+      <c r="AY80">
         <v>52.5</v>
       </c>
-      <c r="AZ79">
+      <c r="AZ80">
         <v>57.92</v>
       </c>
-      <c r="BA79">
+      <c r="BA80">
         <v>132</v>
       </c>
-      <c r="BB79">
+      <c r="BB80">
         <v>32.2</v>
       </c>
-      <c r="BC79">
+      <c r="BC80">
         <v>190</v>
       </c>
-      <c r="BD79">
+      <c r="BD80">
         <v>46.67</v>
       </c>
-      <c r="BE79">
+      <c r="BE80">
         <v>143</v>
       </c>
-      <c r="BF79">
+      <c r="BF80">
         <v>1.806</v>
       </c>
-      <c r="BG79">
+      <c r="BG80">
         <v>181.5</v>
       </c>
-      <c r="BH79">
+      <c r="BH80">
         <v>1.795</v>
       </c>
-      <c r="BI79">
+      <c r="BI80">
         <v>180</v>
       </c>
-      <c r="BJ79">
+      <c r="BJ80">
         <v>21</v>
       </c>
-      <c r="BK79">
+      <c r="BK80">
         <v>4.5</v>
       </c>
-      <c r="BL79">
+      <c r="BL80">
         <v>21</v>
       </c>
-      <c r="BM79">
+      <c r="BM80">
         <v>5</v>
       </c>
-      <c r="BN79">
+      <c r="BN80">
         <v>1</v>
       </c>
-      <c r="BO79">
+      <c r="BO80">
         <v>129</v>
-      </c>
-      <c r="BP79">
-        <v>1</v>
-      </c>
-      <c r="BQ79">
-        <v>101</v>
-      </c>
-      <c r="BR79">
-        <v>67.62</v>
-      </c>
-      <c r="BS79">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:71">
-      <c r="A80" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80">
-        <v>-0.132</v>
-      </c>
-      <c r="C80">
-        <v>143</v>
-      </c>
-      <c r="D80">
-        <v>0.433</v>
-      </c>
-      <c r="E80">
-        <v>22.5</v>
-      </c>
-      <c r="F80">
-        <v>0.392</v>
-      </c>
-      <c r="G80">
-        <v>11</v>
-      </c>
-      <c r="H80">
-        <v>0.204</v>
-      </c>
-      <c r="I80">
-        <v>60</v>
-      </c>
-      <c r="J80">
-        <v>-0.3</v>
-      </c>
-      <c r="K80">
-        <v>150</v>
-      </c>
-      <c r="L80">
-        <v>-0.321</v>
-      </c>
-      <c r="M80">
-        <v>162.5</v>
-      </c>
-      <c r="N80">
-        <v>0.217</v>
-      </c>
-      <c r="O80">
-        <v>60.5</v>
-      </c>
-      <c r="P80">
-        <v>0.08900000000000001</v>
-      </c>
-      <c r="Q80">
-        <v>100</v>
-      </c>
-      <c r="R80">
-        <v>-0.132</v>
-      </c>
-      <c r="S80">
-        <v>143</v>
-      </c>
-      <c r="T80">
-        <v>0.433</v>
-      </c>
-      <c r="U80">
-        <v>22.5</v>
-      </c>
-      <c r="V80">
-        <v>0.177</v>
-      </c>
-      <c r="W80">
-        <v>96</v>
-      </c>
-      <c r="X80">
-        <v>0.406</v>
-      </c>
-      <c r="Y80">
-        <v>74</v>
-      </c>
-      <c r="Z80">
-        <v>301.1</v>
-      </c>
-      <c r="AA80">
-        <v>62</v>
-      </c>
-      <c r="AB80">
-        <v>297.5</v>
-      </c>
-      <c r="AC80">
-        <v>82</v>
-      </c>
-      <c r="AD80">
-        <v>54.57</v>
-      </c>
-      <c r="AE80">
-        <v>166</v>
-      </c>
-      <c r="AF80">
-        <v>58.04</v>
-      </c>
-      <c r="AG80">
-        <v>135.5</v>
-      </c>
-      <c r="AH80">
-        <v>3.05</v>
-      </c>
-      <c r="AI80">
-        <v>97.5</v>
-      </c>
-      <c r="AJ80">
-        <v>3.19</v>
-      </c>
-      <c r="AK80">
-        <v>212.5</v>
-      </c>
-      <c r="AL80">
-        <v>4</v>
-      </c>
-      <c r="AM80">
-        <v>64</v>
-      </c>
-      <c r="AN80">
-        <v>3.99</v>
-      </c>
-      <c r="AO80">
-        <v>56</v>
-      </c>
-      <c r="AP80">
-        <v>4.65</v>
-      </c>
-      <c r="AQ80">
-        <v>117</v>
-      </c>
-      <c r="AR80">
-        <v>4.54</v>
-      </c>
-      <c r="AS80">
-        <v>31</v>
-      </c>
-      <c r="AT80">
-        <v>68.76000000000001</v>
-      </c>
-      <c r="AU80">
-        <v>49</v>
-      </c>
-      <c r="AV80">
-        <v>68.47</v>
-      </c>
-      <c r="AW80">
-        <v>64</v>
-      </c>
-      <c r="AX80">
-        <v>57.47</v>
-      </c>
-      <c r="AY80">
-        <v>133</v>
-      </c>
-      <c r="AZ80">
-        <v>62.56</v>
-      </c>
-      <c r="BA80">
-        <v>46</v>
-      </c>
-      <c r="BB80">
-        <v>50.48</v>
-      </c>
-      <c r="BC80">
-        <v>85</v>
-      </c>
-      <c r="BD80">
-        <v>50</v>
-      </c>
-      <c r="BE80">
-        <v>111</v>
-      </c>
-      <c r="BF80">
-        <v>1.768</v>
-      </c>
-      <c r="BG80">
-        <v>115.5</v>
-      </c>
-      <c r="BH80">
-        <v>1.799</v>
-      </c>
-      <c r="BI80">
-        <v>187</v>
-      </c>
-      <c r="BJ80">
-        <v>188</v>
-      </c>
-      <c r="BK80">
-        <v>91</v>
-      </c>
-      <c r="BL80">
-        <v>177</v>
-      </c>
-      <c r="BM80">
-        <v>84.5</v>
-      </c>
-      <c r="BN80">
-        <v>3</v>
-      </c>
-      <c r="BO80">
-        <v>48</v>
       </c>
       <c r="BP80">
         <v>1</v>
@@ -18021,10 +18786,3379 @@
         <v>101</v>
       </c>
       <c r="BR80">
+        <v>70.777</v>
+      </c>
+      <c r="BS80">
+        <v>72.5</v>
+      </c>
+      <c r="BT80">
+        <v>1.222999999999999</v>
+      </c>
+      <c r="BU80">
+        <v>67.62</v>
+      </c>
+      <c r="BV80">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:74">
+      <c r="A81" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81">
+        <v>-0.132</v>
+      </c>
+      <c r="C81">
+        <v>143</v>
+      </c>
+      <c r="D81">
+        <v>0.433</v>
+      </c>
+      <c r="E81">
+        <v>22.5</v>
+      </c>
+      <c r="F81">
+        <v>0.392</v>
+      </c>
+      <c r="G81">
+        <v>11</v>
+      </c>
+      <c r="H81">
+        <v>0.204</v>
+      </c>
+      <c r="I81">
+        <v>60</v>
+      </c>
+      <c r="J81">
+        <v>-0.3</v>
+      </c>
+      <c r="K81">
+        <v>150</v>
+      </c>
+      <c r="L81">
+        <v>-0.321</v>
+      </c>
+      <c r="M81">
+        <v>162.5</v>
+      </c>
+      <c r="N81">
+        <v>0.217</v>
+      </c>
+      <c r="O81">
+        <v>60.5</v>
+      </c>
+      <c r="P81">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="Q81">
+        <v>100</v>
+      </c>
+      <c r="R81">
+        <v>-0.132</v>
+      </c>
+      <c r="S81">
+        <v>143</v>
+      </c>
+      <c r="T81">
+        <v>0.433</v>
+      </c>
+      <c r="U81">
+        <v>22.5</v>
+      </c>
+      <c r="V81">
+        <v>0.177</v>
+      </c>
+      <c r="W81">
+        <v>96</v>
+      </c>
+      <c r="X81">
+        <v>0.406</v>
+      </c>
+      <c r="Y81">
+        <v>74</v>
+      </c>
+      <c r="Z81">
+        <v>301.1</v>
+      </c>
+      <c r="AA81">
+        <v>62</v>
+      </c>
+      <c r="AB81">
+        <v>297.5</v>
+      </c>
+      <c r="AC81">
+        <v>82</v>
+      </c>
+      <c r="AD81">
+        <v>54.57</v>
+      </c>
+      <c r="AE81">
+        <v>166</v>
+      </c>
+      <c r="AF81">
+        <v>58.04</v>
+      </c>
+      <c r="AG81">
+        <v>135.5</v>
+      </c>
+      <c r="AH81">
+        <v>3.05</v>
+      </c>
+      <c r="AI81">
+        <v>97.5</v>
+      </c>
+      <c r="AJ81">
+        <v>3.19</v>
+      </c>
+      <c r="AK81">
+        <v>212.5</v>
+      </c>
+      <c r="AL81">
+        <v>4</v>
+      </c>
+      <c r="AM81">
+        <v>64</v>
+      </c>
+      <c r="AN81">
+        <v>3.99</v>
+      </c>
+      <c r="AO81">
+        <v>56</v>
+      </c>
+      <c r="AP81">
+        <v>4.65</v>
+      </c>
+      <c r="AQ81">
+        <v>117</v>
+      </c>
+      <c r="AR81">
+        <v>4.54</v>
+      </c>
+      <c r="AS81">
+        <v>31</v>
+      </c>
+      <c r="AT81">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="AU81">
+        <v>49</v>
+      </c>
+      <c r="AV81">
+        <v>68.47</v>
+      </c>
+      <c r="AW81">
+        <v>64</v>
+      </c>
+      <c r="AX81">
+        <v>57.47</v>
+      </c>
+      <c r="AY81">
+        <v>133</v>
+      </c>
+      <c r="AZ81">
+        <v>62.56</v>
+      </c>
+      <c r="BA81">
+        <v>46</v>
+      </c>
+      <c r="BB81">
+        <v>50.48</v>
+      </c>
+      <c r="BC81">
+        <v>85</v>
+      </c>
+      <c r="BD81">
+        <v>50</v>
+      </c>
+      <c r="BE81">
+        <v>111</v>
+      </c>
+      <c r="BF81">
+        <v>1.768</v>
+      </c>
+      <c r="BG81">
+        <v>115.5</v>
+      </c>
+      <c r="BH81">
+        <v>1.799</v>
+      </c>
+      <c r="BI81">
+        <v>187</v>
+      </c>
+      <c r="BJ81">
+        <v>188</v>
+      </c>
+      <c r="BK81">
+        <v>91</v>
+      </c>
+      <c r="BL81">
+        <v>177</v>
+      </c>
+      <c r="BM81">
+        <v>84.5</v>
+      </c>
+      <c r="BN81">
+        <v>3</v>
+      </c>
+      <c r="BO81">
+        <v>48</v>
+      </c>
+      <c r="BP81">
+        <v>1</v>
+      </c>
+      <c r="BQ81">
+        <v>101</v>
+      </c>
+      <c r="BR81">
+        <v>71.14099999999999</v>
+      </c>
+      <c r="BS81">
+        <v>54.75</v>
+      </c>
+      <c r="BT81">
+        <v>0.8590000000000089</v>
+      </c>
+      <c r="BU81">
         <v>67.56999999999999</v>
       </c>
-      <c r="BS80">
+      <c r="BV81">
         <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:74">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82">
+        <v>0.005</v>
+      </c>
+      <c r="C82">
+        <v>102</v>
+      </c>
+      <c r="D82">
+        <v>0.038</v>
+      </c>
+      <c r="E82">
+        <v>98</v>
+      </c>
+      <c r="F82">
+        <v>0.359</v>
+      </c>
+      <c r="G82">
+        <v>16</v>
+      </c>
+      <c r="H82">
+        <v>-0.168</v>
+      </c>
+      <c r="I82">
+        <v>167.5</v>
+      </c>
+      <c r="J82">
+        <v>-0.278</v>
+      </c>
+      <c r="K82">
+        <v>147</v>
+      </c>
+      <c r="L82">
+        <v>0.026</v>
+      </c>
+      <c r="M82">
+        <v>105.5</v>
+      </c>
+      <c r="N82">
+        <v>-0.015</v>
+      </c>
+      <c r="O82">
+        <v>109</v>
+      </c>
+      <c r="P82">
+        <v>0.381</v>
+      </c>
+      <c r="Q82">
+        <v>54</v>
+      </c>
+      <c r="R82">
+        <v>0.005</v>
+      </c>
+      <c r="S82">
+        <v>102</v>
+      </c>
+      <c r="T82">
+        <v>0.038</v>
+      </c>
+      <c r="U82">
+        <v>98</v>
+      </c>
+      <c r="V82">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="W82">
+        <v>106</v>
+      </c>
+      <c r="X82">
+        <v>0.278</v>
+      </c>
+      <c r="Y82">
+        <v>85</v>
+      </c>
+      <c r="Z82">
+        <v>283.9</v>
+      </c>
+      <c r="AA82">
+        <v>183.5</v>
+      </c>
+      <c r="AB82">
+        <v>288.6</v>
+      </c>
+      <c r="AC82">
+        <v>171</v>
+      </c>
+      <c r="AD82">
+        <v>60.76</v>
+      </c>
+      <c r="AE82">
+        <v>89</v>
+      </c>
+      <c r="AF82">
+        <v>60.91</v>
+      </c>
+      <c r="AG82">
+        <v>91</v>
+      </c>
+      <c r="AH82">
+        <v>3.07</v>
+      </c>
+      <c r="AI82">
+        <v>135</v>
+      </c>
+      <c r="AJ82">
+        <v>3.08</v>
+      </c>
+      <c r="AK82">
+        <v>133.5</v>
+      </c>
+      <c r="AL82">
+        <v>4.03</v>
+      </c>
+      <c r="AM82">
+        <v>128</v>
+      </c>
+      <c r="AN82">
+        <v>3.98</v>
+      </c>
+      <c r="AO82">
+        <v>39</v>
+      </c>
+      <c r="AP82">
+        <v>4.59</v>
+      </c>
+      <c r="AQ82">
+        <v>47</v>
+      </c>
+      <c r="AR82">
+        <v>4.76</v>
+      </c>
+      <c r="AS82">
+        <v>197</v>
+      </c>
+      <c r="AT82">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="AU82">
+        <v>143</v>
+      </c>
+      <c r="AV82">
+        <v>65.58</v>
+      </c>
+      <c r="AW82">
+        <v>142</v>
+      </c>
+      <c r="AX82">
+        <v>60.29</v>
+      </c>
+      <c r="AY82">
+        <v>70</v>
+      </c>
+      <c r="AZ82">
+        <v>51.18</v>
+      </c>
+      <c r="BA82">
+        <v>211</v>
+      </c>
+      <c r="BB82">
+        <v>59.83</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>50.82</v>
+      </c>
+      <c r="BE82">
+        <v>104</v>
+      </c>
+      <c r="BF82">
+        <v>1.778</v>
+      </c>
+      <c r="BG82">
+        <v>141.5</v>
+      </c>
+      <c r="BH82">
+        <v>1.721</v>
+      </c>
+      <c r="BI82">
+        <v>24.5</v>
+      </c>
+      <c r="BJ82">
+        <v>323</v>
+      </c>
+      <c r="BK82">
+        <v>170.5</v>
+      </c>
+      <c r="BL82">
+        <v>305</v>
+      </c>
+      <c r="BM82">
+        <v>162</v>
+      </c>
+      <c r="BN82">
+        <v>2.696551724137931</v>
+      </c>
+      <c r="BO82">
+        <v>78.06206896551724</v>
+      </c>
+      <c r="BP82">
+        <v>1</v>
+      </c>
+      <c r="BQ82">
+        <v>101</v>
+      </c>
+      <c r="BR82">
+        <v>71.039</v>
+      </c>
+      <c r="BS82">
+        <v>92</v>
+      </c>
+      <c r="BT82">
+        <v>0.9609999999999985</v>
+      </c>
+      <c r="BU82">
+        <v>66.64</v>
+      </c>
+      <c r="BV82">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:74">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83">
+        <v>-0.117</v>
+      </c>
+      <c r="C83">
+        <v>138</v>
+      </c>
+      <c r="D83">
+        <v>-0.5529999999999999</v>
+      </c>
+      <c r="E83">
+        <v>202</v>
+      </c>
+      <c r="F83">
+        <v>-0.244</v>
+      </c>
+      <c r="G83">
+        <v>169</v>
+      </c>
+      <c r="H83">
+        <v>0.184</v>
+      </c>
+      <c r="I83">
+        <v>66</v>
+      </c>
+      <c r="J83">
+        <v>-0.221</v>
+      </c>
+      <c r="K83">
+        <v>141</v>
+      </c>
+      <c r="L83">
+        <v>-0.6729999999999999</v>
+      </c>
+      <c r="M83">
+        <v>195</v>
+      </c>
+      <c r="N83">
+        <v>-0.573</v>
+      </c>
+      <c r="O83">
+        <v>180</v>
+      </c>
+      <c r="P83">
+        <v>0.1</v>
+      </c>
+      <c r="Q83">
+        <v>99</v>
+      </c>
+      <c r="R83">
+        <v>-0.117</v>
+      </c>
+      <c r="S83">
+        <v>138</v>
+      </c>
+      <c r="T83">
+        <v>-0.5529999999999999</v>
+      </c>
+      <c r="U83">
+        <v>202</v>
+      </c>
+      <c r="V83">
+        <v>-1.155</v>
+      </c>
+      <c r="W83">
+        <v>189</v>
+      </c>
+      <c r="X83">
+        <v>-0.9409999999999999</v>
+      </c>
+      <c r="Y83">
+        <v>187</v>
+      </c>
+      <c r="Z83">
+        <v>293.7</v>
+      </c>
+      <c r="AA83">
+        <v>134</v>
+      </c>
+      <c r="AB83">
+        <v>287.3</v>
+      </c>
+      <c r="AC83">
+        <v>183</v>
+      </c>
+      <c r="AD83">
+        <v>58.08</v>
+      </c>
+      <c r="AE83">
+        <v>132</v>
+      </c>
+      <c r="AF83">
+        <v>59.17</v>
+      </c>
+      <c r="AG83">
+        <v>113</v>
+      </c>
+      <c r="AH83">
+        <v>3.07</v>
+      </c>
+      <c r="AI83">
+        <v>135</v>
+      </c>
+      <c r="AJ83">
+        <v>3.02</v>
+      </c>
+      <c r="AK83">
+        <v>53</v>
+      </c>
+      <c r="AL83">
+        <v>4.07</v>
+      </c>
+      <c r="AM83">
+        <v>175</v>
+      </c>
+      <c r="AN83">
+        <v>4.04</v>
+      </c>
+      <c r="AO83">
+        <v>141</v>
+      </c>
+      <c r="AP83">
+        <v>4.63</v>
+      </c>
+      <c r="AQ83">
+        <v>91</v>
+      </c>
+      <c r="AR83">
+        <v>4.61</v>
+      </c>
+      <c r="AS83">
+        <v>79.5</v>
+      </c>
+      <c r="AT83">
+        <v>67.33</v>
+      </c>
+      <c r="AU83">
+        <v>86</v>
+      </c>
+      <c r="AV83">
+        <v>65.69</v>
+      </c>
+      <c r="AW83">
+        <v>135</v>
+      </c>
+      <c r="AX83">
+        <v>52.72</v>
+      </c>
+      <c r="AY83">
+        <v>184</v>
+      </c>
+      <c r="AZ83">
+        <v>60</v>
+      </c>
+      <c r="BA83">
+        <v>89.5</v>
+      </c>
+      <c r="BB83">
+        <v>35.37</v>
+      </c>
+      <c r="BC83">
+        <v>187</v>
+      </c>
+      <c r="BD83">
+        <v>45</v>
+      </c>
+      <c r="BE83">
+        <v>165.5</v>
+      </c>
+      <c r="BF83">
+        <v>1.766</v>
+      </c>
+      <c r="BG83">
+        <v>108.5</v>
+      </c>
+      <c r="BH83">
+        <v>1.744</v>
+      </c>
+      <c r="BI83">
+        <v>68.5</v>
+      </c>
+      <c r="BJ83">
+        <v>261</v>
+      </c>
+      <c r="BK83">
+        <v>144</v>
+      </c>
+      <c r="BL83">
+        <v>326</v>
+      </c>
+      <c r="BM83">
+        <v>177</v>
+      </c>
+      <c r="BN83">
+        <v>1</v>
+      </c>
+      <c r="BO83">
+        <v>129</v>
+      </c>
+      <c r="BP83">
+        <v>1</v>
+      </c>
+      <c r="BQ83">
+        <v>101</v>
+      </c>
+      <c r="BR83">
+        <v>71.742</v>
+      </c>
+      <c r="BS83">
+        <v>157</v>
+      </c>
+      <c r="BT83">
+        <v>0.2579999999999956</v>
+      </c>
+      <c r="BU83">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="BV83">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:74">
+      <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84">
+        <v>-0.586</v>
+      </c>
+      <c r="C84">
+        <v>184</v>
+      </c>
+      <c r="D84">
+        <v>-0.636</v>
+      </c>
+      <c r="E84">
+        <v>208</v>
+      </c>
+      <c r="F84">
+        <v>-0.103</v>
+      </c>
+      <c r="G84">
+        <v>133</v>
+      </c>
+      <c r="H84">
+        <v>0.137</v>
+      </c>
+      <c r="I84">
+        <v>80</v>
+      </c>
+      <c r="J84">
+        <v>0.122</v>
+      </c>
+      <c r="K84">
+        <v>81.5</v>
+      </c>
+      <c r="L84">
+        <v>-0.747</v>
+      </c>
+      <c r="M84">
+        <v>204</v>
+      </c>
+      <c r="N84">
+        <v>-0.222</v>
+      </c>
+      <c r="O84">
+        <v>142.5</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>118</v>
+      </c>
+      <c r="R84">
+        <v>-0.586</v>
+      </c>
+      <c r="S84">
+        <v>184</v>
+      </c>
+      <c r="T84">
+        <v>-0.636</v>
+      </c>
+      <c r="U84">
+        <v>208</v>
+      </c>
+      <c r="V84">
+        <v>-0.7879999999999999</v>
+      </c>
+      <c r="W84">
+        <v>173</v>
+      </c>
+      <c r="X84">
+        <v>-1.247</v>
+      </c>
+      <c r="Y84">
+        <v>196</v>
+      </c>
+      <c r="Z84">
+        <v>283.9</v>
+      </c>
+      <c r="AA84">
+        <v>183.5</v>
+      </c>
+      <c r="AB84">
+        <v>283.2</v>
+      </c>
+      <c r="AC84">
+        <v>201</v>
+      </c>
+      <c r="AD84">
+        <v>62.02</v>
+      </c>
+      <c r="AE84">
+        <v>74</v>
+      </c>
+      <c r="AF84">
+        <v>60.87</v>
+      </c>
+      <c r="AG84">
+        <v>93</v>
+      </c>
+      <c r="AH84">
+        <v>3.06</v>
+      </c>
+      <c r="AI84">
+        <v>116.5</v>
+      </c>
+      <c r="AJ84">
+        <v>3.02</v>
+      </c>
+      <c r="AK84">
+        <v>53</v>
+      </c>
+      <c r="AL84">
+        <v>4.11</v>
+      </c>
+      <c r="AM84">
+        <v>190</v>
+      </c>
+      <c r="AN84">
+        <v>4.17</v>
+      </c>
+      <c r="AO84">
+        <v>215.5</v>
+      </c>
+      <c r="AP84">
+        <v>4.7</v>
+      </c>
+      <c r="AQ84">
+        <v>158.5</v>
+      </c>
+      <c r="AR84">
+        <v>4.78</v>
+      </c>
+      <c r="AS84">
+        <v>202.5</v>
+      </c>
+      <c r="AT84">
+        <v>63.31</v>
+      </c>
+      <c r="AU84">
+        <v>180</v>
+      </c>
+      <c r="AV84">
+        <v>60.56</v>
+      </c>
+      <c r="AW84">
+        <v>213</v>
+      </c>
+      <c r="AX84">
+        <v>54.26</v>
+      </c>
+      <c r="AY84">
+        <v>172</v>
+      </c>
+      <c r="AZ84">
+        <v>58.45</v>
+      </c>
+      <c r="BA84">
+        <v>120</v>
+      </c>
+      <c r="BB84">
+        <v>36.49</v>
+      </c>
+      <c r="BC84">
+        <v>185</v>
+      </c>
+      <c r="BD84">
+        <v>36.36</v>
+      </c>
+      <c r="BE84">
+        <v>211</v>
+      </c>
+      <c r="BF84">
+        <v>1.768</v>
+      </c>
+      <c r="BG84">
+        <v>115.5</v>
+      </c>
+      <c r="BH84">
+        <v>1.839</v>
+      </c>
+      <c r="BI84">
+        <v>219</v>
+      </c>
+      <c r="BJ84">
+        <v>352</v>
+      </c>
+      <c r="BK84">
+        <v>186</v>
+      </c>
+      <c r="BL84">
+        <v>400</v>
+      </c>
+      <c r="BM84">
+        <v>209.5</v>
+      </c>
+      <c r="BN84">
+        <v>1</v>
+      </c>
+      <c r="BO84">
+        <v>129</v>
+      </c>
+      <c r="BP84">
+        <v>2.051282051282051</v>
+      </c>
+      <c r="BQ84">
+        <v>64.35897435897436</v>
+      </c>
+      <c r="BR84">
+        <v>71.702</v>
+      </c>
+      <c r="BS84">
+        <v>154</v>
+      </c>
+      <c r="BT84">
+        <v>0.2980000000000018</v>
+      </c>
+      <c r="BU84">
+        <v>65.14</v>
+      </c>
+      <c r="BV84">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:74">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85">
+        <v>-0.02</v>
+      </c>
+      <c r="C85">
+        <v>108</v>
+      </c>
+      <c r="D85">
+        <v>-0.7490000000000001</v>
+      </c>
+      <c r="E85">
+        <v>211</v>
+      </c>
+      <c r="F85">
+        <v>0.379</v>
+      </c>
+      <c r="G85">
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <v>-0.027</v>
+      </c>
+      <c r="I85">
+        <v>131</v>
+      </c>
+      <c r="J85">
+        <v>-0.129</v>
+      </c>
+      <c r="K85">
+        <v>129</v>
+      </c>
+      <c r="L85">
+        <v>-0.159</v>
+      </c>
+      <c r="M85">
+        <v>140</v>
+      </c>
+      <c r="N85">
+        <v>-0.083</v>
+      </c>
+      <c r="O85">
+        <v>124.5</v>
+      </c>
+      <c r="P85">
+        <v>-0.254</v>
+      </c>
+      <c r="Q85">
+        <v>162.5</v>
+      </c>
+      <c r="R85">
+        <v>-0.02</v>
+      </c>
+      <c r="S85">
+        <v>108</v>
+      </c>
+      <c r="T85">
+        <v>-0.7490000000000001</v>
+      </c>
+      <c r="U85">
+        <v>211</v>
+      </c>
+      <c r="V85">
+        <v>0.147</v>
+      </c>
+      <c r="W85">
+        <v>97</v>
+      </c>
+      <c r="X85">
+        <v>-1.189</v>
+      </c>
+      <c r="Y85">
+        <v>193</v>
+      </c>
+      <c r="Z85">
+        <v>301.5</v>
+      </c>
+      <c r="AA85">
+        <v>59.5</v>
+      </c>
+      <c r="AB85">
+        <v>298.4</v>
+      </c>
+      <c r="AC85">
+        <v>72.5</v>
+      </c>
+      <c r="AD85">
+        <v>54</v>
+      </c>
+      <c r="AE85">
+        <v>174</v>
+      </c>
+      <c r="AF85">
+        <v>47.41</v>
+      </c>
+      <c r="AG85">
+        <v>215</v>
+      </c>
+      <c r="AH85">
+        <v>3.07</v>
+      </c>
+      <c r="AI85">
+        <v>135</v>
+      </c>
+      <c r="AJ85">
+        <v>3.14</v>
+      </c>
+      <c r="AK85">
+        <v>191</v>
+      </c>
+      <c r="AL85">
+        <v>4.02</v>
+      </c>
+      <c r="AM85">
+        <v>112.5</v>
+      </c>
+      <c r="AN85">
+        <v>4.09</v>
+      </c>
+      <c r="AO85">
+        <v>196</v>
+      </c>
+      <c r="AP85">
+        <v>4.64</v>
+      </c>
+      <c r="AQ85">
+        <v>104.5</v>
+      </c>
+      <c r="AR85">
+        <v>4.88</v>
+      </c>
+      <c r="AS85">
+        <v>219</v>
+      </c>
+      <c r="AT85">
+        <v>63.51</v>
+      </c>
+      <c r="AU85">
+        <v>177</v>
+      </c>
+      <c r="AV85">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="AW85">
+        <v>164.5</v>
+      </c>
+      <c r="AX85">
+        <v>60.6</v>
+      </c>
+      <c r="AY85">
+        <v>60.5</v>
+      </c>
+      <c r="AZ85">
+        <v>51.69</v>
+      </c>
+      <c r="BA85">
+        <v>206</v>
+      </c>
+      <c r="BB85">
+        <v>56.6</v>
+      </c>
+      <c r="BC85">
+        <v>32</v>
+      </c>
+      <c r="BD85">
+        <v>38.98</v>
+      </c>
+      <c r="BE85">
+        <v>202</v>
+      </c>
+      <c r="BF85">
+        <v>1.748</v>
+      </c>
+      <c r="BG85">
+        <v>58.5</v>
+      </c>
+      <c r="BH85">
+        <v>1.804</v>
+      </c>
+      <c r="BI85">
+        <v>192</v>
+      </c>
+      <c r="BJ85">
+        <v>325</v>
+      </c>
+      <c r="BK85">
+        <v>173.5</v>
+      </c>
+      <c r="BL85">
+        <v>343</v>
+      </c>
+      <c r="BM85">
+        <v>184</v>
+      </c>
+      <c r="BN85">
+        <v>2</v>
+      </c>
+      <c r="BO85">
+        <v>77.5</v>
+      </c>
+      <c r="BP85">
+        <v>2.051282051282051</v>
+      </c>
+      <c r="BQ85">
+        <v>64.35897435897436</v>
+      </c>
+      <c r="BR85">
+        <v>71.69924999999999</v>
+      </c>
+      <c r="BS85">
+        <v>74.375</v>
+      </c>
+      <c r="BT85">
+        <v>0.3007500000000078</v>
+      </c>
+      <c r="BU85">
+        <v>64.79000000000001</v>
+      </c>
+      <c r="BV85">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:74">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86">
+        <v>0.189</v>
+      </c>
+      <c r="C86">
+        <v>63</v>
+      </c>
+      <c r="D86">
+        <v>-0.025</v>
+      </c>
+      <c r="E86">
+        <v>118</v>
+      </c>
+      <c r="F86">
+        <v>-0.215</v>
+      </c>
+      <c r="G86">
+        <v>162</v>
+      </c>
+      <c r="H86">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="I86">
+        <v>148</v>
+      </c>
+      <c r="J86">
+        <v>-0.169</v>
+      </c>
+      <c r="K86">
+        <v>137</v>
+      </c>
+      <c r="L86">
+        <v>-0.153</v>
+      </c>
+      <c r="M86">
+        <v>139</v>
+      </c>
+      <c r="N86">
+        <v>-0.341</v>
+      </c>
+      <c r="O86">
+        <v>157</v>
+      </c>
+      <c r="P86">
+        <v>-0.421</v>
+      </c>
+      <c r="Q86">
+        <v>182</v>
+      </c>
+      <c r="R86">
+        <v>0.189</v>
+      </c>
+      <c r="S86">
+        <v>63</v>
+      </c>
+      <c r="T86">
+        <v>-0.025</v>
+      </c>
+      <c r="U86">
+        <v>118</v>
+      </c>
+      <c r="V86">
+        <v>-0.536</v>
+      </c>
+      <c r="W86">
+        <v>160</v>
+      </c>
+      <c r="X86">
+        <v>-0.6840000000000001</v>
+      </c>
+      <c r="Y86">
+        <v>169</v>
+      </c>
+      <c r="Z86">
+        <v>289.7</v>
+      </c>
+      <c r="AA86">
+        <v>158</v>
+      </c>
+      <c r="AB86">
+        <v>291.1</v>
+      </c>
+      <c r="AC86">
+        <v>151</v>
+      </c>
+      <c r="AD86">
+        <v>65.72</v>
+      </c>
+      <c r="AE86">
+        <v>29</v>
+      </c>
+      <c r="AF86">
+        <v>68.68000000000001</v>
+      </c>
+      <c r="AG86">
+        <v>15.5</v>
+      </c>
+      <c r="AH86">
+        <v>3.12</v>
+      </c>
+      <c r="AI86">
+        <v>174</v>
+      </c>
+      <c r="AJ86">
+        <v>3.07</v>
+      </c>
+      <c r="AK86">
+        <v>118</v>
+      </c>
+      <c r="AL86">
+        <v>4.01</v>
+      </c>
+      <c r="AM86">
+        <v>89.5</v>
+      </c>
+      <c r="AN86">
+        <v>4.03</v>
+      </c>
+      <c r="AO86">
+        <v>127.5</v>
+      </c>
+      <c r="AP86">
+        <v>4.73</v>
+      </c>
+      <c r="AQ86">
+        <v>175</v>
+      </c>
+      <c r="AR86">
+        <v>4.75</v>
+      </c>
+      <c r="AS86">
+        <v>193</v>
+      </c>
+      <c r="AT86">
+        <v>64.11</v>
+      </c>
+      <c r="AU86">
+        <v>169</v>
+      </c>
+      <c r="AV86">
+        <v>65.2</v>
+      </c>
+      <c r="AW86">
+        <v>150</v>
+      </c>
+      <c r="AX86">
+        <v>59.21</v>
+      </c>
+      <c r="AY86">
+        <v>92</v>
+      </c>
+      <c r="AZ86">
+        <v>58.82</v>
+      </c>
+      <c r="BA86">
+        <v>112.5</v>
+      </c>
+      <c r="BB86">
+        <v>46.24</v>
+      </c>
+      <c r="BC86">
+        <v>139.5</v>
+      </c>
+      <c r="BD86">
+        <v>42.11</v>
+      </c>
+      <c r="BE86">
+        <v>183.5</v>
+      </c>
+      <c r="BF86">
+        <v>1.765</v>
+      </c>
+      <c r="BG86">
+        <v>104.5</v>
+      </c>
+      <c r="BH86">
+        <v>1.765</v>
+      </c>
+      <c r="BI86">
+        <v>119</v>
+      </c>
+      <c r="BJ86">
+        <v>253</v>
+      </c>
+      <c r="BK86">
+        <v>140</v>
+      </c>
+      <c r="BL86">
+        <v>196</v>
+      </c>
+      <c r="BM86">
+        <v>97</v>
+      </c>
+      <c r="BN86">
+        <v>1</v>
+      </c>
+      <c r="BO86">
+        <v>129</v>
+      </c>
+      <c r="BP86">
+        <v>1</v>
+      </c>
+      <c r="BQ86">
+        <v>101</v>
+      </c>
+      <c r="BR86">
+        <v>72.61</v>
+      </c>
+      <c r="BS86">
+        <v>131</v>
+      </c>
+      <c r="BT86">
+        <v>-0.6099999999999994</v>
+      </c>
+      <c r="BU86">
+        <v>64.72</v>
+      </c>
+      <c r="BV86">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:74">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87">
+        <v>0.094</v>
+      </c>
+      <c r="C87">
+        <v>83</v>
+      </c>
+      <c r="D87">
+        <v>-0.028</v>
+      </c>
+      <c r="E87">
+        <v>119</v>
+      </c>
+      <c r="F87">
+        <v>-0.03</v>
+      </c>
+      <c r="G87">
+        <v>103</v>
+      </c>
+      <c r="H87">
+        <v>-0.066</v>
+      </c>
+      <c r="I87">
+        <v>142</v>
+      </c>
+      <c r="J87">
+        <v>0.052</v>
+      </c>
+      <c r="K87">
+        <v>99</v>
+      </c>
+      <c r="L87">
+        <v>-0.358</v>
+      </c>
+      <c r="M87">
+        <v>169</v>
+      </c>
+      <c r="N87">
+        <v>-0.043</v>
+      </c>
+      <c r="O87">
+        <v>114</v>
+      </c>
+      <c r="P87">
+        <v>0.122</v>
+      </c>
+      <c r="Q87">
+        <v>94</v>
+      </c>
+      <c r="R87">
+        <v>0.094</v>
+      </c>
+      <c r="S87">
+        <v>83</v>
+      </c>
+      <c r="T87">
+        <v>-0.028</v>
+      </c>
+      <c r="U87">
+        <v>119</v>
+      </c>
+      <c r="V87">
+        <v>0.073</v>
+      </c>
+      <c r="W87">
+        <v>105</v>
+      </c>
+      <c r="X87">
+        <v>-0.33</v>
+      </c>
+      <c r="Y87">
+        <v>147</v>
+      </c>
+      <c r="Z87">
+        <v>296.6</v>
+      </c>
+      <c r="AA87">
+        <v>102</v>
+      </c>
+      <c r="AB87">
+        <v>294</v>
+      </c>
+      <c r="AC87">
+        <v>120.5</v>
+      </c>
+      <c r="AD87">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="AE87">
+        <v>46</v>
+      </c>
+      <c r="AF87">
+        <v>63.2</v>
+      </c>
+      <c r="AG87">
+        <v>65</v>
+      </c>
+      <c r="AH87">
+        <v>3.07</v>
+      </c>
+      <c r="AI87">
+        <v>135</v>
+      </c>
+      <c r="AJ87">
+        <v>3.02</v>
+      </c>
+      <c r="AK87">
+        <v>53</v>
+      </c>
+      <c r="AL87">
+        <v>4.02</v>
+      </c>
+      <c r="AM87">
+        <v>112.5</v>
+      </c>
+      <c r="AN87">
+        <v>4.02</v>
+      </c>
+      <c r="AO87">
+        <v>111</v>
+      </c>
+      <c r="AP87">
+        <v>4.6</v>
+      </c>
+      <c r="AQ87">
+        <v>55.5</v>
+      </c>
+      <c r="AR87">
+        <v>4.64</v>
+      </c>
+      <c r="AS87">
+        <v>113.5</v>
+      </c>
+      <c r="AT87">
+        <v>66.95</v>
+      </c>
+      <c r="AU87">
+        <v>98.5</v>
+      </c>
+      <c r="AV87">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="AW87">
+        <v>131</v>
+      </c>
+      <c r="AX87">
+        <v>56.98</v>
+      </c>
+      <c r="AY87">
+        <v>141.5</v>
+      </c>
+      <c r="AZ87">
+        <v>63.96</v>
+      </c>
+      <c r="BA87">
+        <v>24</v>
+      </c>
+      <c r="BB87">
+        <v>46.34</v>
+      </c>
+      <c r="BC87">
+        <v>138</v>
+      </c>
+      <c r="BD87">
+        <v>53.97</v>
+      </c>
+      <c r="BE87">
+        <v>75</v>
+      </c>
+      <c r="BF87">
+        <v>1.757</v>
+      </c>
+      <c r="BG87">
+        <v>81</v>
+      </c>
+      <c r="BH87">
+        <v>1.754</v>
+      </c>
+      <c r="BI87">
+        <v>93</v>
+      </c>
+      <c r="BJ87">
+        <v>138</v>
+      </c>
+      <c r="BK87">
+        <v>61</v>
+      </c>
+      <c r="BL87">
+        <v>198</v>
+      </c>
+      <c r="BM87">
+        <v>98</v>
+      </c>
+      <c r="BN87">
+        <v>2</v>
+      </c>
+      <c r="BO87">
+        <v>77.5</v>
+      </c>
+      <c r="BP87">
+        <v>2.051282051282051</v>
+      </c>
+      <c r="BQ87">
+        <v>64.35897435897436</v>
+      </c>
+      <c r="BR87">
+        <v>72.861</v>
+      </c>
+      <c r="BS87">
+        <v>211</v>
+      </c>
+      <c r="BT87">
+        <v>-0.8610000000000042</v>
+      </c>
+      <c r="BU87">
+        <v>64.66</v>
+      </c>
+      <c r="BV87">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:74">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88">
+        <v>-0.276</v>
+      </c>
+      <c r="C88">
+        <v>164</v>
+      </c>
+      <c r="D88">
+        <v>-0.331</v>
+      </c>
+      <c r="E88">
+        <v>177</v>
+      </c>
+      <c r="F88">
+        <v>0.106</v>
+      </c>
+      <c r="G88">
+        <v>66</v>
+      </c>
+      <c r="H88">
+        <v>0.271</v>
+      </c>
+      <c r="I88">
+        <v>39.5</v>
+      </c>
+      <c r="J88">
+        <v>-0.353</v>
+      </c>
+      <c r="K88">
+        <v>159</v>
+      </c>
+      <c r="L88">
+        <v>-0.122</v>
+      </c>
+      <c r="M88">
+        <v>132</v>
+      </c>
+      <c r="N88">
+        <v>0.201</v>
+      </c>
+      <c r="O88">
+        <v>63</v>
+      </c>
+      <c r="P88">
+        <v>-0.141</v>
+      </c>
+      <c r="Q88">
+        <v>138.5</v>
+      </c>
+      <c r="R88">
+        <v>-0.276</v>
+      </c>
+      <c r="S88">
+        <v>164</v>
+      </c>
+      <c r="T88">
+        <v>-0.331</v>
+      </c>
+      <c r="U88">
+        <v>177</v>
+      </c>
+      <c r="V88">
+        <v>-0.321</v>
+      </c>
+      <c r="W88">
+        <v>145</v>
+      </c>
+      <c r="X88">
+        <v>-0.324</v>
+      </c>
+      <c r="Y88">
+        <v>146</v>
+      </c>
+      <c r="Z88">
+        <v>287</v>
+      </c>
+      <c r="AA88">
+        <v>168</v>
+      </c>
+      <c r="AB88">
+        <v>292.5</v>
+      </c>
+      <c r="AC88">
+        <v>134.5</v>
+      </c>
+      <c r="AD88">
+        <v>62.05</v>
+      </c>
+      <c r="AE88">
+        <v>73</v>
+      </c>
+      <c r="AF88">
+        <v>61.25</v>
+      </c>
+      <c r="AG88">
+        <v>86</v>
+      </c>
+      <c r="AH88">
+        <v>3.1</v>
+      </c>
+      <c r="AI88">
+        <v>165.5</v>
+      </c>
+      <c r="AJ88">
+        <v>3.06</v>
+      </c>
+      <c r="AK88">
+        <v>102.5</v>
+      </c>
+      <c r="AL88">
+        <v>4.04</v>
+      </c>
+      <c r="AM88">
+        <v>145</v>
+      </c>
+      <c r="AN88">
+        <v>4.03</v>
+      </c>
+      <c r="AO88">
+        <v>127.5</v>
+      </c>
+      <c r="AP88">
+        <v>4.6</v>
+      </c>
+      <c r="AQ88">
+        <v>55.5</v>
+      </c>
+      <c r="AR88">
+        <v>4.62</v>
+      </c>
+      <c r="AS88">
+        <v>89.5</v>
+      </c>
+      <c r="AT88">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="AU88">
+        <v>156.5</v>
+      </c>
+      <c r="AV88">
+        <v>66.55</v>
+      </c>
+      <c r="AW88">
+        <v>110</v>
+      </c>
+      <c r="AX88">
+        <v>57.75</v>
+      </c>
+      <c r="AY88">
+        <v>122</v>
+      </c>
+      <c r="AZ88">
+        <v>61.01</v>
+      </c>
+      <c r="BA88">
+        <v>71</v>
+      </c>
+      <c r="BB88">
+        <v>46.99</v>
+      </c>
+      <c r="BC88">
+        <v>135</v>
+      </c>
+      <c r="BD88">
+        <v>54.69</v>
+      </c>
+      <c r="BE88">
+        <v>64</v>
+      </c>
+      <c r="BF88">
+        <v>1.769</v>
+      </c>
+      <c r="BG88">
+        <v>121.5</v>
+      </c>
+      <c r="BH88">
+        <v>1.779</v>
+      </c>
+      <c r="BI88">
+        <v>148.5</v>
+      </c>
+      <c r="BJ88">
+        <v>317</v>
+      </c>
+      <c r="BK88">
+        <v>165.5</v>
+      </c>
+      <c r="BL88">
+        <v>228</v>
+      </c>
+      <c r="BM88">
+        <v>114.5</v>
+      </c>
+      <c r="BN88">
+        <v>2</v>
+      </c>
+      <c r="BO88">
+        <v>77.5</v>
+      </c>
+      <c r="BP88">
+        <v>2</v>
+      </c>
+      <c r="BQ88">
+        <v>52.5</v>
+      </c>
+      <c r="BR88">
+        <v>71.41800000000001</v>
+      </c>
+      <c r="BS88">
+        <v>124</v>
+      </c>
+      <c r="BT88">
+        <v>0.5819999999999936</v>
+      </c>
+      <c r="BU88">
+        <v>63.09</v>
+      </c>
+      <c r="BV88">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:74">
+      <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89">
+        <v>-1.121</v>
+      </c>
+      <c r="C89">
+        <v>193</v>
+      </c>
+      <c r="D89">
+        <v>-0.38</v>
+      </c>
+      <c r="E89">
+        <v>183</v>
+      </c>
+      <c r="F89">
+        <v>-0.246</v>
+      </c>
+      <c r="G89">
+        <v>170</v>
+      </c>
+      <c r="H89">
+        <v>0.271</v>
+      </c>
+      <c r="I89">
+        <v>39.5</v>
+      </c>
+      <c r="J89">
+        <v>-0.495</v>
+      </c>
+      <c r="K89">
+        <v>181</v>
+      </c>
+      <c r="L89">
+        <v>0.04099999999999999</v>
+      </c>
+      <c r="M89">
+        <v>104</v>
+      </c>
+      <c r="N89">
+        <v>0.841</v>
+      </c>
+      <c r="O89">
+        <v>3</v>
+      </c>
+      <c r="P89">
+        <v>0.585</v>
+      </c>
+      <c r="Q89">
+        <v>23</v>
+      </c>
+      <c r="R89">
+        <v>-1.121</v>
+      </c>
+      <c r="S89">
+        <v>193</v>
+      </c>
+      <c r="T89">
+        <v>-0.38</v>
+      </c>
+      <c r="U89">
+        <v>183</v>
+      </c>
+      <c r="V89">
+        <v>-1.021</v>
+      </c>
+      <c r="W89">
+        <v>185</v>
+      </c>
+      <c r="X89">
+        <v>0.516</v>
+      </c>
+      <c r="Y89">
+        <v>70</v>
+      </c>
+      <c r="Z89">
+        <v>277.9</v>
+      </c>
+      <c r="AA89">
+        <v>193</v>
+      </c>
+      <c r="AB89">
+        <v>285.2</v>
+      </c>
+      <c r="AC89">
+        <v>193</v>
+      </c>
+      <c r="AD89">
+        <v>57.03</v>
+      </c>
+      <c r="AE89">
+        <v>147.5</v>
+      </c>
+      <c r="AF89">
+        <v>60.94</v>
+      </c>
+      <c r="AG89">
+        <v>90</v>
+      </c>
+      <c r="AH89">
+        <v>3.03</v>
+      </c>
+      <c r="AI89">
+        <v>62.5</v>
+      </c>
+      <c r="AJ89">
+        <v>3.02</v>
+      </c>
+      <c r="AK89">
+        <v>53</v>
+      </c>
+      <c r="AL89">
+        <v>4.06</v>
+      </c>
+      <c r="AM89">
+        <v>168.5</v>
+      </c>
+      <c r="AN89">
+        <v>3.99</v>
+      </c>
+      <c r="AO89">
+        <v>56</v>
+      </c>
+      <c r="AP89">
+        <v>4.78</v>
+      </c>
+      <c r="AQ89">
+        <v>191</v>
+      </c>
+      <c r="AR89">
+        <v>4.63</v>
+      </c>
+      <c r="AS89">
+        <v>102.5</v>
+      </c>
+      <c r="AT89">
+        <v>63.77</v>
+      </c>
+      <c r="AU89">
+        <v>174</v>
+      </c>
+      <c r="AV89">
+        <v>67.88</v>
+      </c>
+      <c r="AW89">
+        <v>77</v>
+      </c>
+      <c r="AX89">
+        <v>60.33</v>
+      </c>
+      <c r="AY89">
+        <v>69</v>
+      </c>
+      <c r="AZ89">
+        <v>66.67</v>
+      </c>
+      <c r="BA89">
+        <v>10</v>
+      </c>
+      <c r="BB89">
+        <v>51.9</v>
+      </c>
+      <c r="BC89">
+        <v>66</v>
+      </c>
+      <c r="BD89">
+        <v>56.99</v>
+      </c>
+      <c r="BE89">
+        <v>39</v>
+      </c>
+      <c r="BF89">
+        <v>1.769</v>
+      </c>
+      <c r="BG89">
+        <v>121.5</v>
+      </c>
+      <c r="BH89">
+        <v>1.756</v>
+      </c>
+      <c r="BI89">
+        <v>98</v>
+      </c>
+      <c r="BJ89">
+        <v>367</v>
+      </c>
+      <c r="BK89">
+        <v>189</v>
+      </c>
+      <c r="BL89">
+        <v>253</v>
+      </c>
+      <c r="BM89">
+        <v>133</v>
+      </c>
+      <c r="BN89">
+        <v>1</v>
+      </c>
+      <c r="BO89">
+        <v>129</v>
+      </c>
+      <c r="BP89">
+        <v>3</v>
+      </c>
+      <c r="BQ89">
+        <v>27</v>
+      </c>
+      <c r="BR89">
+        <v>71.131</v>
+      </c>
+      <c r="BS89">
+        <v>102</v>
+      </c>
+      <c r="BT89">
+        <v>0.8689999999999998</v>
+      </c>
+      <c r="BU89">
+        <v>63.09</v>
+      </c>
+      <c r="BV89">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:74">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90">
+        <v>0.307</v>
+      </c>
+      <c r="C90">
+        <v>35</v>
+      </c>
+      <c r="D90">
+        <v>0.052</v>
+      </c>
+      <c r="E90">
+        <v>89.5</v>
+      </c>
+      <c r="F90">
+        <v>-0.148</v>
+      </c>
+      <c r="G90">
+        <v>144.5</v>
+      </c>
+      <c r="H90">
+        <v>-0.256</v>
+      </c>
+      <c r="I90">
+        <v>183</v>
+      </c>
+      <c r="J90">
+        <v>-0.361</v>
+      </c>
+      <c r="K90">
+        <v>161</v>
+      </c>
+      <c r="L90">
+        <v>0.312</v>
+      </c>
+      <c r="M90">
+        <v>60</v>
+      </c>
+      <c r="N90">
+        <v>0.08</v>
+      </c>
+      <c r="O90">
+        <v>89</v>
+      </c>
+      <c r="P90">
+        <v>0.239</v>
+      </c>
+      <c r="Q90">
+        <v>75</v>
+      </c>
+      <c r="R90">
+        <v>0.307</v>
+      </c>
+      <c r="S90">
+        <v>35</v>
+      </c>
+      <c r="T90">
+        <v>0.052</v>
+      </c>
+      <c r="U90">
+        <v>89.5</v>
+      </c>
+      <c r="V90">
+        <v>-0.122</v>
+      </c>
+      <c r="W90">
+        <v>125</v>
+      </c>
+      <c r="X90">
+        <v>0.348</v>
+      </c>
+      <c r="Y90">
+        <v>79</v>
+      </c>
+      <c r="Z90">
+        <v>301</v>
+      </c>
+      <c r="AA90">
+        <v>63.5</v>
+      </c>
+      <c r="AB90">
+        <v>297.4</v>
+      </c>
+      <c r="AC90">
+        <v>83</v>
+      </c>
+      <c r="AD90">
+        <v>62.19</v>
+      </c>
+      <c r="AE90">
+        <v>72</v>
+      </c>
+      <c r="AF90">
+        <v>56</v>
+      </c>
+      <c r="AG90">
+        <v>159</v>
+      </c>
+      <c r="AH90">
+        <v>3.12</v>
+      </c>
+      <c r="AI90">
+        <v>174</v>
+      </c>
+      <c r="AJ90">
+        <v>3.03</v>
+      </c>
+      <c r="AK90">
+        <v>66.5</v>
+      </c>
+      <c r="AL90">
+        <v>3.98</v>
+      </c>
+      <c r="AM90">
+        <v>30.5</v>
+      </c>
+      <c r="AN90">
+        <v>4.01</v>
+      </c>
+      <c r="AO90">
+        <v>94.5</v>
+      </c>
+      <c r="AP90">
+        <v>4.72</v>
+      </c>
+      <c r="AQ90">
+        <v>168.5</v>
+      </c>
+      <c r="AR90">
+        <v>4.62</v>
+      </c>
+      <c r="AS90">
+        <v>89.5</v>
+      </c>
+      <c r="AT90">
+        <v>66.06</v>
+      </c>
+      <c r="AU90">
+        <v>122</v>
+      </c>
+      <c r="AV90">
+        <v>67.75</v>
+      </c>
+      <c r="AW90">
+        <v>79.5</v>
+      </c>
+      <c r="AX90">
+        <v>60.55</v>
+      </c>
+      <c r="AY90">
+        <v>62</v>
+      </c>
+      <c r="AZ90">
+        <v>54.55</v>
+      </c>
+      <c r="BA90">
+        <v>184</v>
+      </c>
+      <c r="BB90">
+        <v>48.65</v>
+      </c>
+      <c r="BC90">
+        <v>111</v>
+      </c>
+      <c r="BD90">
+        <v>46.15</v>
+      </c>
+      <c r="BE90">
+        <v>150.5</v>
+      </c>
+      <c r="BF90">
+        <v>1.752</v>
+      </c>
+      <c r="BG90">
+        <v>68.5</v>
+      </c>
+      <c r="BH90">
+        <v>1.708</v>
+      </c>
+      <c r="BI90">
+        <v>12</v>
+      </c>
+      <c r="BJ90">
+        <v>148</v>
+      </c>
+      <c r="BK90">
+        <v>66.5</v>
+      </c>
+      <c r="BL90">
+        <v>229</v>
+      </c>
+      <c r="BM90">
+        <v>116</v>
+      </c>
+      <c r="BN90">
+        <v>2</v>
+      </c>
+      <c r="BO90">
+        <v>77.5</v>
+      </c>
+      <c r="BP90">
+        <v>1</v>
+      </c>
+      <c r="BQ90">
+        <v>101</v>
+      </c>
+      <c r="BR90">
+        <v>70.995</v>
+      </c>
+      <c r="BS90">
+        <v>88</v>
+      </c>
+      <c r="BT90">
+        <v>1.004999999999995</v>
+      </c>
+      <c r="BU90">
+        <v>63.04</v>
+      </c>
+      <c r="BV90">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:74">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91">
+        <v>0.175</v>
+      </c>
+      <c r="C91">
+        <v>65</v>
+      </c>
+      <c r="D91">
+        <v>0.283</v>
+      </c>
+      <c r="E91">
+        <v>45</v>
+      </c>
+      <c r="F91">
+        <v>0.112</v>
+      </c>
+      <c r="G91">
+        <v>59</v>
+      </c>
+      <c r="H91">
+        <v>0.142</v>
+      </c>
+      <c r="I91">
+        <v>76.5</v>
+      </c>
+      <c r="J91">
+        <v>0.351</v>
+      </c>
+      <c r="K91">
+        <v>43</v>
+      </c>
+      <c r="L91">
+        <v>0.845</v>
+      </c>
+      <c r="M91">
+        <v>7</v>
+      </c>
+      <c r="N91">
+        <v>-0.6829999999999999</v>
+      </c>
+      <c r="O91">
+        <v>185</v>
+      </c>
+      <c r="P91">
+        <v>-0.7070000000000001</v>
+      </c>
+      <c r="Q91">
+        <v>206</v>
+      </c>
+      <c r="R91">
+        <v>0.175</v>
+      </c>
+      <c r="S91">
+        <v>65</v>
+      </c>
+      <c r="T91">
+        <v>0.283</v>
+      </c>
+      <c r="U91">
+        <v>45</v>
+      </c>
+      <c r="V91">
+        <v>-0.045</v>
+      </c>
+      <c r="W91">
+        <v>114</v>
+      </c>
+      <c r="X91">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="Y91">
+        <v>63.5</v>
+      </c>
+      <c r="Z91">
+        <v>301</v>
+      </c>
+      <c r="AA91">
+        <v>63.5</v>
+      </c>
+      <c r="AB91">
+        <v>299.4</v>
+      </c>
+      <c r="AC91">
+        <v>67.5</v>
+      </c>
+      <c r="AD91">
+        <v>59.7</v>
+      </c>
+      <c r="AE91">
+        <v>105</v>
+      </c>
+      <c r="AF91">
+        <v>65.64</v>
+      </c>
+      <c r="AG91">
+        <v>39.5</v>
+      </c>
+      <c r="AH91">
+        <v>3</v>
+      </c>
+      <c r="AI91">
+        <v>23</v>
+      </c>
+      <c r="AJ91">
+        <v>3.07</v>
+      </c>
+      <c r="AK91">
+        <v>118</v>
+      </c>
+      <c r="AL91">
+        <v>4.06</v>
+      </c>
+      <c r="AM91">
+        <v>168.5</v>
+      </c>
+      <c r="AN91">
+        <v>4.03</v>
+      </c>
+      <c r="AO91">
+        <v>127.5</v>
+      </c>
+      <c r="AP91">
+        <v>4.64</v>
+      </c>
+      <c r="AQ91">
+        <v>104.5</v>
+      </c>
+      <c r="AR91">
+        <v>4.51</v>
+      </c>
+      <c r="AS91">
+        <v>19</v>
+      </c>
+      <c r="AT91">
+        <v>66.42</v>
+      </c>
+      <c r="AU91">
+        <v>115</v>
+      </c>
+      <c r="AV91">
+        <v>70.08</v>
+      </c>
+      <c r="AW91">
+        <v>33.5</v>
+      </c>
+      <c r="AX91">
+        <v>55.72</v>
+      </c>
+      <c r="AY91">
+        <v>162</v>
+      </c>
+      <c r="AZ91">
+        <v>56.54</v>
+      </c>
+      <c r="BA91">
+        <v>162</v>
+      </c>
+      <c r="BB91">
+        <v>51.28</v>
+      </c>
+      <c r="BC91">
+        <v>73</v>
+      </c>
+      <c r="BD91">
+        <v>54.9</v>
+      </c>
+      <c r="BE91">
+        <v>60</v>
+      </c>
+      <c r="BF91">
+        <v>1.793</v>
+      </c>
+      <c r="BG91">
+        <v>167.5</v>
+      </c>
+      <c r="BH91">
+        <v>1.782</v>
+      </c>
+      <c r="BI91">
+        <v>158</v>
+      </c>
+      <c r="BJ91">
+        <v>177</v>
+      </c>
+      <c r="BK91">
+        <v>83.5</v>
+      </c>
+      <c r="BL91">
+        <v>39</v>
+      </c>
+      <c r="BM91">
+        <v>15</v>
+      </c>
+      <c r="BN91">
+        <v>2.696551724137931</v>
+      </c>
+      <c r="BO91">
+        <v>78.06206896551724</v>
+      </c>
+      <c r="BP91">
+        <v>2</v>
+      </c>
+      <c r="BQ91">
+        <v>52.5</v>
+      </c>
+      <c r="BR91">
+        <v>71.381</v>
+      </c>
+      <c r="BS91">
+        <v>59</v>
+      </c>
+      <c r="BT91">
+        <v>0.6189999999999998</v>
+      </c>
+      <c r="BU91">
+        <v>62.93</v>
+      </c>
+      <c r="BV91">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:74">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92">
+        <v>0.006</v>
+      </c>
+      <c r="C92">
+        <v>101</v>
+      </c>
+      <c r="D92">
+        <v>-0.865</v>
+      </c>
+      <c r="E92">
+        <v>213</v>
+      </c>
+      <c r="F92">
+        <v>-0.231</v>
+      </c>
+      <c r="G92">
+        <v>165</v>
+      </c>
+      <c r="H92">
+        <v>-0.147</v>
+      </c>
+      <c r="I92">
+        <v>165</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>112</v>
+      </c>
+      <c r="L92">
+        <v>-0.88</v>
+      </c>
+      <c r="M92">
+        <v>210</v>
+      </c>
+      <c r="N92">
+        <v>-0.307</v>
+      </c>
+      <c r="O92">
+        <v>153</v>
+      </c>
+      <c r="P92">
+        <v>-0.6509999999999999</v>
+      </c>
+      <c r="Q92">
+        <v>197</v>
+      </c>
+      <c r="R92">
+        <v>0.006</v>
+      </c>
+      <c r="S92">
+        <v>101</v>
+      </c>
+      <c r="T92">
+        <v>-0.865</v>
+      </c>
+      <c r="U92">
+        <v>213</v>
+      </c>
+      <c r="V92">
+        <v>-0.532</v>
+      </c>
+      <c r="W92">
+        <v>159</v>
+      </c>
+      <c r="X92">
+        <v>-2.542</v>
+      </c>
+      <c r="Y92">
+        <v>218</v>
+      </c>
+      <c r="Z92">
+        <v>303.4</v>
+      </c>
+      <c r="AA92">
+        <v>39</v>
+      </c>
+      <c r="AB92">
+        <v>288.8</v>
+      </c>
+      <c r="AC92">
+        <v>169</v>
+      </c>
+      <c r="AD92">
+        <v>55.63</v>
+      </c>
+      <c r="AE92">
+        <v>160</v>
+      </c>
+      <c r="AF92">
+        <v>53.58</v>
+      </c>
+      <c r="AG92">
+        <v>184</v>
+      </c>
+      <c r="AH92">
+        <v>3.12</v>
+      </c>
+      <c r="AI92">
+        <v>174</v>
+      </c>
+      <c r="AJ92">
+        <v>3.09</v>
+      </c>
+      <c r="AK92">
+        <v>145.5</v>
+      </c>
+      <c r="AL92">
+        <v>4.07</v>
+      </c>
+      <c r="AM92">
+        <v>175</v>
+      </c>
+      <c r="AN92">
+        <v>4.19</v>
+      </c>
+      <c r="AO92">
+        <v>219</v>
+      </c>
+      <c r="AP92">
+        <v>4.65</v>
+      </c>
+      <c r="AQ92">
+        <v>117</v>
+      </c>
+      <c r="AR92">
+        <v>4.81</v>
+      </c>
+      <c r="AS92">
+        <v>208.5</v>
+      </c>
+      <c r="AT92">
+        <v>65.3</v>
+      </c>
+      <c r="AU92">
+        <v>141</v>
+      </c>
+      <c r="AV92">
+        <v>61.24</v>
+      </c>
+      <c r="AW92">
+        <v>210</v>
+      </c>
+      <c r="AX92">
+        <v>54.17</v>
+      </c>
+      <c r="AY92">
+        <v>174.5</v>
+      </c>
+      <c r="AZ92">
+        <v>47.78</v>
+      </c>
+      <c r="BA92">
+        <v>218</v>
+      </c>
+      <c r="BB92">
+        <v>44.44</v>
+      </c>
+      <c r="BC92">
+        <v>154.5</v>
+      </c>
+      <c r="BD92">
+        <v>46.15</v>
+      </c>
+      <c r="BE92">
+        <v>150.5</v>
+      </c>
+      <c r="BF92">
+        <v>1.786</v>
+      </c>
+      <c r="BG92">
+        <v>157</v>
+      </c>
+      <c r="BH92">
+        <v>1.797</v>
+      </c>
+      <c r="BI92">
+        <v>183</v>
+      </c>
+      <c r="BJ92">
+        <v>249</v>
+      </c>
+      <c r="BK92">
+        <v>137</v>
+      </c>
+      <c r="BL92">
+        <v>421</v>
+      </c>
+      <c r="BM92">
+        <v>215.5</v>
+      </c>
+      <c r="BN92">
+        <v>2</v>
+      </c>
+      <c r="BO92">
+        <v>77.5</v>
+      </c>
+      <c r="BP92">
+        <v>2.051282051282051</v>
+      </c>
+      <c r="BQ92">
+        <v>64.35897435897436</v>
+      </c>
+      <c r="BR92">
+        <v>73.422</v>
+      </c>
+      <c r="BS92">
+        <v>225</v>
+      </c>
+      <c r="BT92">
+        <v>-1.421999999999997</v>
+      </c>
+      <c r="BU92">
+        <v>62.31</v>
+      </c>
+      <c r="BV92">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:74">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93">
+        <v>0.025</v>
+      </c>
+      <c r="C93">
+        <v>98</v>
+      </c>
+      <c r="D93">
+        <v>0.024</v>
+      </c>
+      <c r="E93">
+        <v>103</v>
+      </c>
+      <c r="F93">
+        <v>-0.053</v>
+      </c>
+      <c r="G93">
+        <v>115</v>
+      </c>
+      <c r="H93">
+        <v>-0.008</v>
+      </c>
+      <c r="I93">
+        <v>125</v>
+      </c>
+      <c r="J93">
+        <v>-0.391</v>
+      </c>
+      <c r="K93">
+        <v>169</v>
+      </c>
+      <c r="L93">
+        <v>-0.39</v>
+      </c>
+      <c r="M93">
+        <v>176</v>
+      </c>
+      <c r="N93">
+        <v>0.6629999999999999</v>
+      </c>
+      <c r="O93">
+        <v>9</v>
+      </c>
+      <c r="P93">
+        <v>-0.046</v>
+      </c>
+      <c r="Q93">
+        <v>124</v>
+      </c>
+      <c r="R93">
+        <v>0.025</v>
+      </c>
+      <c r="S93">
+        <v>98</v>
+      </c>
+      <c r="T93">
+        <v>0.024</v>
+      </c>
+      <c r="U93">
+        <v>103</v>
+      </c>
+      <c r="V93">
+        <v>0.244</v>
+      </c>
+      <c r="W93">
+        <v>92</v>
+      </c>
+      <c r="X93">
+        <v>-0.42</v>
+      </c>
+      <c r="Y93">
+        <v>153</v>
+      </c>
+      <c r="Z93">
+        <v>296.6</v>
+      </c>
+      <c r="AA93">
+        <v>102</v>
+      </c>
+      <c r="AB93">
+        <v>295.5</v>
+      </c>
+      <c r="AC93">
+        <v>102</v>
+      </c>
+      <c r="AD93">
+        <v>58.23</v>
+      </c>
+      <c r="AE93">
+        <v>130</v>
+      </c>
+      <c r="AF93">
+        <v>55.58</v>
+      </c>
+      <c r="AG93">
+        <v>163</v>
+      </c>
+      <c r="AH93">
+        <v>3.03</v>
+      </c>
+      <c r="AI93">
+        <v>62.5</v>
+      </c>
+      <c r="AJ93">
+        <v>3.07</v>
+      </c>
+      <c r="AK93">
+        <v>118</v>
+      </c>
+      <c r="AL93">
+        <v>4</v>
+      </c>
+      <c r="AM93">
+        <v>64</v>
+      </c>
+      <c r="AN93">
+        <v>4.02</v>
+      </c>
+      <c r="AO93">
+        <v>111</v>
+      </c>
+      <c r="AP93">
+        <v>4.61</v>
+      </c>
+      <c r="AQ93">
+        <v>66.5</v>
+      </c>
+      <c r="AR93">
+        <v>4.66</v>
+      </c>
+      <c r="AS93">
+        <v>132</v>
+      </c>
+      <c r="AT93">
+        <v>65.86</v>
+      </c>
+      <c r="AU93">
+        <v>128</v>
+      </c>
+      <c r="AV93">
+        <v>65.69</v>
+      </c>
+      <c r="AW93">
+        <v>135</v>
+      </c>
+      <c r="AX93">
+        <v>62.53</v>
+      </c>
+      <c r="AY93">
+        <v>30</v>
+      </c>
+      <c r="AZ93">
+        <v>59.11</v>
+      </c>
+      <c r="BA93">
+        <v>107</v>
+      </c>
+      <c r="BB93">
+        <v>61.36</v>
+      </c>
+      <c r="BC93">
+        <v>8</v>
+      </c>
+      <c r="BD93">
+        <v>46.77</v>
+      </c>
+      <c r="BE93">
+        <v>142</v>
+      </c>
+      <c r="BF93">
+        <v>1.736</v>
+      </c>
+      <c r="BG93">
+        <v>33.5</v>
+      </c>
+      <c r="BH93">
+        <v>1.74</v>
+      </c>
+      <c r="BI93">
+        <v>58</v>
+      </c>
+      <c r="BJ93">
+        <v>269</v>
+      </c>
+      <c r="BK93">
+        <v>146.5</v>
+      </c>
+      <c r="BL93">
+        <v>299</v>
+      </c>
+      <c r="BM93">
+        <v>157.5</v>
+      </c>
+      <c r="BN93">
+        <v>3</v>
+      </c>
+      <c r="BO93">
+        <v>48</v>
+      </c>
+      <c r="BP93">
+        <v>1</v>
+      </c>
+      <c r="BQ93">
+        <v>101</v>
+      </c>
+      <c r="BR93">
+        <v>70.07300000000001</v>
+      </c>
+      <c r="BS93">
+        <v>33</v>
+      </c>
+      <c r="BT93">
+        <v>1.926999999999992</v>
+      </c>
+      <c r="BU93">
+        <v>62.22</v>
+      </c>
+      <c r="BV93">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:74">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94">
+        <v>-0.398</v>
+      </c>
+      <c r="C94">
+        <v>176</v>
+      </c>
+      <c r="D94">
+        <v>0.018</v>
+      </c>
+      <c r="E94">
+        <v>104</v>
+      </c>
+      <c r="F94">
+        <v>0.11</v>
+      </c>
+      <c r="G94">
+        <v>60.5</v>
+      </c>
+      <c r="H94">
+        <v>0.34</v>
+      </c>
+      <c r="I94">
+        <v>25</v>
+      </c>
+      <c r="J94">
+        <v>-0.57</v>
+      </c>
+      <c r="K94">
+        <v>185</v>
+      </c>
+      <c r="L94">
+        <v>-0.35</v>
+      </c>
+      <c r="M94">
+        <v>166.5</v>
+      </c>
+      <c r="N94">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="O94">
+        <v>16</v>
+      </c>
+      <c r="P94">
+        <v>0.04</v>
+      </c>
+      <c r="Q94">
+        <v>107.5</v>
+      </c>
+      <c r="R94">
+        <v>-0.398</v>
+      </c>
+      <c r="S94">
+        <v>176</v>
+      </c>
+      <c r="T94">
+        <v>0.018</v>
+      </c>
+      <c r="U94">
+        <v>104</v>
+      </c>
+      <c r="V94">
+        <v>-0.302</v>
+      </c>
+      <c r="W94">
+        <v>143</v>
+      </c>
+      <c r="X94">
+        <v>0.048</v>
+      </c>
+      <c r="Y94">
+        <v>101</v>
+      </c>
+      <c r="Z94">
+        <v>305.1</v>
+      </c>
+      <c r="AA94">
+        <v>32</v>
+      </c>
+      <c r="AB94">
+        <v>318.5</v>
+      </c>
+      <c r="AC94">
+        <v>3</v>
+      </c>
+      <c r="AD94">
+        <v>52.18</v>
+      </c>
+      <c r="AE94">
+        <v>180</v>
+      </c>
+      <c r="AF94">
+        <v>45.7</v>
+      </c>
+      <c r="AG94">
+        <v>216</v>
+      </c>
+      <c r="AH94">
+        <v>3.07</v>
+      </c>
+      <c r="AI94">
+        <v>135</v>
+      </c>
+      <c r="AJ94">
+        <v>3.03</v>
+      </c>
+      <c r="AK94">
+        <v>66.5</v>
+      </c>
+      <c r="AL94">
+        <v>4.09</v>
+      </c>
+      <c r="AM94">
+        <v>186.5</v>
+      </c>
+      <c r="AN94">
+        <v>4.01</v>
+      </c>
+      <c r="AO94">
+        <v>94.5</v>
+      </c>
+      <c r="AP94">
+        <v>4.52</v>
+      </c>
+      <c r="AQ94">
+        <v>7.5</v>
+      </c>
+      <c r="AR94">
+        <v>4.6</v>
+      </c>
+      <c r="AS94">
+        <v>72.5</v>
+      </c>
+      <c r="AT94">
+        <v>62.57</v>
+      </c>
+      <c r="AU94">
+        <v>187.5</v>
+      </c>
+      <c r="AV94">
+        <v>66.81</v>
+      </c>
+      <c r="AW94">
+        <v>105</v>
+      </c>
+      <c r="AX94">
+        <v>57.66</v>
+      </c>
+      <c r="AY94">
+        <v>127</v>
+      </c>
+      <c r="AZ94">
+        <v>62.76</v>
+      </c>
+      <c r="BA94">
+        <v>43</v>
+      </c>
+      <c r="BB94">
+        <v>53.4</v>
+      </c>
+      <c r="BC94">
+        <v>54.5</v>
+      </c>
+      <c r="BD94">
+        <v>62.9</v>
+      </c>
+      <c r="BE94">
+        <v>12</v>
+      </c>
+      <c r="BF94">
+        <v>1.739</v>
+      </c>
+      <c r="BG94">
+        <v>43</v>
+      </c>
+      <c r="BH94">
+        <v>1.732</v>
+      </c>
+      <c r="BI94">
+        <v>45.5</v>
+      </c>
+      <c r="BJ94">
+        <v>308</v>
+      </c>
+      <c r="BK94">
+        <v>162</v>
+      </c>
+      <c r="BL94">
+        <v>220</v>
+      </c>
+      <c r="BM94">
+        <v>106</v>
+      </c>
+      <c r="BN94">
+        <v>1</v>
+      </c>
+      <c r="BO94">
+        <v>129</v>
+      </c>
+      <c r="BP94">
+        <v>2</v>
+      </c>
+      <c r="BQ94">
+        <v>52.5</v>
+      </c>
+      <c r="BR94">
+        <v>70.524</v>
+      </c>
+      <c r="BS94">
+        <v>52</v>
+      </c>
+      <c r="BT94">
+        <v>1.475999999999999</v>
+      </c>
+      <c r="BU94">
+        <v>61.79</v>
+      </c>
+      <c r="BV94">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:74">
+      <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95">
+        <v>0.211</v>
+      </c>
+      <c r="C95">
+        <v>56</v>
+      </c>
+      <c r="D95">
+        <v>0.493</v>
+      </c>
+      <c r="E95">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>0.131</v>
+      </c>
+      <c r="G95">
+        <v>50</v>
+      </c>
+      <c r="H95">
+        <v>-0.199</v>
+      </c>
+      <c r="I95">
+        <v>175</v>
+      </c>
+      <c r="J95">
+        <v>0.213</v>
+      </c>
+      <c r="K95">
+        <v>68</v>
+      </c>
+      <c r="L95">
+        <v>0.413</v>
+      </c>
+      <c r="M95">
+        <v>42</v>
+      </c>
+      <c r="N95">
+        <v>0.005</v>
+      </c>
+      <c r="O95">
+        <v>104</v>
+      </c>
+      <c r="P95">
+        <v>0.027</v>
+      </c>
+      <c r="Q95">
+        <v>111</v>
+      </c>
+      <c r="R95">
+        <v>0.211</v>
+      </c>
+      <c r="S95">
+        <v>56</v>
+      </c>
+      <c r="T95">
+        <v>0.493</v>
+      </c>
+      <c r="U95">
+        <v>17</v>
+      </c>
+      <c r="V95">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W95">
+        <v>44</v>
+      </c>
+      <c r="X95">
+        <v>0.7340000000000001</v>
+      </c>
+      <c r="Y95">
+        <v>48</v>
+      </c>
+      <c r="Z95">
+        <v>308</v>
+      </c>
+      <c r="AA95">
+        <v>20</v>
+      </c>
+      <c r="AB95">
+        <v>310.3</v>
+      </c>
+      <c r="AC95">
+        <v>11</v>
+      </c>
+      <c r="AD95">
+        <v>58.82</v>
+      </c>
+      <c r="AE95">
+        <v>122</v>
+      </c>
+      <c r="AF95">
+        <v>53.77</v>
+      </c>
+      <c r="AG95">
+        <v>180</v>
+      </c>
+      <c r="AH95">
+        <v>3.04</v>
+      </c>
+      <c r="AI95">
+        <v>80</v>
+      </c>
+      <c r="AJ95">
+        <v>3.09</v>
+      </c>
+      <c r="AK95">
+        <v>145.5</v>
+      </c>
+      <c r="AL95">
+        <v>4</v>
+      </c>
+      <c r="AM95">
+        <v>64</v>
+      </c>
+      <c r="AN95">
+        <v>3.97</v>
+      </c>
+      <c r="AO95">
+        <v>27.5</v>
+      </c>
+      <c r="AP95">
+        <v>4.55</v>
+      </c>
+      <c r="AQ95">
+        <v>24</v>
+      </c>
+      <c r="AR95">
+        <v>4.59</v>
+      </c>
+      <c r="AS95">
+        <v>64.5</v>
+      </c>
+      <c r="AT95">
+        <v>69.25</v>
+      </c>
+      <c r="AU95">
+        <v>41</v>
+      </c>
+      <c r="AV95">
+        <v>66.67</v>
+      </c>
+      <c r="AW95">
+        <v>108.5</v>
+      </c>
+      <c r="AX95">
+        <v>61.06</v>
+      </c>
+      <c r="AY95">
+        <v>45</v>
+      </c>
+      <c r="AZ95">
+        <v>59.52</v>
+      </c>
+      <c r="BA95">
+        <v>100</v>
+      </c>
+      <c r="BB95">
+        <v>56.99</v>
+      </c>
+      <c r="BC95">
+        <v>28</v>
+      </c>
+      <c r="BD95">
+        <v>45.59</v>
+      </c>
+      <c r="BE95">
+        <v>158</v>
+      </c>
+      <c r="BF95">
+        <v>1.779</v>
+      </c>
+      <c r="BG95">
+        <v>145</v>
+      </c>
+      <c r="BH95">
+        <v>1.75</v>
+      </c>
+      <c r="BI95">
+        <v>83</v>
+      </c>
+      <c r="BJ95">
+        <v>75</v>
+      </c>
+      <c r="BK95">
+        <v>24</v>
+      </c>
+      <c r="BL95">
+        <v>183</v>
+      </c>
+      <c r="BM95">
+        <v>89</v>
+      </c>
+      <c r="BN95">
+        <v>2</v>
+      </c>
+      <c r="BO95">
+        <v>77.5</v>
+      </c>
+      <c r="BP95">
+        <v>2</v>
+      </c>
+      <c r="BQ95">
+        <v>52.5</v>
+      </c>
+      <c r="BR95">
+        <v>71.123</v>
+      </c>
+      <c r="BS95">
+        <v>99</v>
+      </c>
+      <c r="BT95">
+        <v>0.8769999999999953</v>
+      </c>
+      <c r="BU95">
+        <v>61.39</v>
+      </c>
+      <c r="BV95">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/PGA_Database.xlsx
+++ b/PGA_Database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>PLAYER NAME</t>
   </si>
@@ -420,105 +420,6 @@
   <si>
     <t>Danny Willett</t>
   </si>
-  <si>
-    <t>Joel Dahmen</t>
-  </si>
-  <si>
-    <t>Branden Grace</t>
-  </si>
-  <si>
-    <t>Matt Jones</t>
-  </si>
-  <si>
-    <t>Cameron Champ</t>
-  </si>
-  <si>
-    <t>Byeong Hun An</t>
-  </si>
-  <si>
-    <t>Brendan Steele</t>
-  </si>
-  <si>
-    <t>Sam Burns</t>
-  </si>
-  <si>
-    <t>Alex Noren</t>
-  </si>
-  <si>
-    <t>Rickie Fowler</t>
-  </si>
-  <si>
-    <t>Adam Hadwin</t>
-  </si>
-  <si>
-    <t>Henrik Norlander</t>
-  </si>
-  <si>
-    <t>Cameron Tringale</t>
-  </si>
-  <si>
-    <t>Richy Werenski</t>
-  </si>
-  <si>
-    <t>Rafa Cabrera Bello</t>
-  </si>
-  <si>
-    <t>Tom Hoge</t>
-  </si>
-  <si>
-    <t>Michael Thompson</t>
-  </si>
-  <si>
-    <t>Charley Hoffman</t>
-  </si>
-  <si>
-    <t>Martin Laird</t>
-  </si>
-  <si>
-    <t>Charles Howell III</t>
-  </si>
-  <si>
-    <t>Rory Sabbatini</t>
-  </si>
-  <si>
-    <t>Robert Streb</t>
-  </si>
-  <si>
-    <t>Graeme McDowell</t>
-  </si>
-  <si>
-    <t>Phil Mickelson</t>
-  </si>
-  <si>
-    <t>Andrew Landry</t>
-  </si>
-  <si>
-    <t>Nick Taylor</t>
-  </si>
-  <si>
-    <t>Nate Lashley</t>
-  </si>
-  <si>
-    <t>Andrew Putnam</t>
-  </si>
-  <si>
-    <t>Harry Higgs</t>
-  </si>
-  <si>
-    <t>Keegan Bradley</t>
-  </si>
-  <si>
-    <t>Sung Kang</t>
-  </si>
-  <si>
-    <t>Maverick McNealy</t>
-  </si>
-  <si>
-    <t>Wyndham Clark</t>
-  </si>
-  <si>
-    <t>Cameron Davis</t>
-  </si>
 </sst>
 </file>
 
@@ -875,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV95"/>
+  <dimension ref="A1:BV62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14769,7398 +14670,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:74">
-      <c r="A63" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63">
-        <v>0.356</v>
-      </c>
-      <c r="C63">
-        <v>29</v>
-      </c>
-      <c r="D63">
-        <v>0.297</v>
-      </c>
-      <c r="E63">
-        <v>42</v>
-      </c>
-      <c r="F63">
-        <v>-0.04</v>
-      </c>
-      <c r="G63">
-        <v>109.5</v>
-      </c>
-      <c r="H63">
-        <v>-0.135</v>
-      </c>
-      <c r="I63">
-        <v>163</v>
-      </c>
-      <c r="J63">
-        <v>0.336</v>
-      </c>
-      <c r="K63">
-        <v>44</v>
-      </c>
-      <c r="L63">
-        <v>-0.105</v>
-      </c>
-      <c r="M63">
-        <v>130</v>
-      </c>
-      <c r="N63">
-        <v>-0.063</v>
-      </c>
-      <c r="O63">
-        <v>120</v>
-      </c>
-      <c r="P63">
-        <v>-0.34</v>
-      </c>
-      <c r="Q63">
-        <v>172</v>
-      </c>
-      <c r="R63">
-        <v>0.356</v>
-      </c>
-      <c r="S63">
-        <v>29</v>
-      </c>
-      <c r="T63">
-        <v>0.297</v>
-      </c>
-      <c r="U63">
-        <v>42</v>
-      </c>
-      <c r="V63">
-        <v>0.588</v>
-      </c>
-      <c r="W63">
-        <v>41</v>
-      </c>
-      <c r="X63">
-        <v>-0.283</v>
-      </c>
-      <c r="Y63">
-        <v>142.5</v>
-      </c>
-      <c r="Z63">
-        <v>295.4</v>
-      </c>
-      <c r="AA63">
-        <v>115</v>
-      </c>
-      <c r="AB63">
-        <v>293.7</v>
-      </c>
-      <c r="AC63">
-        <v>123</v>
-      </c>
-      <c r="AD63">
-        <v>64.58</v>
-      </c>
-      <c r="AE63">
-        <v>38.5</v>
-      </c>
-      <c r="AF63">
-        <v>66.78</v>
-      </c>
-      <c r="AG63">
-        <v>29</v>
-      </c>
-      <c r="AH63">
-        <v>3.01</v>
-      </c>
-      <c r="AI63">
-        <v>37.5</v>
-      </c>
-      <c r="AJ63">
-        <v>3.04</v>
-      </c>
-      <c r="AK63">
-        <v>77.5</v>
-      </c>
-      <c r="AL63">
-        <v>3.98</v>
-      </c>
-      <c r="AM63">
-        <v>30.5</v>
-      </c>
-      <c r="AN63">
-        <v>4.02</v>
-      </c>
-      <c r="AO63">
-        <v>111</v>
-      </c>
-      <c r="AP63">
-        <v>4.8</v>
-      </c>
-      <c r="AQ63">
-        <v>193</v>
-      </c>
-      <c r="AR63">
-        <v>4.69</v>
-      </c>
-      <c r="AS63">
-        <v>160</v>
-      </c>
-      <c r="AT63">
-        <v>63.85</v>
-      </c>
-      <c r="AU63">
-        <v>172</v>
-      </c>
-      <c r="AV63">
-        <v>66.01000000000001</v>
-      </c>
-      <c r="AW63">
-        <v>127.5</v>
-      </c>
-      <c r="AX63">
-        <v>60.51</v>
-      </c>
-      <c r="AY63">
-        <v>65</v>
-      </c>
-      <c r="AZ63">
-        <v>59.92</v>
-      </c>
-      <c r="BA63">
-        <v>92</v>
-      </c>
-      <c r="BB63">
-        <v>50.71</v>
-      </c>
-      <c r="BC63">
-        <v>81.5</v>
-      </c>
-      <c r="BD63">
-        <v>42.19</v>
-      </c>
-      <c r="BE63">
-        <v>182</v>
-      </c>
-      <c r="BF63">
-        <v>1.747</v>
-      </c>
-      <c r="BG63">
-        <v>55.5</v>
-      </c>
-      <c r="BH63">
-        <v>1.752</v>
-      </c>
-      <c r="BI63">
-        <v>88.5</v>
-      </c>
-      <c r="BJ63">
-        <v>216</v>
-      </c>
-      <c r="BK63">
-        <v>113.5</v>
-      </c>
-      <c r="BL63">
-        <v>160</v>
-      </c>
-      <c r="BM63">
-        <v>68</v>
-      </c>
-      <c r="BN63">
-        <v>5</v>
-      </c>
-      <c r="BO63">
-        <v>21</v>
-      </c>
-      <c r="BP63">
-        <v>1</v>
-      </c>
-      <c r="BQ63">
-        <v>101</v>
-      </c>
-      <c r="BR63">
-        <v>71.13</v>
-      </c>
-      <c r="BS63">
-        <v>101</v>
-      </c>
-      <c r="BT63">
-        <v>0.8700000000000045</v>
-      </c>
-      <c r="BU63">
-        <v>82.39</v>
-      </c>
-      <c r="BV63">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:74">
-      <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64">
-        <v>-0.181</v>
-      </c>
-      <c r="C64">
-        <v>152</v>
-      </c>
-      <c r="D64">
-        <v>-0.031</v>
-      </c>
-      <c r="E64">
-        <v>120</v>
-      </c>
-      <c r="F64">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="G64">
-        <v>74</v>
-      </c>
-      <c r="H64">
-        <v>-0.034</v>
-      </c>
-      <c r="I64">
-        <v>133.5</v>
-      </c>
-      <c r="J64">
-        <v>0.501</v>
-      </c>
-      <c r="K64">
-        <v>20</v>
-      </c>
-      <c r="L64">
-        <v>0.026</v>
-      </c>
-      <c r="M64">
-        <v>105.5</v>
-      </c>
-      <c r="N64">
-        <v>-0.352</v>
-      </c>
-      <c r="O64">
-        <v>162</v>
-      </c>
-      <c r="P64">
-        <v>-0.238</v>
-      </c>
-      <c r="Q64">
-        <v>159</v>
-      </c>
-      <c r="R64">
-        <v>-0.181</v>
-      </c>
-      <c r="S64">
-        <v>152</v>
-      </c>
-      <c r="T64">
-        <v>-0.031</v>
-      </c>
-      <c r="U64">
-        <v>120</v>
-      </c>
-      <c r="V64">
-        <v>0.053</v>
-      </c>
-      <c r="W64">
-        <v>108</v>
-      </c>
-      <c r="X64">
-        <v>-0.277</v>
-      </c>
-      <c r="Y64">
-        <v>141</v>
-      </c>
-      <c r="Z64">
-        <v>297.3</v>
-      </c>
-      <c r="AA64">
-        <v>98</v>
-      </c>
-      <c r="AB64">
-        <v>292.7</v>
-      </c>
-      <c r="AC64">
-        <v>132</v>
-      </c>
-      <c r="AD64">
-        <v>55.67</v>
-      </c>
-      <c r="AE64">
-        <v>159</v>
-      </c>
-      <c r="AF64">
-        <v>56.03</v>
-      </c>
-      <c r="AG64">
-        <v>157</v>
-      </c>
-      <c r="AH64">
-        <v>3.03</v>
-      </c>
-      <c r="AI64">
-        <v>62.5</v>
-      </c>
-      <c r="AJ64">
-        <v>3.07</v>
-      </c>
-      <c r="AK64">
-        <v>118</v>
-      </c>
-      <c r="AL64">
-        <v>3.99</v>
-      </c>
-      <c r="AM64">
-        <v>47</v>
-      </c>
-      <c r="AN64">
-        <v>4.02</v>
-      </c>
-      <c r="AO64">
-        <v>111</v>
-      </c>
-      <c r="AP64">
-        <v>4.74</v>
-      </c>
-      <c r="AQ64">
-        <v>180.5</v>
-      </c>
-      <c r="AR64">
-        <v>4.68</v>
-      </c>
-      <c r="AS64">
-        <v>153.5</v>
-      </c>
-      <c r="AT64">
-        <v>68.43000000000001</v>
-      </c>
-      <c r="AU64">
-        <v>56</v>
-      </c>
-      <c r="AV64">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="AW64">
-        <v>146</v>
-      </c>
-      <c r="AX64">
-        <v>59.66</v>
-      </c>
-      <c r="AY64">
-        <v>80.5</v>
-      </c>
-      <c r="AZ64">
-        <v>56.93</v>
-      </c>
-      <c r="BA64">
-        <v>156</v>
-      </c>
-      <c r="BB64">
-        <v>53.13</v>
-      </c>
-      <c r="BC64">
-        <v>59</v>
-      </c>
-      <c r="BD64">
-        <v>49.25</v>
-      </c>
-      <c r="BE64">
-        <v>116</v>
-      </c>
-      <c r="BF64">
-        <v>1.778</v>
-      </c>
-      <c r="BG64">
-        <v>141.5</v>
-      </c>
-      <c r="BH64">
-        <v>1.761</v>
-      </c>
-      <c r="BI64">
-        <v>112.5</v>
-      </c>
-      <c r="BJ64">
-        <v>227</v>
-      </c>
-      <c r="BK64">
-        <v>122</v>
-      </c>
-      <c r="BL64">
-        <v>329</v>
-      </c>
-      <c r="BM64">
-        <v>179</v>
-      </c>
-      <c r="BN64">
-        <v>1</v>
-      </c>
-      <c r="BO64">
-        <v>129</v>
-      </c>
-      <c r="BP64">
-        <v>1</v>
-      </c>
-      <c r="BQ64">
-        <v>101</v>
-      </c>
-      <c r="BR64">
-        <v>71.96325</v>
-      </c>
-      <c r="BS64">
-        <v>69.625</v>
-      </c>
-      <c r="BT64">
-        <v>0.03674999999999784</v>
-      </c>
-      <c r="BU64">
-        <v>82.08</v>
-      </c>
-      <c r="BV64">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:74">
-      <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65">
-        <v>0.159</v>
-      </c>
-      <c r="C65">
-        <v>70</v>
-      </c>
-      <c r="D65">
-        <v>-0.017</v>
-      </c>
-      <c r="E65">
-        <v>115.5</v>
-      </c>
-      <c r="F65">
-        <v>0.08900000000000001</v>
-      </c>
-      <c r="G65">
-        <v>73</v>
-      </c>
-      <c r="H65">
-        <v>0.102</v>
-      </c>
-      <c r="I65">
-        <v>92</v>
-      </c>
-      <c r="J65">
-        <v>-0.4379999999999999</v>
-      </c>
-      <c r="K65">
-        <v>175.5</v>
-      </c>
-      <c r="L65">
-        <v>-0.09699999999999999</v>
-      </c>
-      <c r="M65">
-        <v>128</v>
-      </c>
-      <c r="N65">
-        <v>0.061</v>
-      </c>
-      <c r="O65">
-        <v>92</v>
-      </c>
-      <c r="P65">
-        <v>0.54</v>
-      </c>
-      <c r="Q65">
-        <v>29</v>
-      </c>
-      <c r="R65">
-        <v>0.159</v>
-      </c>
-      <c r="S65">
-        <v>70</v>
-      </c>
-      <c r="T65">
-        <v>-0.017</v>
-      </c>
-      <c r="U65">
-        <v>115.5</v>
-      </c>
-      <c r="V65">
-        <v>-0.129</v>
-      </c>
-      <c r="W65">
-        <v>126</v>
-      </c>
-      <c r="X65">
-        <v>0.528</v>
-      </c>
-      <c r="Y65">
-        <v>67</v>
-      </c>
-      <c r="Z65">
-        <v>297.3</v>
-      </c>
-      <c r="AA65">
-        <v>98</v>
-      </c>
-      <c r="AB65">
-        <v>304.5</v>
-      </c>
-      <c r="AC65">
-        <v>31</v>
-      </c>
-      <c r="AD65">
-        <v>59.17</v>
-      </c>
-      <c r="AE65">
-        <v>117</v>
-      </c>
-      <c r="AF65">
-        <v>54.92</v>
-      </c>
-      <c r="AG65">
-        <v>168</v>
-      </c>
-      <c r="AH65">
-        <v>3.1</v>
-      </c>
-      <c r="AI65">
-        <v>165.5</v>
-      </c>
-      <c r="AJ65">
-        <v>3.08</v>
-      </c>
-      <c r="AK65">
-        <v>133.5</v>
-      </c>
-      <c r="AL65">
-        <v>4.04</v>
-      </c>
-      <c r="AM65">
-        <v>145</v>
-      </c>
-      <c r="AN65">
-        <v>3.98</v>
-      </c>
-      <c r="AO65">
-        <v>39</v>
-      </c>
-      <c r="AP65">
-        <v>4.52</v>
-      </c>
-      <c r="AQ65">
-        <v>7.5</v>
-      </c>
-      <c r="AR65">
-        <v>4.57</v>
-      </c>
-      <c r="AS65">
-        <v>50.5</v>
-      </c>
-      <c r="AT65">
-        <v>66.23</v>
-      </c>
-      <c r="AU65">
-        <v>119</v>
-      </c>
-      <c r="AV65">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="AW65">
-        <v>86</v>
-      </c>
-      <c r="AX65">
-        <v>58.01</v>
-      </c>
-      <c r="AY65">
-        <v>112.5</v>
-      </c>
-      <c r="AZ65">
-        <v>64.56</v>
-      </c>
-      <c r="BA65">
-        <v>19</v>
-      </c>
-      <c r="BB65">
-        <v>58.33</v>
-      </c>
-      <c r="BC65">
-        <v>19</v>
-      </c>
-      <c r="BD65">
-        <v>52.63</v>
-      </c>
-      <c r="BE65">
-        <v>87.5</v>
-      </c>
-      <c r="BF65">
-        <v>1.764</v>
-      </c>
-      <c r="BG65">
-        <v>101.5</v>
-      </c>
-      <c r="BH65">
-        <v>1.738</v>
-      </c>
-      <c r="BI65">
-        <v>53.5</v>
-      </c>
-      <c r="BJ65">
-        <v>246</v>
-      </c>
-      <c r="BK65">
-        <v>133.5</v>
-      </c>
-      <c r="BL65">
-        <v>177</v>
-      </c>
-      <c r="BM65">
-        <v>84.5</v>
-      </c>
-      <c r="BN65">
-        <v>2</v>
-      </c>
-      <c r="BO65">
-        <v>77.5</v>
-      </c>
-      <c r="BP65">
-        <v>2</v>
-      </c>
-      <c r="BQ65">
-        <v>52.5</v>
-      </c>
-      <c r="BR65">
-        <v>70.40899999999999</v>
-      </c>
-      <c r="BS65">
-        <v>49</v>
-      </c>
-      <c r="BT65">
-        <v>1.591000000000008</v>
-      </c>
-      <c r="BU65">
-        <v>80.48</v>
-      </c>
-      <c r="BV65">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:74">
-      <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66">
-        <v>0.9990000000000001</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>0.63</v>
-      </c>
-      <c r="E66">
-        <v>8</v>
-      </c>
-      <c r="F66">
-        <v>-0.293</v>
-      </c>
-      <c r="G66">
-        <v>179.5</v>
-      </c>
-      <c r="H66">
-        <v>-0.308</v>
-      </c>
-      <c r="I66">
-        <v>189.5</v>
-      </c>
-      <c r="J66">
-        <v>-0.143</v>
-      </c>
-      <c r="K66">
-        <v>131</v>
-      </c>
-      <c r="L66">
-        <v>0.1</v>
-      </c>
-      <c r="M66">
-        <v>96</v>
-      </c>
-      <c r="N66">
-        <v>-0.173</v>
-      </c>
-      <c r="O66">
-        <v>136</v>
-      </c>
-      <c r="P66">
-        <v>-1.314</v>
-      </c>
-      <c r="Q66">
-        <v>221</v>
-      </c>
-      <c r="R66">
-        <v>0.9990000000000001</v>
-      </c>
-      <c r="S66">
-        <v>2</v>
-      </c>
-      <c r="T66">
-        <v>0.63</v>
-      </c>
-      <c r="U66">
-        <v>8</v>
-      </c>
-      <c r="V66">
-        <v>0.39</v>
-      </c>
-      <c r="W66">
-        <v>64</v>
-      </c>
-      <c r="X66">
-        <v>-0.892</v>
-      </c>
-      <c r="Y66">
-        <v>186</v>
-      </c>
-      <c r="Z66">
-        <v>322</v>
-      </c>
-      <c r="AA66">
-        <v>2</v>
-      </c>
-      <c r="AB66">
-        <v>316.6</v>
-      </c>
-      <c r="AC66">
-        <v>4</v>
-      </c>
-      <c r="AD66">
-        <v>56.36</v>
-      </c>
-      <c r="AE66">
-        <v>154</v>
-      </c>
-      <c r="AF66">
-        <v>58.19</v>
-      </c>
-      <c r="AG66">
-        <v>131</v>
-      </c>
-      <c r="AH66">
-        <v>3.09</v>
-      </c>
-      <c r="AI66">
-        <v>156.5</v>
-      </c>
-      <c r="AJ66">
-        <v>3.18</v>
-      </c>
-      <c r="AK66">
-        <v>208</v>
-      </c>
-      <c r="AL66">
-        <v>4</v>
-      </c>
-      <c r="AM66">
-        <v>64</v>
-      </c>
-      <c r="AN66">
-        <v>4.07</v>
-      </c>
-      <c r="AO66">
-        <v>175.5</v>
-      </c>
-      <c r="AP66">
-        <v>4.61</v>
-      </c>
-      <c r="AQ66">
-        <v>66.5</v>
-      </c>
-      <c r="AR66">
-        <v>4.6</v>
-      </c>
-      <c r="AS66">
-        <v>72.5</v>
-      </c>
-      <c r="AT66">
-        <v>67.7</v>
-      </c>
-      <c r="AU66">
-        <v>78</v>
-      </c>
-      <c r="AV66">
-        <v>68.3</v>
-      </c>
-      <c r="AW66">
-        <v>67</v>
-      </c>
-      <c r="AX66">
-        <v>57.99</v>
-      </c>
-      <c r="AY66">
-        <v>115.5</v>
-      </c>
-      <c r="AZ66">
-        <v>51.55</v>
-      </c>
-      <c r="BA66">
-        <v>208</v>
-      </c>
-      <c r="BB66">
-        <v>48.18</v>
-      </c>
-      <c r="BC66">
-        <v>117</v>
-      </c>
-      <c r="BD66">
-        <v>27.12</v>
-      </c>
-      <c r="BE66">
-        <v>221</v>
-      </c>
-      <c r="BF66">
-        <v>1.775</v>
-      </c>
-      <c r="BG66">
-        <v>136.5</v>
-      </c>
-      <c r="BH66">
-        <v>1.828</v>
-      </c>
-      <c r="BI66">
-        <v>214</v>
-      </c>
-      <c r="BJ66">
-        <v>126</v>
-      </c>
-      <c r="BK66">
-        <v>55</v>
-      </c>
-      <c r="BL66">
-        <v>89</v>
-      </c>
-      <c r="BM66">
-        <v>35</v>
-      </c>
-      <c r="BN66">
-        <v>2</v>
-      </c>
-      <c r="BO66">
-        <v>77.5</v>
-      </c>
-      <c r="BP66">
-        <v>1</v>
-      </c>
-      <c r="BQ66">
-        <v>101</v>
-      </c>
-      <c r="BR66">
-        <v>71.21899999999999</v>
-      </c>
-      <c r="BS66">
-        <v>110</v>
-      </c>
-      <c r="BT66">
-        <v>0.7810000000000059</v>
-      </c>
-      <c r="BU66">
-        <v>80.31</v>
-      </c>
-      <c r="BV66">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:74">
-      <c r="A67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67">
-        <v>-0.05</v>
-      </c>
-      <c r="C67">
-        <v>117</v>
-      </c>
-      <c r="D67">
-        <v>-0.194</v>
-      </c>
-      <c r="E67">
-        <v>156</v>
-      </c>
-      <c r="F67">
-        <v>0.373</v>
-      </c>
-      <c r="G67">
-        <v>14</v>
-      </c>
-      <c r="H67">
-        <v>0.525</v>
-      </c>
-      <c r="I67">
-        <v>7</v>
-      </c>
-      <c r="J67">
-        <v>0.256</v>
-      </c>
-      <c r="K67">
-        <v>60</v>
-      </c>
-      <c r="L67">
-        <v>0.08199999999999999</v>
-      </c>
-      <c r="M67">
-        <v>101</v>
-      </c>
-      <c r="N67">
-        <v>-0.525</v>
-      </c>
-      <c r="O67">
-        <v>176</v>
-      </c>
-      <c r="P67">
-        <v>-1.183</v>
-      </c>
-      <c r="Q67">
-        <v>220</v>
-      </c>
-      <c r="R67">
-        <v>-0.05</v>
-      </c>
-      <c r="S67">
-        <v>117</v>
-      </c>
-      <c r="T67">
-        <v>-0.194</v>
-      </c>
-      <c r="U67">
-        <v>156</v>
-      </c>
-      <c r="V67">
-        <v>0.055</v>
-      </c>
-      <c r="W67">
-        <v>107</v>
-      </c>
-      <c r="X67">
-        <v>-0.769</v>
-      </c>
-      <c r="Y67">
-        <v>180</v>
-      </c>
-      <c r="Z67">
-        <v>305.7</v>
-      </c>
-      <c r="AA67">
-        <v>28.5</v>
-      </c>
-      <c r="AB67">
-        <v>298.8</v>
-      </c>
-      <c r="AC67">
-        <v>70.5</v>
-      </c>
-      <c r="AD67">
-        <v>54.3</v>
-      </c>
-      <c r="AE67">
-        <v>169</v>
-      </c>
-      <c r="AF67">
-        <v>51.8</v>
-      </c>
-      <c r="AG67">
-        <v>195</v>
-      </c>
-      <c r="AH67">
-        <v>3.05</v>
-      </c>
-      <c r="AI67">
-        <v>97.5</v>
-      </c>
-      <c r="AJ67">
-        <v>3.11</v>
-      </c>
-      <c r="AK67">
-        <v>167</v>
-      </c>
-      <c r="AL67">
-        <v>4.01</v>
-      </c>
-      <c r="AM67">
-        <v>89.5</v>
-      </c>
-      <c r="AN67">
-        <v>4.07</v>
-      </c>
-      <c r="AO67">
-        <v>175.5</v>
-      </c>
-      <c r="AP67">
-        <v>4.68</v>
-      </c>
-      <c r="AQ67">
-        <v>143</v>
-      </c>
-      <c r="AR67">
-        <v>4.66</v>
-      </c>
-      <c r="AS67">
-        <v>132</v>
-      </c>
-      <c r="AT67">
-        <v>65.78</v>
-      </c>
-      <c r="AU67">
-        <v>130</v>
-      </c>
-      <c r="AV67">
-        <v>65.69</v>
-      </c>
-      <c r="AW67">
-        <v>135</v>
-      </c>
-      <c r="AX67">
-        <v>60.61</v>
-      </c>
-      <c r="AY67">
-        <v>58.5</v>
-      </c>
-      <c r="AZ67">
-        <v>59.11</v>
-      </c>
-      <c r="BA67">
-        <v>107</v>
-      </c>
-      <c r="BB67">
-        <v>50.71</v>
-      </c>
-      <c r="BC67">
-        <v>81.5</v>
-      </c>
-      <c r="BD67">
-        <v>60.32</v>
-      </c>
-      <c r="BE67">
-        <v>21</v>
-      </c>
-      <c r="BF67">
-        <v>1.756</v>
-      </c>
-      <c r="BG67">
-        <v>78</v>
-      </c>
-      <c r="BH67">
-        <v>1.78</v>
-      </c>
-      <c r="BI67">
-        <v>152</v>
-      </c>
-      <c r="BJ67">
-        <v>233</v>
-      </c>
-      <c r="BK67">
-        <v>126.5</v>
-      </c>
-      <c r="BL67">
-        <v>299</v>
-      </c>
-      <c r="BM67">
-        <v>157.5</v>
-      </c>
-      <c r="BN67">
-        <v>5</v>
-      </c>
-      <c r="BO67">
-        <v>21</v>
-      </c>
-      <c r="BP67">
-        <v>1</v>
-      </c>
-      <c r="BQ67">
-        <v>101</v>
-      </c>
-      <c r="BR67">
-        <v>71.86250000000001</v>
-      </c>
-      <c r="BS67">
-        <v>103</v>
-      </c>
-      <c r="BT67">
-        <v>0.1374999999999886</v>
-      </c>
-      <c r="BU67">
-        <v>80.01000000000001</v>
-      </c>
-      <c r="BV67">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:74">
-      <c r="A68" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68">
-        <v>0.081</v>
-      </c>
-      <c r="C68">
-        <v>85</v>
-      </c>
-      <c r="D68">
-        <v>0.371</v>
-      </c>
-      <c r="E68">
-        <v>35</v>
-      </c>
-      <c r="F68">
-        <v>-0.038</v>
-      </c>
-      <c r="G68">
-        <v>108</v>
-      </c>
-      <c r="H68">
-        <v>0.231</v>
-      </c>
-      <c r="I68">
-        <v>50</v>
-      </c>
-      <c r="J68">
-        <v>0.539</v>
-      </c>
-      <c r="K68">
-        <v>16</v>
-      </c>
-      <c r="L68">
-        <v>-0.004</v>
-      </c>
-      <c r="M68">
-        <v>112.5</v>
-      </c>
-      <c r="N68">
-        <v>0.126</v>
-      </c>
-      <c r="O68">
-        <v>73</v>
-      </c>
-      <c r="P68">
-        <v>-0.307</v>
-      </c>
-      <c r="Q68">
-        <v>171</v>
-      </c>
-      <c r="R68">
-        <v>0.081</v>
-      </c>
-      <c r="S68">
-        <v>85</v>
-      </c>
-      <c r="T68">
-        <v>0.371</v>
-      </c>
-      <c r="U68">
-        <v>35</v>
-      </c>
-      <c r="V68">
-        <v>0.708</v>
-      </c>
-      <c r="W68">
-        <v>32</v>
-      </c>
-      <c r="X68">
-        <v>0.291</v>
-      </c>
-      <c r="Y68">
-        <v>83</v>
-      </c>
-      <c r="Z68">
-        <v>303.6</v>
-      </c>
-      <c r="AA68">
-        <v>38</v>
-      </c>
-      <c r="AB68">
-        <v>298.4</v>
-      </c>
-      <c r="AC68">
-        <v>72.5</v>
-      </c>
-      <c r="AD68">
-        <v>59.93</v>
-      </c>
-      <c r="AE68">
-        <v>104</v>
-      </c>
-      <c r="AF68">
-        <v>64.84</v>
-      </c>
-      <c r="AG68">
-        <v>49</v>
-      </c>
-      <c r="AH68">
-        <v>3.04</v>
-      </c>
-      <c r="AI68">
-        <v>80</v>
-      </c>
-      <c r="AJ68">
-        <v>3.02</v>
-      </c>
-      <c r="AK68">
-        <v>53</v>
-      </c>
-      <c r="AL68">
-        <v>3.98</v>
-      </c>
-      <c r="AM68">
-        <v>30.5</v>
-      </c>
-      <c r="AN68">
-        <v>4.01</v>
-      </c>
-      <c r="AO68">
-        <v>94.5</v>
-      </c>
-      <c r="AP68">
-        <v>4.69</v>
-      </c>
-      <c r="AQ68">
-        <v>152</v>
-      </c>
-      <c r="AR68">
-        <v>4.65</v>
-      </c>
-      <c r="AS68">
-        <v>122.5</v>
-      </c>
-      <c r="AT68">
-        <v>68.14</v>
-      </c>
-      <c r="AU68">
-        <v>66</v>
-      </c>
-      <c r="AV68">
-        <v>68.84</v>
-      </c>
-      <c r="AW68">
-        <v>59</v>
-      </c>
-      <c r="AX68">
-        <v>58.31</v>
-      </c>
-      <c r="AY68">
-        <v>107</v>
-      </c>
-      <c r="AZ68">
-        <v>60.85</v>
-      </c>
-      <c r="BA68">
-        <v>74</v>
-      </c>
-      <c r="BB68">
-        <v>49.46</v>
-      </c>
-      <c r="BC68">
-        <v>96</v>
-      </c>
-      <c r="BD68">
-        <v>55.17</v>
-      </c>
-      <c r="BE68">
-        <v>56</v>
-      </c>
-      <c r="BF68">
-        <v>1.762</v>
-      </c>
-      <c r="BG68">
-        <v>96.5</v>
-      </c>
-      <c r="BH68">
-        <v>1.772</v>
-      </c>
-      <c r="BI68">
-        <v>136</v>
-      </c>
-      <c r="BJ68">
-        <v>100</v>
-      </c>
-      <c r="BK68">
-        <v>42</v>
-      </c>
-      <c r="BL68">
-        <v>70</v>
-      </c>
-      <c r="BM68">
-        <v>25</v>
-      </c>
-      <c r="BN68">
-        <v>3</v>
-      </c>
-      <c r="BO68">
-        <v>48</v>
-      </c>
-      <c r="BP68">
-        <v>1</v>
-      </c>
-      <c r="BQ68">
-        <v>101</v>
-      </c>
-      <c r="BR68">
-        <v>71.9705</v>
-      </c>
-      <c r="BS68">
-        <v>115.5</v>
-      </c>
-      <c r="BT68">
-        <v>0.02949999999999875</v>
-      </c>
-      <c r="BU68">
-        <v>79.36</v>
-      </c>
-      <c r="BV68">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:74">
-      <c r="A69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69">
-        <v>0.493</v>
-      </c>
-      <c r="C69">
-        <v>16</v>
-      </c>
-      <c r="D69">
-        <v>0.289</v>
-      </c>
-      <c r="E69">
-        <v>43</v>
-      </c>
-      <c r="F69">
-        <v>-0.394</v>
-      </c>
-      <c r="G69">
-        <v>187</v>
-      </c>
-      <c r="H69">
-        <v>-0.366</v>
-      </c>
-      <c r="I69">
-        <v>198</v>
-      </c>
-      <c r="J69">
-        <v>-0.179</v>
-      </c>
-      <c r="K69">
-        <v>138</v>
-      </c>
-      <c r="L69">
-        <v>0.51</v>
-      </c>
-      <c r="M69">
-        <v>29</v>
-      </c>
-      <c r="N69">
-        <v>0.409</v>
-      </c>
-      <c r="O69">
-        <v>30</v>
-      </c>
-      <c r="P69">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="Q69">
-        <v>24</v>
-      </c>
-      <c r="R69">
-        <v>0.493</v>
-      </c>
-      <c r="S69">
-        <v>16</v>
-      </c>
-      <c r="T69">
-        <v>0.289</v>
-      </c>
-      <c r="U69">
-        <v>43</v>
-      </c>
-      <c r="V69">
-        <v>0.329</v>
-      </c>
-      <c r="W69">
-        <v>69</v>
-      </c>
-      <c r="X69">
-        <v>0.993</v>
-      </c>
-      <c r="Y69">
-        <v>35</v>
-      </c>
-      <c r="Z69">
-        <v>312</v>
-      </c>
-      <c r="AA69">
-        <v>8</v>
-      </c>
-      <c r="AB69">
-        <v>307.5</v>
-      </c>
-      <c r="AC69">
-        <v>18</v>
-      </c>
-      <c r="AD69">
-        <v>54.8</v>
-      </c>
-      <c r="AE69">
-        <v>165</v>
-      </c>
-      <c r="AF69">
-        <v>57.55</v>
-      </c>
-      <c r="AG69">
-        <v>142.5</v>
-      </c>
-      <c r="AH69">
-        <v>3.13</v>
-      </c>
-      <c r="AI69">
-        <v>180.5</v>
-      </c>
-      <c r="AJ69">
-        <v>3.12</v>
-      </c>
-      <c r="AK69">
-        <v>175</v>
-      </c>
-      <c r="AL69">
-        <v>4</v>
-      </c>
-      <c r="AM69">
-        <v>64</v>
-      </c>
-      <c r="AN69">
-        <v>3.96</v>
-      </c>
-      <c r="AO69">
-        <v>18</v>
-      </c>
-      <c r="AP69">
-        <v>4.55</v>
-      </c>
-      <c r="AQ69">
-        <v>24</v>
-      </c>
-      <c r="AR69">
-        <v>4.57</v>
-      </c>
-      <c r="AS69">
-        <v>50.5</v>
-      </c>
-      <c r="AT69">
-        <v>66.95</v>
-      </c>
-      <c r="AU69">
-        <v>98.5</v>
-      </c>
-      <c r="AV69">
-        <v>69.72</v>
-      </c>
-      <c r="AW69">
-        <v>43</v>
-      </c>
-      <c r="AX69">
-        <v>57.1</v>
-      </c>
-      <c r="AY69">
-        <v>136</v>
-      </c>
-      <c r="AZ69">
-        <v>51.83</v>
-      </c>
-      <c r="BA69">
-        <v>205</v>
-      </c>
-      <c r="BB69">
-        <v>32.14</v>
-      </c>
-      <c r="BC69">
-        <v>191</v>
-      </c>
-      <c r="BD69">
-        <v>40.98</v>
-      </c>
-      <c r="BE69">
-        <v>190.5</v>
-      </c>
-      <c r="BF69">
-        <v>1.755</v>
-      </c>
-      <c r="BG69">
-        <v>74.5</v>
-      </c>
-      <c r="BH69">
-        <v>1.727</v>
-      </c>
-      <c r="BI69">
-        <v>33.5</v>
-      </c>
-      <c r="BJ69">
-        <v>164</v>
-      </c>
-      <c r="BK69">
-        <v>77</v>
-      </c>
-      <c r="BL69">
-        <v>85</v>
-      </c>
-      <c r="BM69">
-        <v>33</v>
-      </c>
-      <c r="BN69">
-        <v>1</v>
-      </c>
-      <c r="BO69">
-        <v>129</v>
-      </c>
-      <c r="BP69">
-        <v>3</v>
-      </c>
-      <c r="BQ69">
-        <v>27</v>
-      </c>
-      <c r="BR69">
-        <v>69.994</v>
-      </c>
-      <c r="BS69">
-        <v>30</v>
-      </c>
-      <c r="BT69">
-        <v>2.006</v>
-      </c>
-      <c r="BU69">
-        <v>75.98999999999999</v>
-      </c>
-      <c r="BV69">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:74">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70">
-        <v>-0.231</v>
-      </c>
-      <c r="C70">
-        <v>159</v>
-      </c>
-      <c r="D70">
-        <v>-0.34</v>
-      </c>
-      <c r="E70">
-        <v>179</v>
-      </c>
-      <c r="F70">
-        <v>0.4429999999999999</v>
-      </c>
-      <c r="G70">
-        <v>7</v>
-      </c>
-      <c r="H70">
-        <v>0.08199999999999999</v>
-      </c>
-      <c r="I70">
-        <v>99</v>
-      </c>
-      <c r="J70">
-        <v>0.039</v>
-      </c>
-      <c r="K70">
-        <v>103</v>
-      </c>
-      <c r="L70">
-        <v>-0.221</v>
-      </c>
-      <c r="M70">
-        <v>149.5</v>
-      </c>
-      <c r="N70">
-        <v>0.4</v>
-      </c>
-      <c r="O70">
-        <v>31</v>
-      </c>
-      <c r="P70">
-        <v>0.281</v>
-      </c>
-      <c r="Q70">
-        <v>70</v>
-      </c>
-      <c r="R70">
-        <v>-0.231</v>
-      </c>
-      <c r="S70">
-        <v>159</v>
-      </c>
-      <c r="T70">
-        <v>-0.34</v>
-      </c>
-      <c r="U70">
-        <v>179</v>
-      </c>
-      <c r="V70">
-        <v>0.6509999999999999</v>
-      </c>
-      <c r="W70">
-        <v>37</v>
-      </c>
-      <c r="X70">
-        <v>-0.198</v>
-      </c>
-      <c r="Y70">
-        <v>128</v>
-      </c>
-      <c r="Z70">
-        <v>296</v>
-      </c>
-      <c r="AA70">
-        <v>109.5</v>
-      </c>
-      <c r="AB70">
-        <v>296.5</v>
-      </c>
-      <c r="AC70">
-        <v>94.5</v>
-      </c>
-      <c r="AD70">
-        <v>58.11</v>
-      </c>
-      <c r="AE70">
-        <v>131</v>
-      </c>
-      <c r="AF70">
-        <v>50.72</v>
-      </c>
-      <c r="AG70">
-        <v>201</v>
-      </c>
-      <c r="AH70">
-        <v>3.04</v>
-      </c>
-      <c r="AI70">
-        <v>80</v>
-      </c>
-      <c r="AJ70">
-        <v>3.07</v>
-      </c>
-      <c r="AK70">
-        <v>118</v>
-      </c>
-      <c r="AL70">
-        <v>3.99</v>
-      </c>
-      <c r="AM70">
-        <v>47</v>
-      </c>
-      <c r="AN70">
-        <v>4.12</v>
-      </c>
-      <c r="AO70">
-        <v>206</v>
-      </c>
-      <c r="AP70">
-        <v>4.54</v>
-      </c>
-      <c r="AQ70">
-        <v>19</v>
-      </c>
-      <c r="AR70">
-        <v>4.62</v>
-      </c>
-      <c r="AS70">
-        <v>89.5</v>
-      </c>
-      <c r="AT70">
-        <v>64.78</v>
-      </c>
-      <c r="AU70">
-        <v>159.5</v>
-      </c>
-      <c r="AV70">
-        <v>61.39</v>
-      </c>
-      <c r="AW70">
-        <v>208</v>
-      </c>
-      <c r="AX70">
-        <v>63.66</v>
-      </c>
-      <c r="AY70">
-        <v>20</v>
-      </c>
-      <c r="AZ70">
-        <v>56.47</v>
-      </c>
-      <c r="BA70">
-        <v>164</v>
-      </c>
-      <c r="BB70">
-        <v>58.59</v>
-      </c>
-      <c r="BC70">
-        <v>17</v>
-      </c>
-      <c r="BD70">
-        <v>50.77</v>
-      </c>
-      <c r="BE70">
-        <v>105</v>
-      </c>
-      <c r="BF70">
-        <v>1.74</v>
-      </c>
-      <c r="BG70">
-        <v>44.5</v>
-      </c>
-      <c r="BH70">
-        <v>1.76</v>
-      </c>
-      <c r="BI70">
-        <v>108.5</v>
-      </c>
-      <c r="BJ70">
-        <v>318</v>
-      </c>
-      <c r="BK70">
-        <v>167.5</v>
-      </c>
-      <c r="BL70">
-        <v>398</v>
-      </c>
-      <c r="BM70">
-        <v>208</v>
-      </c>
-      <c r="BN70">
-        <v>4</v>
-      </c>
-      <c r="BO70">
-        <v>30.5</v>
-      </c>
-      <c r="BP70">
-        <v>2.051282051282051</v>
-      </c>
-      <c r="BQ70">
-        <v>64.35897435897436</v>
-      </c>
-      <c r="BR70">
-        <v>73.10400000000001</v>
-      </c>
-      <c r="BS70">
-        <v>116.5</v>
-      </c>
-      <c r="BT70">
-        <v>-1.104000000000013</v>
-      </c>
-      <c r="BU70">
-        <v>75.66</v>
-      </c>
-      <c r="BV70">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:74">
-      <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71">
-        <v>0.172</v>
-      </c>
-      <c r="C71">
-        <v>66.5</v>
-      </c>
-      <c r="D71">
-        <v>0.169</v>
-      </c>
-      <c r="E71">
-        <v>67</v>
-      </c>
-      <c r="F71">
-        <v>0.222</v>
-      </c>
-      <c r="G71">
-        <v>39</v>
-      </c>
-      <c r="H71">
-        <v>0.358</v>
-      </c>
-      <c r="I71">
-        <v>21</v>
-      </c>
-      <c r="J71">
-        <v>0.099</v>
-      </c>
-      <c r="K71">
-        <v>91.5</v>
-      </c>
-      <c r="L71">
-        <v>-0.371</v>
-      </c>
-      <c r="M71">
-        <v>174</v>
-      </c>
-      <c r="N71">
-        <v>0.217</v>
-      </c>
-      <c r="O71">
-        <v>60.5</v>
-      </c>
-      <c r="P71">
-        <v>-0.415</v>
-      </c>
-      <c r="Q71">
-        <v>180</v>
-      </c>
-      <c r="R71">
-        <v>0.172</v>
-      </c>
-      <c r="S71">
-        <v>66.5</v>
-      </c>
-      <c r="T71">
-        <v>0.169</v>
-      </c>
-      <c r="U71">
-        <v>67</v>
-      </c>
-      <c r="V71">
-        <v>0.71</v>
-      </c>
-      <c r="W71">
-        <v>31</v>
-      </c>
-      <c r="X71">
-        <v>-0.259</v>
-      </c>
-      <c r="Y71">
-        <v>138</v>
-      </c>
-      <c r="Z71">
-        <v>294.9</v>
-      </c>
-      <c r="AA71">
-        <v>119</v>
-      </c>
-      <c r="AB71">
-        <v>301.3</v>
-      </c>
-      <c r="AC71">
-        <v>54</v>
-      </c>
-      <c r="AD71">
-        <v>64.84</v>
-      </c>
-      <c r="AE71">
-        <v>35</v>
-      </c>
-      <c r="AF71">
-        <v>59.59</v>
-      </c>
-      <c r="AG71">
-        <v>107</v>
-      </c>
-      <c r="AH71">
-        <v>2.98</v>
-      </c>
-      <c r="AI71">
-        <v>13.5</v>
-      </c>
-      <c r="AJ71">
-        <v>3.13</v>
-      </c>
-      <c r="AK71">
-        <v>183.5</v>
-      </c>
-      <c r="AL71">
-        <v>4.01</v>
-      </c>
-      <c r="AM71">
-        <v>89.5</v>
-      </c>
-      <c r="AN71">
-        <v>4.07</v>
-      </c>
-      <c r="AO71">
-        <v>175.5</v>
-      </c>
-      <c r="AP71">
-        <v>4.58</v>
-      </c>
-      <c r="AQ71">
-        <v>39.5</v>
-      </c>
-      <c r="AR71">
-        <v>4.71</v>
-      </c>
-      <c r="AS71">
-        <v>173.5</v>
-      </c>
-      <c r="AT71">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="AU71">
-        <v>112</v>
-      </c>
-      <c r="AV71">
-        <v>65.61</v>
-      </c>
-      <c r="AW71">
-        <v>140</v>
-      </c>
-      <c r="AX71">
-        <v>60.38</v>
-      </c>
-      <c r="AY71">
-        <v>68</v>
-      </c>
-      <c r="AZ71">
-        <v>51.54</v>
-      </c>
-      <c r="BA71">
-        <v>209</v>
-      </c>
-      <c r="BB71">
-        <v>47.95</v>
-      </c>
-      <c r="BC71">
-        <v>124</v>
-      </c>
-      <c r="BD71">
-        <v>40.98</v>
-      </c>
-      <c r="BE71">
-        <v>190.5</v>
-      </c>
-      <c r="BF71">
-        <v>1.738</v>
-      </c>
-      <c r="BG71">
-        <v>40</v>
-      </c>
-      <c r="BH71">
-        <v>1.76</v>
-      </c>
-      <c r="BI71">
-        <v>108.5</v>
-      </c>
-      <c r="BJ71">
-        <v>157</v>
-      </c>
-      <c r="BK71">
-        <v>73</v>
-      </c>
-      <c r="BL71">
-        <v>185</v>
-      </c>
-      <c r="BM71">
-        <v>90.5</v>
-      </c>
-      <c r="BN71">
-        <v>2</v>
-      </c>
-      <c r="BO71">
-        <v>77.5</v>
-      </c>
-      <c r="BP71">
-        <v>2.051282051282051</v>
-      </c>
-      <c r="BQ71">
-        <v>64.35897435897436</v>
-      </c>
-      <c r="BR71">
-        <v>69.9135</v>
-      </c>
-      <c r="BS71">
-        <v>45</v>
-      </c>
-      <c r="BT71">
-        <v>2.086500000000001</v>
-      </c>
-      <c r="BU71">
-        <v>73.7</v>
-      </c>
-      <c r="BV71">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:74">
-      <c r="A72" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72">
-        <v>-0.004</v>
-      </c>
-      <c r="C72">
-        <v>105.5</v>
-      </c>
-      <c r="D72">
-        <v>-0.08</v>
-      </c>
-      <c r="E72">
-        <v>135</v>
-      </c>
-      <c r="F72">
-        <v>0.13</v>
-      </c>
-      <c r="G72">
-        <v>51</v>
-      </c>
-      <c r="H72">
-        <v>0.516</v>
-      </c>
-      <c r="I72">
-        <v>8</v>
-      </c>
-      <c r="J72">
-        <v>0.262</v>
-      </c>
-      <c r="K72">
-        <v>59</v>
-      </c>
-      <c r="L72">
-        <v>-0.512</v>
-      </c>
-      <c r="M72">
-        <v>187</v>
-      </c>
-      <c r="N72">
-        <v>0.185</v>
-      </c>
-      <c r="O72">
-        <v>66</v>
-      </c>
-      <c r="P72">
-        <v>0.216</v>
-      </c>
-      <c r="Q72">
-        <v>80.5</v>
-      </c>
-      <c r="R72">
-        <v>-0.004</v>
-      </c>
-      <c r="S72">
-        <v>105.5</v>
-      </c>
-      <c r="T72">
-        <v>-0.08</v>
-      </c>
-      <c r="U72">
-        <v>135</v>
-      </c>
-      <c r="V72">
-        <v>0.573</v>
-      </c>
-      <c r="W72">
-        <v>43</v>
-      </c>
-      <c r="X72">
-        <v>0.139</v>
-      </c>
-      <c r="Y72">
-        <v>91</v>
-      </c>
-      <c r="Z72">
-        <v>294</v>
-      </c>
-      <c r="AA72">
-        <v>127.5</v>
-      </c>
-      <c r="AB72">
-        <v>294</v>
-      </c>
-      <c r="AC72">
-        <v>120.5</v>
-      </c>
-      <c r="AD72">
-        <v>64.53</v>
-      </c>
-      <c r="AE72">
-        <v>40</v>
-      </c>
-      <c r="AF72">
-        <v>62.25</v>
-      </c>
-      <c r="AG72">
-        <v>76</v>
-      </c>
-      <c r="AH72">
-        <v>3.03</v>
-      </c>
-      <c r="AI72">
-        <v>62.5</v>
-      </c>
-      <c r="AJ72">
-        <v>3.03</v>
-      </c>
-      <c r="AK72">
-        <v>66.5</v>
-      </c>
-      <c r="AL72">
-        <v>4</v>
-      </c>
-      <c r="AM72">
-        <v>64</v>
-      </c>
-      <c r="AN72">
-        <v>4.05</v>
-      </c>
-      <c r="AO72">
-        <v>152.5</v>
-      </c>
-      <c r="AP72">
-        <v>4.67</v>
-      </c>
-      <c r="AQ72">
-        <v>134</v>
-      </c>
-      <c r="AR72">
-        <v>4.71</v>
-      </c>
-      <c r="AS72">
-        <v>173.5</v>
-      </c>
-      <c r="AT72">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="AU72">
-        <v>61</v>
-      </c>
-      <c r="AV72">
-        <v>62.75</v>
-      </c>
-      <c r="AW72">
-        <v>203</v>
-      </c>
-      <c r="AX72">
-        <v>58.49</v>
-      </c>
-      <c r="AY72">
-        <v>105</v>
-      </c>
-      <c r="AZ72">
-        <v>60.68</v>
-      </c>
-      <c r="BA72">
-        <v>77</v>
-      </c>
-      <c r="BB72">
-        <v>65.05</v>
-      </c>
-      <c r="BC72">
-        <v>3</v>
-      </c>
-      <c r="BD72">
-        <v>54.84</v>
-      </c>
-      <c r="BE72">
-        <v>61.5</v>
-      </c>
-      <c r="BF72">
-        <v>1.755</v>
-      </c>
-      <c r="BG72">
-        <v>74.5</v>
-      </c>
-      <c r="BH72">
-        <v>1.759</v>
-      </c>
-      <c r="BI72">
-        <v>104</v>
-      </c>
-      <c r="BJ72">
-        <v>122</v>
-      </c>
-      <c r="BK72">
-        <v>52</v>
-      </c>
-      <c r="BL72">
-        <v>286</v>
-      </c>
-      <c r="BM72">
-        <v>149</v>
-      </c>
-      <c r="BN72">
-        <v>3</v>
-      </c>
-      <c r="BO72">
-        <v>48</v>
-      </c>
-      <c r="BP72">
-        <v>2.051282051282051</v>
-      </c>
-      <c r="BQ72">
-        <v>64.35897435897436</v>
-      </c>
-      <c r="BR72">
-        <v>71.60699999999999</v>
-      </c>
-      <c r="BS72">
-        <v>69.5</v>
-      </c>
-      <c r="BT72">
-        <v>0.3930000000000149</v>
-      </c>
-      <c r="BU72">
-        <v>72.7</v>
-      </c>
-      <c r="BV72">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:74">
-      <c r="A73" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73">
-        <v>0.125</v>
-      </c>
-      <c r="C73">
-        <v>77</v>
-      </c>
-      <c r="D73">
-        <v>0.379</v>
-      </c>
-      <c r="E73">
-        <v>32</v>
-      </c>
-      <c r="F73">
-        <v>-0.204</v>
-      </c>
-      <c r="G73">
-        <v>158</v>
-      </c>
-      <c r="H73">
-        <v>-0.224</v>
-      </c>
-      <c r="I73">
-        <v>178.5</v>
-      </c>
-      <c r="J73">
-        <v>0.364</v>
-      </c>
-      <c r="K73">
-        <v>39</v>
-      </c>
-      <c r="L73">
-        <v>0.525</v>
-      </c>
-      <c r="M73">
-        <v>28</v>
-      </c>
-      <c r="N73">
-        <v>-0.004</v>
-      </c>
-      <c r="O73">
-        <v>107.5</v>
-      </c>
-      <c r="P73">
-        <v>-0.403</v>
-      </c>
-      <c r="Q73">
-        <v>179</v>
-      </c>
-      <c r="R73">
-        <v>0.125</v>
-      </c>
-      <c r="S73">
-        <v>77</v>
-      </c>
-      <c r="T73">
-        <v>0.379</v>
-      </c>
-      <c r="U73">
-        <v>32</v>
-      </c>
-      <c r="V73">
-        <v>0.281</v>
-      </c>
-      <c r="W73">
-        <v>79</v>
-      </c>
-      <c r="X73">
-        <v>0.277</v>
-      </c>
-      <c r="Y73">
-        <v>86.5</v>
-      </c>
-      <c r="Z73">
-        <v>292.1</v>
-      </c>
-      <c r="AA73">
-        <v>141</v>
-      </c>
-      <c r="AB73">
-        <v>298.2</v>
-      </c>
-      <c r="AC73">
-        <v>75</v>
-      </c>
-      <c r="AD73">
-        <v>69.56999999999999</v>
-      </c>
-      <c r="AE73">
-        <v>8</v>
-      </c>
-      <c r="AF73">
-        <v>65.64</v>
-      </c>
-      <c r="AG73">
-        <v>39.5</v>
-      </c>
-      <c r="AH73">
-        <v>3.09</v>
-      </c>
-      <c r="AI73">
-        <v>156.5</v>
-      </c>
-      <c r="AJ73">
-        <v>3.1</v>
-      </c>
-      <c r="AK73">
-        <v>156.5</v>
-      </c>
-      <c r="AL73">
-        <v>3.98</v>
-      </c>
-      <c r="AM73">
-        <v>30.5</v>
-      </c>
-      <c r="AN73">
-        <v>4</v>
-      </c>
-      <c r="AO73">
-        <v>76.5</v>
-      </c>
-      <c r="AP73">
-        <v>4.61</v>
-      </c>
-      <c r="AQ73">
-        <v>66.5</v>
-      </c>
-      <c r="AR73">
-        <v>4.67</v>
-      </c>
-      <c r="AS73">
-        <v>144</v>
-      </c>
-      <c r="AT73">
-        <v>70.65000000000001</v>
-      </c>
-      <c r="AU73">
-        <v>13</v>
-      </c>
-      <c r="AV73">
-        <v>71.59</v>
-      </c>
-      <c r="AW73">
-        <v>14</v>
-      </c>
-      <c r="AX73">
-        <v>56.78</v>
-      </c>
-      <c r="AY73">
-        <v>147</v>
-      </c>
-      <c r="AZ73">
-        <v>59.11</v>
-      </c>
-      <c r="BA73">
-        <v>107</v>
-      </c>
-      <c r="BB73">
-        <v>43.97</v>
-      </c>
-      <c r="BC73">
-        <v>157.5</v>
-      </c>
-      <c r="BD73">
-        <v>37.88</v>
-      </c>
-      <c r="BE73">
-        <v>205</v>
-      </c>
-      <c r="BF73">
-        <v>1.765</v>
-      </c>
-      <c r="BG73">
-        <v>104.5</v>
-      </c>
-      <c r="BH73">
-        <v>1.815</v>
-      </c>
-      <c r="BI73">
-        <v>201</v>
-      </c>
-      <c r="BJ73">
-        <v>54</v>
-      </c>
-      <c r="BK73">
-        <v>17.5</v>
-      </c>
-      <c r="BL73">
-        <v>23</v>
-      </c>
-      <c r="BM73">
-        <v>6</v>
-      </c>
-      <c r="BN73">
-        <v>3</v>
-      </c>
-      <c r="BO73">
-        <v>48</v>
-      </c>
-      <c r="BP73">
-        <v>2</v>
-      </c>
-      <c r="BQ73">
-        <v>52.5</v>
-      </c>
-      <c r="BR73">
-        <v>71.37</v>
-      </c>
-      <c r="BS73">
-        <v>118.5</v>
-      </c>
-      <c r="BT73">
-        <v>0.6299999999999955</v>
-      </c>
-      <c r="BU73">
-        <v>72.68000000000001</v>
-      </c>
-      <c r="BV73">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:74">
-      <c r="A74" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74">
-        <v>-0.125</v>
-      </c>
-      <c r="C74">
-        <v>141</v>
-      </c>
-      <c r="D74">
-        <v>0.231</v>
-      </c>
-      <c r="E74">
-        <v>55</v>
-      </c>
-      <c r="F74">
-        <v>0.195</v>
-      </c>
-      <c r="G74">
-        <v>40</v>
-      </c>
-      <c r="H74">
-        <v>-0.014</v>
-      </c>
-      <c r="I74">
-        <v>126.5</v>
-      </c>
-      <c r="J74">
-        <v>0.632</v>
-      </c>
-      <c r="K74">
-        <v>8</v>
-      </c>
-      <c r="L74">
-        <v>0.408</v>
-      </c>
-      <c r="M74">
-        <v>44</v>
-      </c>
-      <c r="N74">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="O74">
-        <v>87</v>
-      </c>
-      <c r="P74">
-        <v>0.396</v>
-      </c>
-      <c r="Q74">
-        <v>49</v>
-      </c>
-      <c r="R74">
-        <v>-0.125</v>
-      </c>
-      <c r="S74">
-        <v>141</v>
-      </c>
-      <c r="T74">
-        <v>0.231</v>
-      </c>
-      <c r="U74">
-        <v>55</v>
-      </c>
-      <c r="V74">
-        <v>0.7879999999999999</v>
-      </c>
-      <c r="W74">
-        <v>24</v>
-      </c>
-      <c r="X74">
-        <v>1.02</v>
-      </c>
-      <c r="Y74">
-        <v>30</v>
-      </c>
-      <c r="Z74">
-        <v>301.9</v>
-      </c>
-      <c r="AA74">
-        <v>50</v>
-      </c>
-      <c r="AB74">
-        <v>299.1</v>
-      </c>
-      <c r="AC74">
-        <v>69</v>
-      </c>
-      <c r="AD74">
-        <v>54.03</v>
-      </c>
-      <c r="AE74">
-        <v>172.5</v>
-      </c>
-      <c r="AF74">
-        <v>60.47</v>
-      </c>
-      <c r="AG74">
-        <v>97</v>
-      </c>
-      <c r="AH74">
-        <v>3.04</v>
-      </c>
-      <c r="AI74">
-        <v>80</v>
-      </c>
-      <c r="AJ74">
-        <v>2.99</v>
-      </c>
-      <c r="AK74">
-        <v>24</v>
-      </c>
-      <c r="AL74">
-        <v>3.97</v>
-      </c>
-      <c r="AM74">
-        <v>17</v>
-      </c>
-      <c r="AN74">
-        <v>3.99</v>
-      </c>
-      <c r="AO74">
-        <v>56</v>
-      </c>
-      <c r="AP74">
-        <v>4.62</v>
-      </c>
-      <c r="AQ74">
-        <v>79</v>
-      </c>
-      <c r="AR74">
-        <v>4.56</v>
-      </c>
-      <c r="AS74">
-        <v>43.5</v>
-      </c>
-      <c r="AT74">
-        <v>69.66</v>
-      </c>
-      <c r="AU74">
-        <v>28</v>
-      </c>
-      <c r="AV74">
-        <v>70.05</v>
-      </c>
-      <c r="AW74">
-        <v>35</v>
-      </c>
-      <c r="AX74">
-        <v>64.23999999999999</v>
-      </c>
-      <c r="AY74">
-        <v>14</v>
-      </c>
-      <c r="AZ74">
-        <v>60.89</v>
-      </c>
-      <c r="BA74">
-        <v>73</v>
-      </c>
-      <c r="BB74">
-        <v>50</v>
-      </c>
-      <c r="BC74">
-        <v>89.5</v>
-      </c>
-      <c r="BD74">
-        <v>57.89</v>
-      </c>
-      <c r="BE74">
-        <v>31.5</v>
-      </c>
-      <c r="BF74">
-        <v>1.776</v>
-      </c>
-      <c r="BG74">
-        <v>138</v>
-      </c>
-      <c r="BH74">
-        <v>1.731</v>
-      </c>
-      <c r="BI74">
-        <v>41.5</v>
-      </c>
-      <c r="BJ74">
-        <v>162</v>
-      </c>
-      <c r="BK74">
-        <v>76</v>
-      </c>
-      <c r="BL74">
-        <v>82</v>
-      </c>
-      <c r="BM74">
-        <v>29.5</v>
-      </c>
-      <c r="BN74">
-        <v>1</v>
-      </c>
-      <c r="BO74">
-        <v>129</v>
-      </c>
-      <c r="BP74">
-        <v>2</v>
-      </c>
-      <c r="BQ74">
-        <v>52.5</v>
-      </c>
-      <c r="BR74">
-        <v>70.389</v>
-      </c>
-      <c r="BS74">
-        <v>48</v>
-      </c>
-      <c r="BT74">
-        <v>1.611000000000004</v>
-      </c>
-      <c r="BU74">
-        <v>72.48</v>
-      </c>
-      <c r="BV74">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:74">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75">
-        <v>-0.13</v>
-      </c>
-      <c r="C75">
-        <v>142</v>
-      </c>
-      <c r="D75">
-        <v>-0.265</v>
-      </c>
-      <c r="E75">
-        <v>165</v>
-      </c>
-      <c r="F75">
-        <v>0.091</v>
-      </c>
-      <c r="G75">
-        <v>71.5</v>
-      </c>
-      <c r="H75">
-        <v>0.115</v>
-      </c>
-      <c r="I75">
-        <v>84</v>
-      </c>
-      <c r="J75">
-        <v>0.038</v>
-      </c>
-      <c r="K75">
-        <v>104</v>
-      </c>
-      <c r="L75">
-        <v>-0.15</v>
-      </c>
-      <c r="M75">
-        <v>138</v>
-      </c>
-      <c r="N75">
-        <v>0.485</v>
-      </c>
-      <c r="O75">
-        <v>21</v>
-      </c>
-      <c r="P75">
-        <v>0.061</v>
-      </c>
-      <c r="Q75">
-        <v>105</v>
-      </c>
-      <c r="R75">
-        <v>-0.13</v>
-      </c>
-      <c r="S75">
-        <v>142</v>
-      </c>
-      <c r="T75">
-        <v>-0.265</v>
-      </c>
-      <c r="U75">
-        <v>165</v>
-      </c>
-      <c r="V75">
-        <v>0.484</v>
-      </c>
-      <c r="W75">
-        <v>51</v>
-      </c>
-      <c r="X75">
-        <v>-0.24</v>
-      </c>
-      <c r="Y75">
-        <v>135</v>
-      </c>
-      <c r="Z75">
-        <v>298.1</v>
-      </c>
-      <c r="AA75">
-        <v>87.5</v>
-      </c>
-      <c r="AB75">
-        <v>294.7</v>
-      </c>
-      <c r="AC75">
-        <v>110</v>
-      </c>
-      <c r="AD75">
-        <v>57.98</v>
-      </c>
-      <c r="AE75">
-        <v>134</v>
-      </c>
-      <c r="AF75">
-        <v>59.78</v>
-      </c>
-      <c r="AG75">
-        <v>104</v>
-      </c>
-      <c r="AH75">
-        <v>2.93</v>
-      </c>
-      <c r="AI75">
-        <v>1</v>
-      </c>
-      <c r="AJ75">
-        <v>3.1</v>
-      </c>
-      <c r="AK75">
-        <v>156.5</v>
-      </c>
-      <c r="AL75">
-        <v>4.02</v>
-      </c>
-      <c r="AM75">
-        <v>112.5</v>
-      </c>
-      <c r="AN75">
-        <v>4.04</v>
-      </c>
-      <c r="AO75">
-        <v>141</v>
-      </c>
-      <c r="AP75">
-        <v>4.69</v>
-      </c>
-      <c r="AQ75">
-        <v>152</v>
-      </c>
-      <c r="AR75">
-        <v>4.57</v>
-      </c>
-      <c r="AS75">
-        <v>50.5</v>
-      </c>
-      <c r="AT75">
-        <v>66.67</v>
-      </c>
-      <c r="AU75">
-        <v>109.5</v>
-      </c>
-      <c r="AV75">
-        <v>63.65</v>
-      </c>
-      <c r="AW75">
-        <v>187</v>
-      </c>
-      <c r="AX75">
-        <v>59.52</v>
-      </c>
-      <c r="AY75">
-        <v>83</v>
-      </c>
-      <c r="AZ75">
-        <v>60.13</v>
-      </c>
-      <c r="BA75">
-        <v>86</v>
-      </c>
-      <c r="BB75">
-        <v>50.94</v>
-      </c>
-      <c r="BC75">
-        <v>75</v>
-      </c>
-      <c r="BD75">
-        <v>46.34</v>
-      </c>
-      <c r="BE75">
-        <v>146</v>
-      </c>
-      <c r="BF75">
-        <v>1.729</v>
-      </c>
-      <c r="BG75">
-        <v>22</v>
-      </c>
-      <c r="BH75">
-        <v>1.751</v>
-      </c>
-      <c r="BI75">
-        <v>85.5</v>
-      </c>
-      <c r="BJ75">
-        <v>242</v>
-      </c>
-      <c r="BK75">
-        <v>131</v>
-      </c>
-      <c r="BL75">
-        <v>296</v>
-      </c>
-      <c r="BM75">
-        <v>155</v>
-      </c>
-      <c r="BN75">
-        <v>3</v>
-      </c>
-      <c r="BO75">
-        <v>48</v>
-      </c>
-      <c r="BP75">
-        <v>1</v>
-      </c>
-      <c r="BQ75">
-        <v>101</v>
-      </c>
-      <c r="BR75">
-        <v>72.54899999999999</v>
-      </c>
-      <c r="BS75">
-        <v>196</v>
-      </c>
-      <c r="BT75">
-        <v>-0.5489999999999924</v>
-      </c>
-      <c r="BU75">
-        <v>72.41</v>
-      </c>
-      <c r="BV75">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:74">
-      <c r="A76" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76">
-        <v>-0.096</v>
-      </c>
-      <c r="C76">
-        <v>132</v>
-      </c>
-      <c r="D76">
-        <v>-0.527</v>
-      </c>
-      <c r="E76">
-        <v>199.5</v>
-      </c>
-      <c r="F76">
-        <v>-0.328</v>
-      </c>
-      <c r="G76">
-        <v>182</v>
-      </c>
-      <c r="H76">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="I76">
-        <v>144.5</v>
-      </c>
-      <c r="J76">
-        <v>-0.166</v>
-      </c>
-      <c r="K76">
-        <v>135</v>
-      </c>
-      <c r="L76">
-        <v>-0.364</v>
-      </c>
-      <c r="M76">
-        <v>172</v>
-      </c>
-      <c r="N76">
-        <v>0.067</v>
-      </c>
-      <c r="O76">
-        <v>90</v>
-      </c>
-      <c r="P76">
-        <v>0.435</v>
-      </c>
-      <c r="Q76">
-        <v>42.5</v>
-      </c>
-      <c r="R76">
-        <v>-0.096</v>
-      </c>
-      <c r="S76">
-        <v>132</v>
-      </c>
-      <c r="T76">
-        <v>-0.527</v>
-      </c>
-      <c r="U76">
-        <v>199.5</v>
-      </c>
-      <c r="V76">
-        <v>-0.524</v>
-      </c>
-      <c r="W76">
-        <v>156</v>
-      </c>
-      <c r="X76">
-        <v>-0.525</v>
-      </c>
-      <c r="Y76">
-        <v>161</v>
-      </c>
-      <c r="Z76">
-        <v>293.7</v>
-      </c>
-      <c r="AA76">
-        <v>134</v>
-      </c>
-      <c r="AB76">
-        <v>284.7</v>
-      </c>
-      <c r="AC76">
-        <v>195</v>
-      </c>
-      <c r="AD76">
-        <v>62.55</v>
-      </c>
-      <c r="AE76">
-        <v>66</v>
-      </c>
-      <c r="AF76">
-        <v>64.76000000000001</v>
-      </c>
-      <c r="AG76">
-        <v>51</v>
-      </c>
-      <c r="AH76">
-        <v>3.04</v>
-      </c>
-      <c r="AI76">
-        <v>80</v>
-      </c>
-      <c r="AJ76">
-        <v>3.12</v>
-      </c>
-      <c r="AK76">
-        <v>175</v>
-      </c>
-      <c r="AL76">
-        <v>4.04</v>
-      </c>
-      <c r="AM76">
-        <v>145</v>
-      </c>
-      <c r="AN76">
-        <v>4.1</v>
-      </c>
-      <c r="AO76">
-        <v>200</v>
-      </c>
-      <c r="AP76">
-        <v>4.73</v>
-      </c>
-      <c r="AQ76">
-        <v>175</v>
-      </c>
-      <c r="AR76">
-        <v>4.68</v>
-      </c>
-      <c r="AS76">
-        <v>153.5</v>
-      </c>
-      <c r="AT76">
-        <v>63.84</v>
-      </c>
-      <c r="AU76">
-        <v>173</v>
-      </c>
-      <c r="AV76">
-        <v>63.33</v>
-      </c>
-      <c r="AW76">
-        <v>190</v>
-      </c>
-      <c r="AX76">
-        <v>57.97</v>
-      </c>
-      <c r="AY76">
-        <v>118</v>
-      </c>
-      <c r="AZ76">
-        <v>52.53</v>
-      </c>
-      <c r="BA76">
-        <v>200</v>
-      </c>
-      <c r="BB76">
-        <v>37.93</v>
-      </c>
-      <c r="BC76">
-        <v>183</v>
-      </c>
-      <c r="BD76">
-        <v>53.06</v>
-      </c>
-      <c r="BE76">
-        <v>82.5</v>
-      </c>
-      <c r="BF76">
-        <v>1.759</v>
-      </c>
-      <c r="BG76">
-        <v>87</v>
-      </c>
-      <c r="BH76">
-        <v>1.772</v>
-      </c>
-      <c r="BI76">
-        <v>136</v>
-      </c>
-      <c r="BJ76">
-        <v>281</v>
-      </c>
-      <c r="BK76">
-        <v>153</v>
-      </c>
-      <c r="BL76">
-        <v>345</v>
-      </c>
-      <c r="BM76">
-        <v>186</v>
-      </c>
-      <c r="BN76">
-        <v>2.696551724137931</v>
-      </c>
-      <c r="BO76">
-        <v>78.06206896551724</v>
-      </c>
-      <c r="BP76">
-        <v>2.051282051282051</v>
-      </c>
-      <c r="BQ76">
-        <v>64.35897435897436</v>
-      </c>
-      <c r="BR76">
-        <v>71.783</v>
-      </c>
-      <c r="BS76">
-        <v>67.16666666666667</v>
-      </c>
-      <c r="BT76">
-        <v>0.2169999999999987</v>
-      </c>
-      <c r="BU76">
-        <v>72.22</v>
-      </c>
-      <c r="BV76">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:74">
-      <c r="A77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77">
-        <v>0.062</v>
-      </c>
-      <c r="C77">
-        <v>90</v>
-      </c>
-      <c r="D77">
-        <v>-0.151</v>
-      </c>
-      <c r="E77">
-        <v>146.5</v>
-      </c>
-      <c r="F77">
-        <v>-0.095</v>
-      </c>
-      <c r="G77">
-        <v>129.5</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>120</v>
-      </c>
-      <c r="J77">
-        <v>0.389</v>
-      </c>
-      <c r="K77">
-        <v>35</v>
-      </c>
-      <c r="L77">
-        <v>0.4320000000000001</v>
-      </c>
-      <c r="M77">
-        <v>38</v>
-      </c>
-      <c r="N77">
-        <v>0.046</v>
-      </c>
-      <c r="O77">
-        <v>97</v>
-      </c>
-      <c r="P77">
-        <v>0.237</v>
-      </c>
-      <c r="Q77">
-        <v>76</v>
-      </c>
-      <c r="R77">
-        <v>0.062</v>
-      </c>
-      <c r="S77">
-        <v>90</v>
-      </c>
-      <c r="T77">
-        <v>-0.151</v>
-      </c>
-      <c r="U77">
-        <v>146.5</v>
-      </c>
-      <c r="V77">
-        <v>0.401</v>
-      </c>
-      <c r="W77">
-        <v>61</v>
-      </c>
-      <c r="X77">
-        <v>0.517</v>
-      </c>
-      <c r="Y77">
-        <v>69</v>
-      </c>
-      <c r="Z77">
-        <v>290.4</v>
-      </c>
-      <c r="AA77">
-        <v>151</v>
-      </c>
-      <c r="AB77">
-        <v>288.4</v>
-      </c>
-      <c r="AC77">
-        <v>172.5</v>
-      </c>
-      <c r="AD77">
-        <v>60.58</v>
-      </c>
-      <c r="AE77">
-        <v>94</v>
-      </c>
-      <c r="AF77">
-        <v>61.38</v>
-      </c>
-      <c r="AG77">
-        <v>83</v>
-      </c>
-      <c r="AH77">
-        <v>3.06</v>
-      </c>
-      <c r="AI77">
-        <v>116.5</v>
-      </c>
-      <c r="AJ77">
-        <v>3.05</v>
-      </c>
-      <c r="AK77">
-        <v>89</v>
-      </c>
-      <c r="AL77">
-        <v>3.99</v>
-      </c>
-      <c r="AM77">
-        <v>47</v>
-      </c>
-      <c r="AN77">
-        <v>3.98</v>
-      </c>
-      <c r="AO77">
-        <v>39</v>
-      </c>
-      <c r="AP77">
-        <v>4.72</v>
-      </c>
-      <c r="AQ77">
-        <v>168.5</v>
-      </c>
-      <c r="AR77">
-        <v>4.59</v>
-      </c>
-      <c r="AS77">
-        <v>64.5</v>
-      </c>
-      <c r="AT77">
-        <v>65.62</v>
-      </c>
-      <c r="AU77">
-        <v>132.5</v>
-      </c>
-      <c r="AV77">
-        <v>64.78</v>
-      </c>
-      <c r="AW77">
-        <v>161</v>
-      </c>
-      <c r="AX77">
-        <v>60.48</v>
-      </c>
-      <c r="AY77">
-        <v>66</v>
-      </c>
-      <c r="AZ77">
-        <v>61.2</v>
-      </c>
-      <c r="BA77">
-        <v>65</v>
-      </c>
-      <c r="BB77">
-        <v>43.33</v>
-      </c>
-      <c r="BC77">
-        <v>164</v>
-      </c>
-      <c r="BD77">
-        <v>42.86</v>
-      </c>
-      <c r="BE77">
-        <v>178.5</v>
-      </c>
-      <c r="BF77">
-        <v>1.768</v>
-      </c>
-      <c r="BG77">
-        <v>115.5</v>
-      </c>
-      <c r="BH77">
-        <v>1.7</v>
-      </c>
-      <c r="BI77">
-        <v>7.5</v>
-      </c>
-      <c r="BJ77">
-        <v>298</v>
-      </c>
-      <c r="BK77">
-        <v>158</v>
-      </c>
-      <c r="BL77">
-        <v>320</v>
-      </c>
-      <c r="BM77">
-        <v>174</v>
-      </c>
-      <c r="BN77">
-        <v>3</v>
-      </c>
-      <c r="BO77">
-        <v>48</v>
-      </c>
-      <c r="BP77">
-        <v>1</v>
-      </c>
-      <c r="BQ77">
-        <v>101</v>
-      </c>
-      <c r="BR77">
-        <v>70.98399999999999</v>
-      </c>
-      <c r="BS77">
-        <v>87</v>
-      </c>
-      <c r="BT77">
-        <v>1.016000000000005</v>
-      </c>
-      <c r="BU77">
-        <v>71.53</v>
-      </c>
-      <c r="BV77">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:74">
-      <c r="A78" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78">
-        <v>-0.187</v>
-      </c>
-      <c r="C78">
-        <v>153</v>
-      </c>
-      <c r="D78">
-        <v>-0.289</v>
-      </c>
-      <c r="E78">
-        <v>171</v>
-      </c>
-      <c r="F78">
-        <v>-0.04</v>
-      </c>
-      <c r="G78">
-        <v>109.5</v>
-      </c>
-      <c r="H78">
-        <v>0.013</v>
-      </c>
-      <c r="I78">
-        <v>119</v>
-      </c>
-      <c r="J78">
-        <v>-0.127</v>
-      </c>
-      <c r="K78">
-        <v>127</v>
-      </c>
-      <c r="L78">
-        <v>-0.004</v>
-      </c>
-      <c r="M78">
-        <v>112.5</v>
-      </c>
-      <c r="N78">
-        <v>0.181</v>
-      </c>
-      <c r="O78">
-        <v>67</v>
-      </c>
-      <c r="P78">
-        <v>0.08</v>
-      </c>
-      <c r="Q78">
-        <v>102</v>
-      </c>
-      <c r="R78">
-        <v>-0.187</v>
-      </c>
-      <c r="S78">
-        <v>153</v>
-      </c>
-      <c r="T78">
-        <v>-0.289</v>
-      </c>
-      <c r="U78">
-        <v>171</v>
-      </c>
-      <c r="V78">
-        <v>-0.173</v>
-      </c>
-      <c r="W78">
-        <v>131</v>
-      </c>
-      <c r="X78">
-        <v>-0.201</v>
-      </c>
-      <c r="Y78">
-        <v>130</v>
-      </c>
-      <c r="Z78">
-        <v>288.4</v>
-      </c>
-      <c r="AA78">
-        <v>165</v>
-      </c>
-      <c r="AB78">
-        <v>288</v>
-      </c>
-      <c r="AC78">
-        <v>174.5</v>
-      </c>
-      <c r="AD78">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="AE78">
-        <v>32</v>
-      </c>
-      <c r="AF78">
-        <v>67.45</v>
-      </c>
-      <c r="AG78">
-        <v>23</v>
-      </c>
-      <c r="AH78">
-        <v>3.02</v>
-      </c>
-      <c r="AI78">
-        <v>51</v>
-      </c>
-      <c r="AJ78">
-        <v>3.02</v>
-      </c>
-      <c r="AK78">
-        <v>53</v>
-      </c>
-      <c r="AL78">
-        <v>4.06</v>
-      </c>
-      <c r="AM78">
-        <v>168.5</v>
-      </c>
-      <c r="AN78">
-        <v>4.05</v>
-      </c>
-      <c r="AO78">
-        <v>152.5</v>
-      </c>
-      <c r="AP78">
-        <v>4.61</v>
-      </c>
-      <c r="AQ78">
-        <v>66.5</v>
-      </c>
-      <c r="AR78">
-        <v>4.66</v>
-      </c>
-      <c r="AS78">
-        <v>132</v>
-      </c>
-      <c r="AT78">
-        <v>64.95999999999999</v>
-      </c>
-      <c r="AU78">
-        <v>154</v>
-      </c>
-      <c r="AV78">
-        <v>65.83</v>
-      </c>
-      <c r="AW78">
-        <v>130</v>
-      </c>
-      <c r="AX78">
-        <v>60.87</v>
-      </c>
-      <c r="AY78">
-        <v>52.5</v>
-      </c>
-      <c r="AZ78">
-        <v>57.32</v>
-      </c>
-      <c r="BA78">
-        <v>146</v>
-      </c>
-      <c r="BB78">
-        <v>57.14</v>
-      </c>
-      <c r="BC78">
-        <v>27</v>
-      </c>
-      <c r="BD78">
-        <v>43.4</v>
-      </c>
-      <c r="BE78">
-        <v>175</v>
-      </c>
-      <c r="BF78">
-        <v>1.772</v>
-      </c>
-      <c r="BG78">
-        <v>129.5</v>
-      </c>
-      <c r="BH78">
-        <v>1.753</v>
-      </c>
-      <c r="BI78">
-        <v>90</v>
-      </c>
-      <c r="BJ78">
-        <v>257</v>
-      </c>
-      <c r="BK78">
-        <v>142</v>
-      </c>
-      <c r="BL78">
-        <v>217</v>
-      </c>
-      <c r="BM78">
-        <v>105</v>
-      </c>
-      <c r="BN78">
-        <v>2</v>
-      </c>
-      <c r="BO78">
-        <v>77.5</v>
-      </c>
-      <c r="BP78">
-        <v>1</v>
-      </c>
-      <c r="BQ78">
-        <v>101</v>
-      </c>
-      <c r="BR78">
-        <v>72.105</v>
-      </c>
-      <c r="BS78">
-        <v>178</v>
-      </c>
-      <c r="BT78">
-        <v>-0.105000000000004</v>
-      </c>
-      <c r="BU78">
-        <v>71.09</v>
-      </c>
-      <c r="BV78">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:74">
-      <c r="A79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79">
-        <v>-0.032</v>
-      </c>
-      <c r="C79">
-        <v>111</v>
-      </c>
-      <c r="D79">
-        <v>0.337</v>
-      </c>
-      <c r="E79">
-        <v>37</v>
-      </c>
-      <c r="F79">
-        <v>-0.034</v>
-      </c>
-      <c r="G79">
-        <v>106</v>
-      </c>
-      <c r="H79">
-        <v>-0.149</v>
-      </c>
-      <c r="I79">
-        <v>166</v>
-      </c>
-      <c r="J79">
-        <v>0.28</v>
-      </c>
-      <c r="K79">
-        <v>55</v>
-      </c>
-      <c r="L79">
-        <v>0.611</v>
-      </c>
-      <c r="M79">
-        <v>24</v>
-      </c>
-      <c r="N79">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="O79">
-        <v>88</v>
-      </c>
-      <c r="P79">
-        <v>0.312</v>
-      </c>
-      <c r="Q79">
-        <v>62</v>
-      </c>
-      <c r="R79">
-        <v>-0.032</v>
-      </c>
-      <c r="S79">
-        <v>111</v>
-      </c>
-      <c r="T79">
-        <v>0.337</v>
-      </c>
-      <c r="U79">
-        <v>37</v>
-      </c>
-      <c r="V79">
-        <v>0.3</v>
-      </c>
-      <c r="W79">
-        <v>77</v>
-      </c>
-      <c r="X79">
-        <v>1.11</v>
-      </c>
-      <c r="Y79">
-        <v>27</v>
-      </c>
-      <c r="Z79">
-        <v>296.5</v>
-      </c>
-      <c r="AA79">
-        <v>104</v>
-      </c>
-      <c r="AB79">
-        <v>305.9</v>
-      </c>
-      <c r="AC79">
-        <v>23</v>
-      </c>
-      <c r="AD79">
-        <v>56.85</v>
-      </c>
-      <c r="AE79">
-        <v>150</v>
-      </c>
-      <c r="AF79">
-        <v>53.12</v>
-      </c>
-      <c r="AG79">
-        <v>186</v>
-      </c>
-      <c r="AH79">
-        <v>3.05</v>
-      </c>
-      <c r="AI79">
-        <v>97.5</v>
-      </c>
-      <c r="AJ79">
-        <v>2.94</v>
-      </c>
-      <c r="AK79">
-        <v>4.5</v>
-      </c>
-      <c r="AL79">
-        <v>4.03</v>
-      </c>
-      <c r="AM79">
-        <v>128</v>
-      </c>
-      <c r="AN79">
-        <v>4</v>
-      </c>
-      <c r="AO79">
-        <v>76.5</v>
-      </c>
-      <c r="AP79">
-        <v>4.56</v>
-      </c>
-      <c r="AQ79">
-        <v>29.5</v>
-      </c>
-      <c r="AR79">
-        <v>4.64</v>
-      </c>
-      <c r="AS79">
-        <v>113.5</v>
-      </c>
-      <c r="AT79">
-        <v>68.36</v>
-      </c>
-      <c r="AU79">
-        <v>58</v>
-      </c>
-      <c r="AV79">
-        <v>70.02</v>
-      </c>
-      <c r="AW79">
-        <v>36</v>
-      </c>
-      <c r="AX79">
-        <v>55.36</v>
-      </c>
-      <c r="AY79">
-        <v>168</v>
-      </c>
-      <c r="AZ79">
-        <v>61.19</v>
-      </c>
-      <c r="BA79">
-        <v>66</v>
-      </c>
-      <c r="BB79">
-        <v>53.4</v>
-      </c>
-      <c r="BC79">
-        <v>54.5</v>
-      </c>
-      <c r="BD79">
-        <v>42.86</v>
-      </c>
-      <c r="BE79">
-        <v>178.5</v>
-      </c>
-      <c r="BF79">
-        <v>1.726</v>
-      </c>
-      <c r="BG79">
-        <v>17</v>
-      </c>
-      <c r="BH79">
-        <v>1.747</v>
-      </c>
-      <c r="BI79">
-        <v>77.5</v>
-      </c>
-      <c r="BJ79">
-        <v>226</v>
-      </c>
-      <c r="BK79">
-        <v>120.5</v>
-      </c>
-      <c r="BL79">
-        <v>138</v>
-      </c>
-      <c r="BM79">
-        <v>56.5</v>
-      </c>
-      <c r="BN79">
-        <v>2</v>
-      </c>
-      <c r="BO79">
-        <v>77.5</v>
-      </c>
-      <c r="BP79">
-        <v>3</v>
-      </c>
-      <c r="BQ79">
-        <v>27</v>
-      </c>
-      <c r="BR79">
-        <v>70.86749999999999</v>
-      </c>
-      <c r="BS79">
-        <v>45</v>
-      </c>
-      <c r="BT79">
-        <v>1.132500000000007</v>
-      </c>
-      <c r="BU79">
-        <v>69.45</v>
-      </c>
-      <c r="BV79">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:74">
-      <c r="A80" t="s">
-        <v>152</v>
-      </c>
-      <c r="B80">
-        <v>0.251</v>
-      </c>
-      <c r="C80">
-        <v>46</v>
-      </c>
-      <c r="D80">
-        <v>0.09699999999999999</v>
-      </c>
-      <c r="E80">
-        <v>80</v>
-      </c>
-      <c r="F80">
-        <v>-0.023</v>
-      </c>
-      <c r="G80">
-        <v>101</v>
-      </c>
-      <c r="H80">
-        <v>0.216</v>
-      </c>
-      <c r="I80">
-        <v>53</v>
-      </c>
-      <c r="J80">
-        <v>0.187</v>
-      </c>
-      <c r="K80">
-        <v>72</v>
-      </c>
-      <c r="L80">
-        <v>-0.021</v>
-      </c>
-      <c r="M80">
-        <v>119</v>
-      </c>
-      <c r="N80">
-        <v>-0.4970000000000001</v>
-      </c>
-      <c r="O80">
-        <v>172</v>
-      </c>
-      <c r="P80">
-        <v>-0.252</v>
-      </c>
-      <c r="Q80">
-        <v>161</v>
-      </c>
-      <c r="R80">
-        <v>0.251</v>
-      </c>
-      <c r="S80">
-        <v>46</v>
-      </c>
-      <c r="T80">
-        <v>0.09699999999999999</v>
-      </c>
-      <c r="U80">
-        <v>80</v>
-      </c>
-      <c r="V80">
-        <v>-0.08199999999999999</v>
-      </c>
-      <c r="W80">
-        <v>120</v>
-      </c>
-      <c r="X80">
-        <v>0.039</v>
-      </c>
-      <c r="Y80">
-        <v>103</v>
-      </c>
-      <c r="Z80">
-        <v>302.1</v>
-      </c>
-      <c r="AA80">
-        <v>45.5</v>
-      </c>
-      <c r="AB80">
-        <v>295.6</v>
-      </c>
-      <c r="AC80">
-        <v>100.5</v>
-      </c>
-      <c r="AD80">
-        <v>63.74</v>
-      </c>
-      <c r="AE80">
-        <v>49.5</v>
-      </c>
-      <c r="AF80">
-        <v>68.68000000000001</v>
-      </c>
-      <c r="AG80">
-        <v>15.5</v>
-      </c>
-      <c r="AH80">
-        <v>3.04</v>
-      </c>
-      <c r="AI80">
-        <v>80</v>
-      </c>
-      <c r="AJ80">
-        <v>3.03</v>
-      </c>
-      <c r="AK80">
-        <v>66.5</v>
-      </c>
-      <c r="AL80">
-        <v>4.01</v>
-      </c>
-      <c r="AM80">
-        <v>89.5</v>
-      </c>
-      <c r="AN80">
-        <v>4.03</v>
-      </c>
-      <c r="AO80">
-        <v>127.5</v>
-      </c>
-      <c r="AP80">
-        <v>4.63</v>
-      </c>
-      <c r="AQ80">
-        <v>91</v>
-      </c>
-      <c r="AR80">
-        <v>4.62</v>
-      </c>
-      <c r="AS80">
-        <v>89.5</v>
-      </c>
-      <c r="AT80">
-        <v>70.51000000000001</v>
-      </c>
-      <c r="AU80">
-        <v>16.5</v>
-      </c>
-      <c r="AV80">
-        <v>71.94</v>
-      </c>
-      <c r="AW80">
-        <v>11</v>
-      </c>
-      <c r="AX80">
-        <v>60.87</v>
-      </c>
-      <c r="AY80">
-        <v>52.5</v>
-      </c>
-      <c r="AZ80">
-        <v>57.92</v>
-      </c>
-      <c r="BA80">
-        <v>132</v>
-      </c>
-      <c r="BB80">
-        <v>32.2</v>
-      </c>
-      <c r="BC80">
-        <v>190</v>
-      </c>
-      <c r="BD80">
-        <v>46.67</v>
-      </c>
-      <c r="BE80">
-        <v>143</v>
-      </c>
-      <c r="BF80">
-        <v>1.806</v>
-      </c>
-      <c r="BG80">
-        <v>181.5</v>
-      </c>
-      <c r="BH80">
-        <v>1.795</v>
-      </c>
-      <c r="BI80">
-        <v>180</v>
-      </c>
-      <c r="BJ80">
-        <v>21</v>
-      </c>
-      <c r="BK80">
-        <v>4.5</v>
-      </c>
-      <c r="BL80">
-        <v>21</v>
-      </c>
-      <c r="BM80">
-        <v>5</v>
-      </c>
-      <c r="BN80">
-        <v>1</v>
-      </c>
-      <c r="BO80">
-        <v>129</v>
-      </c>
-      <c r="BP80">
-        <v>1</v>
-      </c>
-      <c r="BQ80">
-        <v>101</v>
-      </c>
-      <c r="BR80">
-        <v>70.777</v>
-      </c>
-      <c r="BS80">
-        <v>72.5</v>
-      </c>
-      <c r="BT80">
-        <v>1.222999999999999</v>
-      </c>
-      <c r="BU80">
-        <v>67.62</v>
-      </c>
-      <c r="BV80">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:74">
-      <c r="A81" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81">
-        <v>-0.132</v>
-      </c>
-      <c r="C81">
-        <v>143</v>
-      </c>
-      <c r="D81">
-        <v>0.433</v>
-      </c>
-      <c r="E81">
-        <v>22.5</v>
-      </c>
-      <c r="F81">
-        <v>0.392</v>
-      </c>
-      <c r="G81">
-        <v>11</v>
-      </c>
-      <c r="H81">
-        <v>0.204</v>
-      </c>
-      <c r="I81">
-        <v>60</v>
-      </c>
-      <c r="J81">
-        <v>-0.3</v>
-      </c>
-      <c r="K81">
-        <v>150</v>
-      </c>
-      <c r="L81">
-        <v>-0.321</v>
-      </c>
-      <c r="M81">
-        <v>162.5</v>
-      </c>
-      <c r="N81">
-        <v>0.217</v>
-      </c>
-      <c r="O81">
-        <v>60.5</v>
-      </c>
-      <c r="P81">
-        <v>0.08900000000000001</v>
-      </c>
-      <c r="Q81">
-        <v>100</v>
-      </c>
-      <c r="R81">
-        <v>-0.132</v>
-      </c>
-      <c r="S81">
-        <v>143</v>
-      </c>
-      <c r="T81">
-        <v>0.433</v>
-      </c>
-      <c r="U81">
-        <v>22.5</v>
-      </c>
-      <c r="V81">
-        <v>0.177</v>
-      </c>
-      <c r="W81">
-        <v>96</v>
-      </c>
-      <c r="X81">
-        <v>0.406</v>
-      </c>
-      <c r="Y81">
-        <v>74</v>
-      </c>
-      <c r="Z81">
-        <v>301.1</v>
-      </c>
-      <c r="AA81">
-        <v>62</v>
-      </c>
-      <c r="AB81">
-        <v>297.5</v>
-      </c>
-      <c r="AC81">
-        <v>82</v>
-      </c>
-      <c r="AD81">
-        <v>54.57</v>
-      </c>
-      <c r="AE81">
-        <v>166</v>
-      </c>
-      <c r="AF81">
-        <v>58.04</v>
-      </c>
-      <c r="AG81">
-        <v>135.5</v>
-      </c>
-      <c r="AH81">
-        <v>3.05</v>
-      </c>
-      <c r="AI81">
-        <v>97.5</v>
-      </c>
-      <c r="AJ81">
-        <v>3.19</v>
-      </c>
-      <c r="AK81">
-        <v>212.5</v>
-      </c>
-      <c r="AL81">
-        <v>4</v>
-      </c>
-      <c r="AM81">
-        <v>64</v>
-      </c>
-      <c r="AN81">
-        <v>3.99</v>
-      </c>
-      <c r="AO81">
-        <v>56</v>
-      </c>
-      <c r="AP81">
-        <v>4.65</v>
-      </c>
-      <c r="AQ81">
-        <v>117</v>
-      </c>
-      <c r="AR81">
-        <v>4.54</v>
-      </c>
-      <c r="AS81">
-        <v>31</v>
-      </c>
-      <c r="AT81">
-        <v>68.76000000000001</v>
-      </c>
-      <c r="AU81">
-        <v>49</v>
-      </c>
-      <c r="AV81">
-        <v>68.47</v>
-      </c>
-      <c r="AW81">
-        <v>64</v>
-      </c>
-      <c r="AX81">
-        <v>57.47</v>
-      </c>
-      <c r="AY81">
-        <v>133</v>
-      </c>
-      <c r="AZ81">
-        <v>62.56</v>
-      </c>
-      <c r="BA81">
-        <v>46</v>
-      </c>
-      <c r="BB81">
-        <v>50.48</v>
-      </c>
-      <c r="BC81">
-        <v>85</v>
-      </c>
-      <c r="BD81">
-        <v>50</v>
-      </c>
-      <c r="BE81">
-        <v>111</v>
-      </c>
-      <c r="BF81">
-        <v>1.768</v>
-      </c>
-      <c r="BG81">
-        <v>115.5</v>
-      </c>
-      <c r="BH81">
-        <v>1.799</v>
-      </c>
-      <c r="BI81">
-        <v>187</v>
-      </c>
-      <c r="BJ81">
-        <v>188</v>
-      </c>
-      <c r="BK81">
-        <v>91</v>
-      </c>
-      <c r="BL81">
-        <v>177</v>
-      </c>
-      <c r="BM81">
-        <v>84.5</v>
-      </c>
-      <c r="BN81">
-        <v>3</v>
-      </c>
-      <c r="BO81">
-        <v>48</v>
-      </c>
-      <c r="BP81">
-        <v>1</v>
-      </c>
-      <c r="BQ81">
-        <v>101</v>
-      </c>
-      <c r="BR81">
-        <v>71.14099999999999</v>
-      </c>
-      <c r="BS81">
-        <v>54.75</v>
-      </c>
-      <c r="BT81">
-        <v>0.8590000000000089</v>
-      </c>
-      <c r="BU81">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="BV81">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:74">
-      <c r="A82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B82">
-        <v>0.005</v>
-      </c>
-      <c r="C82">
-        <v>102</v>
-      </c>
-      <c r="D82">
-        <v>0.038</v>
-      </c>
-      <c r="E82">
-        <v>98</v>
-      </c>
-      <c r="F82">
-        <v>0.359</v>
-      </c>
-      <c r="G82">
-        <v>16</v>
-      </c>
-      <c r="H82">
-        <v>-0.168</v>
-      </c>
-      <c r="I82">
-        <v>167.5</v>
-      </c>
-      <c r="J82">
-        <v>-0.278</v>
-      </c>
-      <c r="K82">
-        <v>147</v>
-      </c>
-      <c r="L82">
-        <v>0.026</v>
-      </c>
-      <c r="M82">
-        <v>105.5</v>
-      </c>
-      <c r="N82">
-        <v>-0.015</v>
-      </c>
-      <c r="O82">
-        <v>109</v>
-      </c>
-      <c r="P82">
-        <v>0.381</v>
-      </c>
-      <c r="Q82">
-        <v>54</v>
-      </c>
-      <c r="R82">
-        <v>0.005</v>
-      </c>
-      <c r="S82">
-        <v>102</v>
-      </c>
-      <c r="T82">
-        <v>0.038</v>
-      </c>
-      <c r="U82">
-        <v>98</v>
-      </c>
-      <c r="V82">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="W82">
-        <v>106</v>
-      </c>
-      <c r="X82">
-        <v>0.278</v>
-      </c>
-      <c r="Y82">
-        <v>85</v>
-      </c>
-      <c r="Z82">
-        <v>283.9</v>
-      </c>
-      <c r="AA82">
-        <v>183.5</v>
-      </c>
-      <c r="AB82">
-        <v>288.6</v>
-      </c>
-      <c r="AC82">
-        <v>171</v>
-      </c>
-      <c r="AD82">
-        <v>60.76</v>
-      </c>
-      <c r="AE82">
-        <v>89</v>
-      </c>
-      <c r="AF82">
-        <v>60.91</v>
-      </c>
-      <c r="AG82">
-        <v>91</v>
-      </c>
-      <c r="AH82">
-        <v>3.07</v>
-      </c>
-      <c r="AI82">
-        <v>135</v>
-      </c>
-      <c r="AJ82">
-        <v>3.08</v>
-      </c>
-      <c r="AK82">
-        <v>133.5</v>
-      </c>
-      <c r="AL82">
-        <v>4.03</v>
-      </c>
-      <c r="AM82">
-        <v>128</v>
-      </c>
-      <c r="AN82">
-        <v>3.98</v>
-      </c>
-      <c r="AO82">
-        <v>39</v>
-      </c>
-      <c r="AP82">
-        <v>4.59</v>
-      </c>
-      <c r="AQ82">
-        <v>47</v>
-      </c>
-      <c r="AR82">
-        <v>4.76</v>
-      </c>
-      <c r="AS82">
-        <v>197</v>
-      </c>
-      <c r="AT82">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="AU82">
-        <v>143</v>
-      </c>
-      <c r="AV82">
-        <v>65.58</v>
-      </c>
-      <c r="AW82">
-        <v>142</v>
-      </c>
-      <c r="AX82">
-        <v>60.29</v>
-      </c>
-      <c r="AY82">
-        <v>70</v>
-      </c>
-      <c r="AZ82">
-        <v>51.18</v>
-      </c>
-      <c r="BA82">
-        <v>211</v>
-      </c>
-      <c r="BB82">
-        <v>59.83</v>
-      </c>
-      <c r="BC82">
-        <v>12</v>
-      </c>
-      <c r="BD82">
-        <v>50.82</v>
-      </c>
-      <c r="BE82">
-        <v>104</v>
-      </c>
-      <c r="BF82">
-        <v>1.778</v>
-      </c>
-      <c r="BG82">
-        <v>141.5</v>
-      </c>
-      <c r="BH82">
-        <v>1.721</v>
-      </c>
-      <c r="BI82">
-        <v>24.5</v>
-      </c>
-      <c r="BJ82">
-        <v>323</v>
-      </c>
-      <c r="BK82">
-        <v>170.5</v>
-      </c>
-      <c r="BL82">
-        <v>305</v>
-      </c>
-      <c r="BM82">
-        <v>162</v>
-      </c>
-      <c r="BN82">
-        <v>2.696551724137931</v>
-      </c>
-      <c r="BO82">
-        <v>78.06206896551724</v>
-      </c>
-      <c r="BP82">
-        <v>1</v>
-      </c>
-      <c r="BQ82">
-        <v>101</v>
-      </c>
-      <c r="BR82">
-        <v>71.039</v>
-      </c>
-      <c r="BS82">
-        <v>92</v>
-      </c>
-      <c r="BT82">
-        <v>0.9609999999999985</v>
-      </c>
-      <c r="BU82">
-        <v>66.64</v>
-      </c>
-      <c r="BV82">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:74">
-      <c r="A83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83">
-        <v>-0.117</v>
-      </c>
-      <c r="C83">
-        <v>138</v>
-      </c>
-      <c r="D83">
-        <v>-0.5529999999999999</v>
-      </c>
-      <c r="E83">
-        <v>202</v>
-      </c>
-      <c r="F83">
-        <v>-0.244</v>
-      </c>
-      <c r="G83">
-        <v>169</v>
-      </c>
-      <c r="H83">
-        <v>0.184</v>
-      </c>
-      <c r="I83">
-        <v>66</v>
-      </c>
-      <c r="J83">
-        <v>-0.221</v>
-      </c>
-      <c r="K83">
-        <v>141</v>
-      </c>
-      <c r="L83">
-        <v>-0.6729999999999999</v>
-      </c>
-      <c r="M83">
-        <v>195</v>
-      </c>
-      <c r="N83">
-        <v>-0.573</v>
-      </c>
-      <c r="O83">
-        <v>180</v>
-      </c>
-      <c r="P83">
-        <v>0.1</v>
-      </c>
-      <c r="Q83">
-        <v>99</v>
-      </c>
-      <c r="R83">
-        <v>-0.117</v>
-      </c>
-      <c r="S83">
-        <v>138</v>
-      </c>
-      <c r="T83">
-        <v>-0.5529999999999999</v>
-      </c>
-      <c r="U83">
-        <v>202</v>
-      </c>
-      <c r="V83">
-        <v>-1.155</v>
-      </c>
-      <c r="W83">
-        <v>189</v>
-      </c>
-      <c r="X83">
-        <v>-0.9409999999999999</v>
-      </c>
-      <c r="Y83">
-        <v>187</v>
-      </c>
-      <c r="Z83">
-        <v>293.7</v>
-      </c>
-      <c r="AA83">
-        <v>134</v>
-      </c>
-      <c r="AB83">
-        <v>287.3</v>
-      </c>
-      <c r="AC83">
-        <v>183</v>
-      </c>
-      <c r="AD83">
-        <v>58.08</v>
-      </c>
-      <c r="AE83">
-        <v>132</v>
-      </c>
-      <c r="AF83">
-        <v>59.17</v>
-      </c>
-      <c r="AG83">
-        <v>113</v>
-      </c>
-      <c r="AH83">
-        <v>3.07</v>
-      </c>
-      <c r="AI83">
-        <v>135</v>
-      </c>
-      <c r="AJ83">
-        <v>3.02</v>
-      </c>
-      <c r="AK83">
-        <v>53</v>
-      </c>
-      <c r="AL83">
-        <v>4.07</v>
-      </c>
-      <c r="AM83">
-        <v>175</v>
-      </c>
-      <c r="AN83">
-        <v>4.04</v>
-      </c>
-      <c r="AO83">
-        <v>141</v>
-      </c>
-      <c r="AP83">
-        <v>4.63</v>
-      </c>
-      <c r="AQ83">
-        <v>91</v>
-      </c>
-      <c r="AR83">
-        <v>4.61</v>
-      </c>
-      <c r="AS83">
-        <v>79.5</v>
-      </c>
-      <c r="AT83">
-        <v>67.33</v>
-      </c>
-      <c r="AU83">
-        <v>86</v>
-      </c>
-      <c r="AV83">
-        <v>65.69</v>
-      </c>
-      <c r="AW83">
-        <v>135</v>
-      </c>
-      <c r="AX83">
-        <v>52.72</v>
-      </c>
-      <c r="AY83">
-        <v>184</v>
-      </c>
-      <c r="AZ83">
-        <v>60</v>
-      </c>
-      <c r="BA83">
-        <v>89.5</v>
-      </c>
-      <c r="BB83">
-        <v>35.37</v>
-      </c>
-      <c r="BC83">
-        <v>187</v>
-      </c>
-      <c r="BD83">
-        <v>45</v>
-      </c>
-      <c r="BE83">
-        <v>165.5</v>
-      </c>
-      <c r="BF83">
-        <v>1.766</v>
-      </c>
-      <c r="BG83">
-        <v>108.5</v>
-      </c>
-      <c r="BH83">
-        <v>1.744</v>
-      </c>
-      <c r="BI83">
-        <v>68.5</v>
-      </c>
-      <c r="BJ83">
-        <v>261</v>
-      </c>
-      <c r="BK83">
-        <v>144</v>
-      </c>
-      <c r="BL83">
-        <v>326</v>
-      </c>
-      <c r="BM83">
-        <v>177</v>
-      </c>
-      <c r="BN83">
-        <v>1</v>
-      </c>
-      <c r="BO83">
-        <v>129</v>
-      </c>
-      <c r="BP83">
-        <v>1</v>
-      </c>
-      <c r="BQ83">
-        <v>101</v>
-      </c>
-      <c r="BR83">
-        <v>71.742</v>
-      </c>
-      <c r="BS83">
-        <v>157</v>
-      </c>
-      <c r="BT83">
-        <v>0.2579999999999956</v>
-      </c>
-      <c r="BU83">
-        <v>66.31999999999999</v>
-      </c>
-      <c r="BV83">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:74">
-      <c r="A84" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84">
-        <v>-0.586</v>
-      </c>
-      <c r="C84">
-        <v>184</v>
-      </c>
-      <c r="D84">
-        <v>-0.636</v>
-      </c>
-      <c r="E84">
-        <v>208</v>
-      </c>
-      <c r="F84">
-        <v>-0.103</v>
-      </c>
-      <c r="G84">
-        <v>133</v>
-      </c>
-      <c r="H84">
-        <v>0.137</v>
-      </c>
-      <c r="I84">
-        <v>80</v>
-      </c>
-      <c r="J84">
-        <v>0.122</v>
-      </c>
-      <c r="K84">
-        <v>81.5</v>
-      </c>
-      <c r="L84">
-        <v>-0.747</v>
-      </c>
-      <c r="M84">
-        <v>204</v>
-      </c>
-      <c r="N84">
-        <v>-0.222</v>
-      </c>
-      <c r="O84">
-        <v>142.5</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>118</v>
-      </c>
-      <c r="R84">
-        <v>-0.586</v>
-      </c>
-      <c r="S84">
-        <v>184</v>
-      </c>
-      <c r="T84">
-        <v>-0.636</v>
-      </c>
-      <c r="U84">
-        <v>208</v>
-      </c>
-      <c r="V84">
-        <v>-0.7879999999999999</v>
-      </c>
-      <c r="W84">
-        <v>173</v>
-      </c>
-      <c r="X84">
-        <v>-1.247</v>
-      </c>
-      <c r="Y84">
-        <v>196</v>
-      </c>
-      <c r="Z84">
-        <v>283.9</v>
-      </c>
-      <c r="AA84">
-        <v>183.5</v>
-      </c>
-      <c r="AB84">
-        <v>283.2</v>
-      </c>
-      <c r="AC84">
-        <v>201</v>
-      </c>
-      <c r="AD84">
-        <v>62.02</v>
-      </c>
-      <c r="AE84">
-        <v>74</v>
-      </c>
-      <c r="AF84">
-        <v>60.87</v>
-      </c>
-      <c r="AG84">
-        <v>93</v>
-      </c>
-      <c r="AH84">
-        <v>3.06</v>
-      </c>
-      <c r="AI84">
-        <v>116.5</v>
-      </c>
-      <c r="AJ84">
-        <v>3.02</v>
-      </c>
-      <c r="AK84">
-        <v>53</v>
-      </c>
-      <c r="AL84">
-        <v>4.11</v>
-      </c>
-      <c r="AM84">
-        <v>190</v>
-      </c>
-      <c r="AN84">
-        <v>4.17</v>
-      </c>
-      <c r="AO84">
-        <v>215.5</v>
-      </c>
-      <c r="AP84">
-        <v>4.7</v>
-      </c>
-      <c r="AQ84">
-        <v>158.5</v>
-      </c>
-      <c r="AR84">
-        <v>4.78</v>
-      </c>
-      <c r="AS84">
-        <v>202.5</v>
-      </c>
-      <c r="AT84">
-        <v>63.31</v>
-      </c>
-      <c r="AU84">
-        <v>180</v>
-      </c>
-      <c r="AV84">
-        <v>60.56</v>
-      </c>
-      <c r="AW84">
-        <v>213</v>
-      </c>
-      <c r="AX84">
-        <v>54.26</v>
-      </c>
-      <c r="AY84">
-        <v>172</v>
-      </c>
-      <c r="AZ84">
-        <v>58.45</v>
-      </c>
-      <c r="BA84">
-        <v>120</v>
-      </c>
-      <c r="BB84">
-        <v>36.49</v>
-      </c>
-      <c r="BC84">
-        <v>185</v>
-      </c>
-      <c r="BD84">
-        <v>36.36</v>
-      </c>
-      <c r="BE84">
-        <v>211</v>
-      </c>
-      <c r="BF84">
-        <v>1.768</v>
-      </c>
-      <c r="BG84">
-        <v>115.5</v>
-      </c>
-      <c r="BH84">
-        <v>1.839</v>
-      </c>
-      <c r="BI84">
-        <v>219</v>
-      </c>
-      <c r="BJ84">
-        <v>352</v>
-      </c>
-      <c r="BK84">
-        <v>186</v>
-      </c>
-      <c r="BL84">
-        <v>400</v>
-      </c>
-      <c r="BM84">
-        <v>209.5</v>
-      </c>
-      <c r="BN84">
-        <v>1</v>
-      </c>
-      <c r="BO84">
-        <v>129</v>
-      </c>
-      <c r="BP84">
-        <v>2.051282051282051</v>
-      </c>
-      <c r="BQ84">
-        <v>64.35897435897436</v>
-      </c>
-      <c r="BR84">
-        <v>71.702</v>
-      </c>
-      <c r="BS84">
-        <v>154</v>
-      </c>
-      <c r="BT84">
-        <v>0.2980000000000018</v>
-      </c>
-      <c r="BU84">
-        <v>65.14</v>
-      </c>
-      <c r="BV84">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:74">
-      <c r="A85" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85">
-        <v>-0.02</v>
-      </c>
-      <c r="C85">
-        <v>108</v>
-      </c>
-      <c r="D85">
-        <v>-0.7490000000000001</v>
-      </c>
-      <c r="E85">
-        <v>211</v>
-      </c>
-      <c r="F85">
-        <v>0.379</v>
-      </c>
-      <c r="G85">
-        <v>13</v>
-      </c>
-      <c r="H85">
-        <v>-0.027</v>
-      </c>
-      <c r="I85">
-        <v>131</v>
-      </c>
-      <c r="J85">
-        <v>-0.129</v>
-      </c>
-      <c r="K85">
-        <v>129</v>
-      </c>
-      <c r="L85">
-        <v>-0.159</v>
-      </c>
-      <c r="M85">
-        <v>140</v>
-      </c>
-      <c r="N85">
-        <v>-0.083</v>
-      </c>
-      <c r="O85">
-        <v>124.5</v>
-      </c>
-      <c r="P85">
-        <v>-0.254</v>
-      </c>
-      <c r="Q85">
-        <v>162.5</v>
-      </c>
-      <c r="R85">
-        <v>-0.02</v>
-      </c>
-      <c r="S85">
-        <v>108</v>
-      </c>
-      <c r="T85">
-        <v>-0.7490000000000001</v>
-      </c>
-      <c r="U85">
-        <v>211</v>
-      </c>
-      <c r="V85">
-        <v>0.147</v>
-      </c>
-      <c r="W85">
-        <v>97</v>
-      </c>
-      <c r="X85">
-        <v>-1.189</v>
-      </c>
-      <c r="Y85">
-        <v>193</v>
-      </c>
-      <c r="Z85">
-        <v>301.5</v>
-      </c>
-      <c r="AA85">
-        <v>59.5</v>
-      </c>
-      <c r="AB85">
-        <v>298.4</v>
-      </c>
-      <c r="AC85">
-        <v>72.5</v>
-      </c>
-      <c r="AD85">
-        <v>54</v>
-      </c>
-      <c r="AE85">
-        <v>174</v>
-      </c>
-      <c r="AF85">
-        <v>47.41</v>
-      </c>
-      <c r="AG85">
-        <v>215</v>
-      </c>
-      <c r="AH85">
-        <v>3.07</v>
-      </c>
-      <c r="AI85">
-        <v>135</v>
-      </c>
-      <c r="AJ85">
-        <v>3.14</v>
-      </c>
-      <c r="AK85">
-        <v>191</v>
-      </c>
-      <c r="AL85">
-        <v>4.02</v>
-      </c>
-      <c r="AM85">
-        <v>112.5</v>
-      </c>
-      <c r="AN85">
-        <v>4.09</v>
-      </c>
-      <c r="AO85">
-        <v>196</v>
-      </c>
-      <c r="AP85">
-        <v>4.64</v>
-      </c>
-      <c r="AQ85">
-        <v>104.5</v>
-      </c>
-      <c r="AR85">
-        <v>4.88</v>
-      </c>
-      <c r="AS85">
-        <v>219</v>
-      </c>
-      <c r="AT85">
-        <v>63.51</v>
-      </c>
-      <c r="AU85">
-        <v>177</v>
-      </c>
-      <c r="AV85">
-        <v>64.68000000000001</v>
-      </c>
-      <c r="AW85">
-        <v>164.5</v>
-      </c>
-      <c r="AX85">
-        <v>60.6</v>
-      </c>
-      <c r="AY85">
-        <v>60.5</v>
-      </c>
-      <c r="AZ85">
-        <v>51.69</v>
-      </c>
-      <c r="BA85">
-        <v>206</v>
-      </c>
-      <c r="BB85">
-        <v>56.6</v>
-      </c>
-      <c r="BC85">
-        <v>32</v>
-      </c>
-      <c r="BD85">
-        <v>38.98</v>
-      </c>
-      <c r="BE85">
-        <v>202</v>
-      </c>
-      <c r="BF85">
-        <v>1.748</v>
-      </c>
-      <c r="BG85">
-        <v>58.5</v>
-      </c>
-      <c r="BH85">
-        <v>1.804</v>
-      </c>
-      <c r="BI85">
-        <v>192</v>
-      </c>
-      <c r="BJ85">
-        <v>325</v>
-      </c>
-      <c r="BK85">
-        <v>173.5</v>
-      </c>
-      <c r="BL85">
-        <v>343</v>
-      </c>
-      <c r="BM85">
-        <v>184</v>
-      </c>
-      <c r="BN85">
-        <v>2</v>
-      </c>
-      <c r="BO85">
-        <v>77.5</v>
-      </c>
-      <c r="BP85">
-        <v>2.051282051282051</v>
-      </c>
-      <c r="BQ85">
-        <v>64.35897435897436</v>
-      </c>
-      <c r="BR85">
-        <v>71.69924999999999</v>
-      </c>
-      <c r="BS85">
-        <v>74.375</v>
-      </c>
-      <c r="BT85">
-        <v>0.3007500000000078</v>
-      </c>
-      <c r="BU85">
-        <v>64.79000000000001</v>
-      </c>
-      <c r="BV85">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:74">
-      <c r="A86" t="s">
-        <v>158</v>
-      </c>
-      <c r="B86">
-        <v>0.189</v>
-      </c>
-      <c r="C86">
-        <v>63</v>
-      </c>
-      <c r="D86">
-        <v>-0.025</v>
-      </c>
-      <c r="E86">
-        <v>118</v>
-      </c>
-      <c r="F86">
-        <v>-0.215</v>
-      </c>
-      <c r="G86">
-        <v>162</v>
-      </c>
-      <c r="H86">
-        <v>-0.08500000000000001</v>
-      </c>
-      <c r="I86">
-        <v>148</v>
-      </c>
-      <c r="J86">
-        <v>-0.169</v>
-      </c>
-      <c r="K86">
-        <v>137</v>
-      </c>
-      <c r="L86">
-        <v>-0.153</v>
-      </c>
-      <c r="M86">
-        <v>139</v>
-      </c>
-      <c r="N86">
-        <v>-0.341</v>
-      </c>
-      <c r="O86">
-        <v>157</v>
-      </c>
-      <c r="P86">
-        <v>-0.421</v>
-      </c>
-      <c r="Q86">
-        <v>182</v>
-      </c>
-      <c r="R86">
-        <v>0.189</v>
-      </c>
-      <c r="S86">
-        <v>63</v>
-      </c>
-      <c r="T86">
-        <v>-0.025</v>
-      </c>
-      <c r="U86">
-        <v>118</v>
-      </c>
-      <c r="V86">
-        <v>-0.536</v>
-      </c>
-      <c r="W86">
-        <v>160</v>
-      </c>
-      <c r="X86">
-        <v>-0.6840000000000001</v>
-      </c>
-      <c r="Y86">
-        <v>169</v>
-      </c>
-      <c r="Z86">
-        <v>289.7</v>
-      </c>
-      <c r="AA86">
-        <v>158</v>
-      </c>
-      <c r="AB86">
-        <v>291.1</v>
-      </c>
-      <c r="AC86">
-        <v>151</v>
-      </c>
-      <c r="AD86">
-        <v>65.72</v>
-      </c>
-      <c r="AE86">
-        <v>29</v>
-      </c>
-      <c r="AF86">
-        <v>68.68000000000001</v>
-      </c>
-      <c r="AG86">
-        <v>15.5</v>
-      </c>
-      <c r="AH86">
-        <v>3.12</v>
-      </c>
-      <c r="AI86">
-        <v>174</v>
-      </c>
-      <c r="AJ86">
-        <v>3.07</v>
-      </c>
-      <c r="AK86">
-        <v>118</v>
-      </c>
-      <c r="AL86">
-        <v>4.01</v>
-      </c>
-      <c r="AM86">
-        <v>89.5</v>
-      </c>
-      <c r="AN86">
-        <v>4.03</v>
-      </c>
-      <c r="AO86">
-        <v>127.5</v>
-      </c>
-      <c r="AP86">
-        <v>4.73</v>
-      </c>
-      <c r="AQ86">
-        <v>175</v>
-      </c>
-      <c r="AR86">
-        <v>4.75</v>
-      </c>
-      <c r="AS86">
-        <v>193</v>
-      </c>
-      <c r="AT86">
-        <v>64.11</v>
-      </c>
-      <c r="AU86">
-        <v>169</v>
-      </c>
-      <c r="AV86">
-        <v>65.2</v>
-      </c>
-      <c r="AW86">
-        <v>150</v>
-      </c>
-      <c r="AX86">
-        <v>59.21</v>
-      </c>
-      <c r="AY86">
-        <v>92</v>
-      </c>
-      <c r="AZ86">
-        <v>58.82</v>
-      </c>
-      <c r="BA86">
-        <v>112.5</v>
-      </c>
-      <c r="BB86">
-        <v>46.24</v>
-      </c>
-      <c r="BC86">
-        <v>139.5</v>
-      </c>
-      <c r="BD86">
-        <v>42.11</v>
-      </c>
-      <c r="BE86">
-        <v>183.5</v>
-      </c>
-      <c r="BF86">
-        <v>1.765</v>
-      </c>
-      <c r="BG86">
-        <v>104.5</v>
-      </c>
-      <c r="BH86">
-        <v>1.765</v>
-      </c>
-      <c r="BI86">
-        <v>119</v>
-      </c>
-      <c r="BJ86">
-        <v>253</v>
-      </c>
-      <c r="BK86">
-        <v>140</v>
-      </c>
-      <c r="BL86">
-        <v>196</v>
-      </c>
-      <c r="BM86">
-        <v>97</v>
-      </c>
-      <c r="BN86">
-        <v>1</v>
-      </c>
-      <c r="BO86">
-        <v>129</v>
-      </c>
-      <c r="BP86">
-        <v>1</v>
-      </c>
-      <c r="BQ86">
-        <v>101</v>
-      </c>
-      <c r="BR86">
-        <v>72.61</v>
-      </c>
-      <c r="BS86">
-        <v>131</v>
-      </c>
-      <c r="BT86">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BU86">
-        <v>64.72</v>
-      </c>
-      <c r="BV86">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:74">
-      <c r="A87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87">
-        <v>0.094</v>
-      </c>
-      <c r="C87">
-        <v>83</v>
-      </c>
-      <c r="D87">
-        <v>-0.028</v>
-      </c>
-      <c r="E87">
-        <v>119</v>
-      </c>
-      <c r="F87">
-        <v>-0.03</v>
-      </c>
-      <c r="G87">
-        <v>103</v>
-      </c>
-      <c r="H87">
-        <v>-0.066</v>
-      </c>
-      <c r="I87">
-        <v>142</v>
-      </c>
-      <c r="J87">
-        <v>0.052</v>
-      </c>
-      <c r="K87">
-        <v>99</v>
-      </c>
-      <c r="L87">
-        <v>-0.358</v>
-      </c>
-      <c r="M87">
-        <v>169</v>
-      </c>
-      <c r="N87">
-        <v>-0.043</v>
-      </c>
-      <c r="O87">
-        <v>114</v>
-      </c>
-      <c r="P87">
-        <v>0.122</v>
-      </c>
-      <c r="Q87">
-        <v>94</v>
-      </c>
-      <c r="R87">
-        <v>0.094</v>
-      </c>
-      <c r="S87">
-        <v>83</v>
-      </c>
-      <c r="T87">
-        <v>-0.028</v>
-      </c>
-      <c r="U87">
-        <v>119</v>
-      </c>
-      <c r="V87">
-        <v>0.073</v>
-      </c>
-      <c r="W87">
-        <v>105</v>
-      </c>
-      <c r="X87">
-        <v>-0.33</v>
-      </c>
-      <c r="Y87">
-        <v>147</v>
-      </c>
-      <c r="Z87">
-        <v>296.6</v>
-      </c>
-      <c r="AA87">
-        <v>102</v>
-      </c>
-      <c r="AB87">
-        <v>294</v>
-      </c>
-      <c r="AC87">
-        <v>120.5</v>
-      </c>
-      <c r="AD87">
-        <v>64.23999999999999</v>
-      </c>
-      <c r="AE87">
-        <v>46</v>
-      </c>
-      <c r="AF87">
-        <v>63.2</v>
-      </c>
-      <c r="AG87">
-        <v>65</v>
-      </c>
-      <c r="AH87">
-        <v>3.07</v>
-      </c>
-      <c r="AI87">
-        <v>135</v>
-      </c>
-      <c r="AJ87">
-        <v>3.02</v>
-      </c>
-      <c r="AK87">
-        <v>53</v>
-      </c>
-      <c r="AL87">
-        <v>4.02</v>
-      </c>
-      <c r="AM87">
-        <v>112.5</v>
-      </c>
-      <c r="AN87">
-        <v>4.02</v>
-      </c>
-      <c r="AO87">
-        <v>111</v>
-      </c>
-      <c r="AP87">
-        <v>4.6</v>
-      </c>
-      <c r="AQ87">
-        <v>55.5</v>
-      </c>
-      <c r="AR87">
-        <v>4.64</v>
-      </c>
-      <c r="AS87">
-        <v>113.5</v>
-      </c>
-      <c r="AT87">
-        <v>66.95</v>
-      </c>
-      <c r="AU87">
-        <v>98.5</v>
-      </c>
-      <c r="AV87">
-        <v>65.81999999999999</v>
-      </c>
-      <c r="AW87">
-        <v>131</v>
-      </c>
-      <c r="AX87">
-        <v>56.98</v>
-      </c>
-      <c r="AY87">
-        <v>141.5</v>
-      </c>
-      <c r="AZ87">
-        <v>63.96</v>
-      </c>
-      <c r="BA87">
-        <v>24</v>
-      </c>
-      <c r="BB87">
-        <v>46.34</v>
-      </c>
-      <c r="BC87">
-        <v>138</v>
-      </c>
-      <c r="BD87">
-        <v>53.97</v>
-      </c>
-      <c r="BE87">
-        <v>75</v>
-      </c>
-      <c r="BF87">
-        <v>1.757</v>
-      </c>
-      <c r="BG87">
-        <v>81</v>
-      </c>
-      <c r="BH87">
-        <v>1.754</v>
-      </c>
-      <c r="BI87">
-        <v>93</v>
-      </c>
-      <c r="BJ87">
-        <v>138</v>
-      </c>
-      <c r="BK87">
-        <v>61</v>
-      </c>
-      <c r="BL87">
-        <v>198</v>
-      </c>
-      <c r="BM87">
-        <v>98</v>
-      </c>
-      <c r="BN87">
-        <v>2</v>
-      </c>
-      <c r="BO87">
-        <v>77.5</v>
-      </c>
-      <c r="BP87">
-        <v>2.051282051282051</v>
-      </c>
-      <c r="BQ87">
-        <v>64.35897435897436</v>
-      </c>
-      <c r="BR87">
-        <v>72.861</v>
-      </c>
-      <c r="BS87">
-        <v>211</v>
-      </c>
-      <c r="BT87">
-        <v>-0.8610000000000042</v>
-      </c>
-      <c r="BU87">
-        <v>64.66</v>
-      </c>
-      <c r="BV87">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:74">
-      <c r="A88" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88">
-        <v>-0.276</v>
-      </c>
-      <c r="C88">
-        <v>164</v>
-      </c>
-      <c r="D88">
-        <v>-0.331</v>
-      </c>
-      <c r="E88">
-        <v>177</v>
-      </c>
-      <c r="F88">
-        <v>0.106</v>
-      </c>
-      <c r="G88">
-        <v>66</v>
-      </c>
-      <c r="H88">
-        <v>0.271</v>
-      </c>
-      <c r="I88">
-        <v>39.5</v>
-      </c>
-      <c r="J88">
-        <v>-0.353</v>
-      </c>
-      <c r="K88">
-        <v>159</v>
-      </c>
-      <c r="L88">
-        <v>-0.122</v>
-      </c>
-      <c r="M88">
-        <v>132</v>
-      </c>
-      <c r="N88">
-        <v>0.201</v>
-      </c>
-      <c r="O88">
-        <v>63</v>
-      </c>
-      <c r="P88">
-        <v>-0.141</v>
-      </c>
-      <c r="Q88">
-        <v>138.5</v>
-      </c>
-      <c r="R88">
-        <v>-0.276</v>
-      </c>
-      <c r="S88">
-        <v>164</v>
-      </c>
-      <c r="T88">
-        <v>-0.331</v>
-      </c>
-      <c r="U88">
-        <v>177</v>
-      </c>
-      <c r="V88">
-        <v>-0.321</v>
-      </c>
-      <c r="W88">
-        <v>145</v>
-      </c>
-      <c r="X88">
-        <v>-0.324</v>
-      </c>
-      <c r="Y88">
-        <v>146</v>
-      </c>
-      <c r="Z88">
-        <v>287</v>
-      </c>
-      <c r="AA88">
-        <v>168</v>
-      </c>
-      <c r="AB88">
-        <v>292.5</v>
-      </c>
-      <c r="AC88">
-        <v>134.5</v>
-      </c>
-      <c r="AD88">
-        <v>62.05</v>
-      </c>
-      <c r="AE88">
-        <v>73</v>
-      </c>
-      <c r="AF88">
-        <v>61.25</v>
-      </c>
-      <c r="AG88">
-        <v>86</v>
-      </c>
-      <c r="AH88">
-        <v>3.1</v>
-      </c>
-      <c r="AI88">
-        <v>165.5</v>
-      </c>
-      <c r="AJ88">
-        <v>3.06</v>
-      </c>
-      <c r="AK88">
-        <v>102.5</v>
-      </c>
-      <c r="AL88">
-        <v>4.04</v>
-      </c>
-      <c r="AM88">
-        <v>145</v>
-      </c>
-      <c r="AN88">
-        <v>4.03</v>
-      </c>
-      <c r="AO88">
-        <v>127.5</v>
-      </c>
-      <c r="AP88">
-        <v>4.6</v>
-      </c>
-      <c r="AQ88">
-        <v>55.5</v>
-      </c>
-      <c r="AR88">
-        <v>4.62</v>
-      </c>
-      <c r="AS88">
-        <v>89.5</v>
-      </c>
-      <c r="AT88">
-        <v>64.84999999999999</v>
-      </c>
-      <c r="AU88">
-        <v>156.5</v>
-      </c>
-      <c r="AV88">
-        <v>66.55</v>
-      </c>
-      <c r="AW88">
-        <v>110</v>
-      </c>
-      <c r="AX88">
-        <v>57.75</v>
-      </c>
-      <c r="AY88">
-        <v>122</v>
-      </c>
-      <c r="AZ88">
-        <v>61.01</v>
-      </c>
-      <c r="BA88">
-        <v>71</v>
-      </c>
-      <c r="BB88">
-        <v>46.99</v>
-      </c>
-      <c r="BC88">
-        <v>135</v>
-      </c>
-      <c r="BD88">
-        <v>54.69</v>
-      </c>
-      <c r="BE88">
-        <v>64</v>
-      </c>
-      <c r="BF88">
-        <v>1.769</v>
-      </c>
-      <c r="BG88">
-        <v>121.5</v>
-      </c>
-      <c r="BH88">
-        <v>1.779</v>
-      </c>
-      <c r="BI88">
-        <v>148.5</v>
-      </c>
-      <c r="BJ88">
-        <v>317</v>
-      </c>
-      <c r="BK88">
-        <v>165.5</v>
-      </c>
-      <c r="BL88">
-        <v>228</v>
-      </c>
-      <c r="BM88">
-        <v>114.5</v>
-      </c>
-      <c r="BN88">
-        <v>2</v>
-      </c>
-      <c r="BO88">
-        <v>77.5</v>
-      </c>
-      <c r="BP88">
-        <v>2</v>
-      </c>
-      <c r="BQ88">
-        <v>52.5</v>
-      </c>
-      <c r="BR88">
-        <v>71.41800000000001</v>
-      </c>
-      <c r="BS88">
-        <v>124</v>
-      </c>
-      <c r="BT88">
-        <v>0.5819999999999936</v>
-      </c>
-      <c r="BU88">
-        <v>63.09</v>
-      </c>
-      <c r="BV88">
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:74">
-      <c r="A89" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89">
-        <v>-1.121</v>
-      </c>
-      <c r="C89">
-        <v>193</v>
-      </c>
-      <c r="D89">
-        <v>-0.38</v>
-      </c>
-      <c r="E89">
-        <v>183</v>
-      </c>
-      <c r="F89">
-        <v>-0.246</v>
-      </c>
-      <c r="G89">
-        <v>170</v>
-      </c>
-      <c r="H89">
-        <v>0.271</v>
-      </c>
-      <c r="I89">
-        <v>39.5</v>
-      </c>
-      <c r="J89">
-        <v>-0.495</v>
-      </c>
-      <c r="K89">
-        <v>181</v>
-      </c>
-      <c r="L89">
-        <v>0.04099999999999999</v>
-      </c>
-      <c r="M89">
-        <v>104</v>
-      </c>
-      <c r="N89">
-        <v>0.841</v>
-      </c>
-      <c r="O89">
-        <v>3</v>
-      </c>
-      <c r="P89">
-        <v>0.585</v>
-      </c>
-      <c r="Q89">
-        <v>23</v>
-      </c>
-      <c r="R89">
-        <v>-1.121</v>
-      </c>
-      <c r="S89">
-        <v>193</v>
-      </c>
-      <c r="T89">
-        <v>-0.38</v>
-      </c>
-      <c r="U89">
-        <v>183</v>
-      </c>
-      <c r="V89">
-        <v>-1.021</v>
-      </c>
-      <c r="W89">
-        <v>185</v>
-      </c>
-      <c r="X89">
-        <v>0.516</v>
-      </c>
-      <c r="Y89">
-        <v>70</v>
-      </c>
-      <c r="Z89">
-        <v>277.9</v>
-      </c>
-      <c r="AA89">
-        <v>193</v>
-      </c>
-      <c r="AB89">
-        <v>285.2</v>
-      </c>
-      <c r="AC89">
-        <v>193</v>
-      </c>
-      <c r="AD89">
-        <v>57.03</v>
-      </c>
-      <c r="AE89">
-        <v>147.5</v>
-      </c>
-      <c r="AF89">
-        <v>60.94</v>
-      </c>
-      <c r="AG89">
-        <v>90</v>
-      </c>
-      <c r="AH89">
-        <v>3.03</v>
-      </c>
-      <c r="AI89">
-        <v>62.5</v>
-      </c>
-      <c r="AJ89">
-        <v>3.02</v>
-      </c>
-      <c r="AK89">
-        <v>53</v>
-      </c>
-      <c r="AL89">
-        <v>4.06</v>
-      </c>
-      <c r="AM89">
-        <v>168.5</v>
-      </c>
-      <c r="AN89">
-        <v>3.99</v>
-      </c>
-      <c r="AO89">
-        <v>56</v>
-      </c>
-      <c r="AP89">
-        <v>4.78</v>
-      </c>
-      <c r="AQ89">
-        <v>191</v>
-      </c>
-      <c r="AR89">
-        <v>4.63</v>
-      </c>
-      <c r="AS89">
-        <v>102.5</v>
-      </c>
-      <c r="AT89">
-        <v>63.77</v>
-      </c>
-      <c r="AU89">
-        <v>174</v>
-      </c>
-      <c r="AV89">
-        <v>67.88</v>
-      </c>
-      <c r="AW89">
-        <v>77</v>
-      </c>
-      <c r="AX89">
-        <v>60.33</v>
-      </c>
-      <c r="AY89">
-        <v>69</v>
-      </c>
-      <c r="AZ89">
-        <v>66.67</v>
-      </c>
-      <c r="BA89">
-        <v>10</v>
-      </c>
-      <c r="BB89">
-        <v>51.9</v>
-      </c>
-      <c r="BC89">
-        <v>66</v>
-      </c>
-      <c r="BD89">
-        <v>56.99</v>
-      </c>
-      <c r="BE89">
-        <v>39</v>
-      </c>
-      <c r="BF89">
-        <v>1.769</v>
-      </c>
-      <c r="BG89">
-        <v>121.5</v>
-      </c>
-      <c r="BH89">
-        <v>1.756</v>
-      </c>
-      <c r="BI89">
-        <v>98</v>
-      </c>
-      <c r="BJ89">
-        <v>367</v>
-      </c>
-      <c r="BK89">
-        <v>189</v>
-      </c>
-      <c r="BL89">
-        <v>253</v>
-      </c>
-      <c r="BM89">
-        <v>133</v>
-      </c>
-      <c r="BN89">
-        <v>1</v>
-      </c>
-      <c r="BO89">
-        <v>129</v>
-      </c>
-      <c r="BP89">
-        <v>3</v>
-      </c>
-      <c r="BQ89">
-        <v>27</v>
-      </c>
-      <c r="BR89">
-        <v>71.131</v>
-      </c>
-      <c r="BS89">
-        <v>102</v>
-      </c>
-      <c r="BT89">
-        <v>0.8689999999999998</v>
-      </c>
-      <c r="BU89">
-        <v>63.09</v>
-      </c>
-      <c r="BV89">
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:74">
-      <c r="A90" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90">
-        <v>0.307</v>
-      </c>
-      <c r="C90">
-        <v>35</v>
-      </c>
-      <c r="D90">
-        <v>0.052</v>
-      </c>
-      <c r="E90">
-        <v>89.5</v>
-      </c>
-      <c r="F90">
-        <v>-0.148</v>
-      </c>
-      <c r="G90">
-        <v>144.5</v>
-      </c>
-      <c r="H90">
-        <v>-0.256</v>
-      </c>
-      <c r="I90">
-        <v>183</v>
-      </c>
-      <c r="J90">
-        <v>-0.361</v>
-      </c>
-      <c r="K90">
-        <v>161</v>
-      </c>
-      <c r="L90">
-        <v>0.312</v>
-      </c>
-      <c r="M90">
-        <v>60</v>
-      </c>
-      <c r="N90">
-        <v>0.08</v>
-      </c>
-      <c r="O90">
-        <v>89</v>
-      </c>
-      <c r="P90">
-        <v>0.239</v>
-      </c>
-      <c r="Q90">
-        <v>75</v>
-      </c>
-      <c r="R90">
-        <v>0.307</v>
-      </c>
-      <c r="S90">
-        <v>35</v>
-      </c>
-      <c r="T90">
-        <v>0.052</v>
-      </c>
-      <c r="U90">
-        <v>89.5</v>
-      </c>
-      <c r="V90">
-        <v>-0.122</v>
-      </c>
-      <c r="W90">
-        <v>125</v>
-      </c>
-      <c r="X90">
-        <v>0.348</v>
-      </c>
-      <c r="Y90">
-        <v>79</v>
-      </c>
-      <c r="Z90">
-        <v>301</v>
-      </c>
-      <c r="AA90">
-        <v>63.5</v>
-      </c>
-      <c r="AB90">
-        <v>297.4</v>
-      </c>
-      <c r="AC90">
-        <v>83</v>
-      </c>
-      <c r="AD90">
-        <v>62.19</v>
-      </c>
-      <c r="AE90">
-        <v>72</v>
-      </c>
-      <c r="AF90">
-        <v>56</v>
-      </c>
-      <c r="AG90">
-        <v>159</v>
-      </c>
-      <c r="AH90">
-        <v>3.12</v>
-      </c>
-      <c r="AI90">
-        <v>174</v>
-      </c>
-      <c r="AJ90">
-        <v>3.03</v>
-      </c>
-      <c r="AK90">
-        <v>66.5</v>
-      </c>
-      <c r="AL90">
-        <v>3.98</v>
-      </c>
-      <c r="AM90">
-        <v>30.5</v>
-      </c>
-      <c r="AN90">
-        <v>4.01</v>
-      </c>
-      <c r="AO90">
-        <v>94.5</v>
-      </c>
-      <c r="AP90">
-        <v>4.72</v>
-      </c>
-      <c r="AQ90">
-        <v>168.5</v>
-      </c>
-      <c r="AR90">
-        <v>4.62</v>
-      </c>
-      <c r="AS90">
-        <v>89.5</v>
-      </c>
-      <c r="AT90">
-        <v>66.06</v>
-      </c>
-      <c r="AU90">
-        <v>122</v>
-      </c>
-      <c r="AV90">
-        <v>67.75</v>
-      </c>
-      <c r="AW90">
-        <v>79.5</v>
-      </c>
-      <c r="AX90">
-        <v>60.55</v>
-      </c>
-      <c r="AY90">
-        <v>62</v>
-      </c>
-      <c r="AZ90">
-        <v>54.55</v>
-      </c>
-      <c r="BA90">
-        <v>184</v>
-      </c>
-      <c r="BB90">
-        <v>48.65</v>
-      </c>
-      <c r="BC90">
-        <v>111</v>
-      </c>
-      <c r="BD90">
-        <v>46.15</v>
-      </c>
-      <c r="BE90">
-        <v>150.5</v>
-      </c>
-      <c r="BF90">
-        <v>1.752</v>
-      </c>
-      <c r="BG90">
-        <v>68.5</v>
-      </c>
-      <c r="BH90">
-        <v>1.708</v>
-      </c>
-      <c r="BI90">
-        <v>12</v>
-      </c>
-      <c r="BJ90">
-        <v>148</v>
-      </c>
-      <c r="BK90">
-        <v>66.5</v>
-      </c>
-      <c r="BL90">
-        <v>229</v>
-      </c>
-      <c r="BM90">
-        <v>116</v>
-      </c>
-      <c r="BN90">
-        <v>2</v>
-      </c>
-      <c r="BO90">
-        <v>77.5</v>
-      </c>
-      <c r="BP90">
-        <v>1</v>
-      </c>
-      <c r="BQ90">
-        <v>101</v>
-      </c>
-      <c r="BR90">
-        <v>70.995</v>
-      </c>
-      <c r="BS90">
-        <v>88</v>
-      </c>
-      <c r="BT90">
-        <v>1.004999999999995</v>
-      </c>
-      <c r="BU90">
-        <v>63.04</v>
-      </c>
-      <c r="BV90">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:74">
-      <c r="A91" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91">
-        <v>0.175</v>
-      </c>
-      <c r="C91">
-        <v>65</v>
-      </c>
-      <c r="D91">
-        <v>0.283</v>
-      </c>
-      <c r="E91">
-        <v>45</v>
-      </c>
-      <c r="F91">
-        <v>0.112</v>
-      </c>
-      <c r="G91">
-        <v>59</v>
-      </c>
-      <c r="H91">
-        <v>0.142</v>
-      </c>
-      <c r="I91">
-        <v>76.5</v>
-      </c>
-      <c r="J91">
-        <v>0.351</v>
-      </c>
-      <c r="K91">
-        <v>43</v>
-      </c>
-      <c r="L91">
-        <v>0.845</v>
-      </c>
-      <c r="M91">
-        <v>7</v>
-      </c>
-      <c r="N91">
-        <v>-0.6829999999999999</v>
-      </c>
-      <c r="O91">
-        <v>185</v>
-      </c>
-      <c r="P91">
-        <v>-0.7070000000000001</v>
-      </c>
-      <c r="Q91">
-        <v>206</v>
-      </c>
-      <c r="R91">
-        <v>0.175</v>
-      </c>
-      <c r="S91">
-        <v>65</v>
-      </c>
-      <c r="T91">
-        <v>0.283</v>
-      </c>
-      <c r="U91">
-        <v>45</v>
-      </c>
-      <c r="V91">
-        <v>-0.045</v>
-      </c>
-      <c r="W91">
-        <v>114</v>
-      </c>
-      <c r="X91">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="Y91">
-        <v>63.5</v>
-      </c>
-      <c r="Z91">
-        <v>301</v>
-      </c>
-      <c r="AA91">
-        <v>63.5</v>
-      </c>
-      <c r="AB91">
-        <v>299.4</v>
-      </c>
-      <c r="AC91">
-        <v>67.5</v>
-      </c>
-      <c r="AD91">
-        <v>59.7</v>
-      </c>
-      <c r="AE91">
-        <v>105</v>
-      </c>
-      <c r="AF91">
-        <v>65.64</v>
-      </c>
-      <c r="AG91">
-        <v>39.5</v>
-      </c>
-      <c r="AH91">
-        <v>3</v>
-      </c>
-      <c r="AI91">
-        <v>23</v>
-      </c>
-      <c r="AJ91">
-        <v>3.07</v>
-      </c>
-      <c r="AK91">
-        <v>118</v>
-      </c>
-      <c r="AL91">
-        <v>4.06</v>
-      </c>
-      <c r="AM91">
-        <v>168.5</v>
-      </c>
-      <c r="AN91">
-        <v>4.03</v>
-      </c>
-      <c r="AO91">
-        <v>127.5</v>
-      </c>
-      <c r="AP91">
-        <v>4.64</v>
-      </c>
-      <c r="AQ91">
-        <v>104.5</v>
-      </c>
-      <c r="AR91">
-        <v>4.51</v>
-      </c>
-      <c r="AS91">
-        <v>19</v>
-      </c>
-      <c r="AT91">
-        <v>66.42</v>
-      </c>
-      <c r="AU91">
-        <v>115</v>
-      </c>
-      <c r="AV91">
-        <v>70.08</v>
-      </c>
-      <c r="AW91">
-        <v>33.5</v>
-      </c>
-      <c r="AX91">
-        <v>55.72</v>
-      </c>
-      <c r="AY91">
-        <v>162</v>
-      </c>
-      <c r="AZ91">
-        <v>56.54</v>
-      </c>
-      <c r="BA91">
-        <v>162</v>
-      </c>
-      <c r="BB91">
-        <v>51.28</v>
-      </c>
-      <c r="BC91">
-        <v>73</v>
-      </c>
-      <c r="BD91">
-        <v>54.9</v>
-      </c>
-      <c r="BE91">
-        <v>60</v>
-      </c>
-      <c r="BF91">
-        <v>1.793</v>
-      </c>
-      <c r="BG91">
-        <v>167.5</v>
-      </c>
-      <c r="BH91">
-        <v>1.782</v>
-      </c>
-      <c r="BI91">
-        <v>158</v>
-      </c>
-      <c r="BJ91">
-        <v>177</v>
-      </c>
-      <c r="BK91">
-        <v>83.5</v>
-      </c>
-      <c r="BL91">
-        <v>39</v>
-      </c>
-      <c r="BM91">
-        <v>15</v>
-      </c>
-      <c r="BN91">
-        <v>2.696551724137931</v>
-      </c>
-      <c r="BO91">
-        <v>78.06206896551724</v>
-      </c>
-      <c r="BP91">
-        <v>2</v>
-      </c>
-      <c r="BQ91">
-        <v>52.5</v>
-      </c>
-      <c r="BR91">
-        <v>71.381</v>
-      </c>
-      <c r="BS91">
-        <v>59</v>
-      </c>
-      <c r="BT91">
-        <v>0.6189999999999998</v>
-      </c>
-      <c r="BU91">
-        <v>62.93</v>
-      </c>
-      <c r="BV91">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:74">
-      <c r="A92" t="s">
-        <v>164</v>
-      </c>
-      <c r="B92">
-        <v>0.006</v>
-      </c>
-      <c r="C92">
-        <v>101</v>
-      </c>
-      <c r="D92">
-        <v>-0.865</v>
-      </c>
-      <c r="E92">
-        <v>213</v>
-      </c>
-      <c r="F92">
-        <v>-0.231</v>
-      </c>
-      <c r="G92">
-        <v>165</v>
-      </c>
-      <c r="H92">
-        <v>-0.147</v>
-      </c>
-      <c r="I92">
-        <v>165</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>112</v>
-      </c>
-      <c r="L92">
-        <v>-0.88</v>
-      </c>
-      <c r="M92">
-        <v>210</v>
-      </c>
-      <c r="N92">
-        <v>-0.307</v>
-      </c>
-      <c r="O92">
-        <v>153</v>
-      </c>
-      <c r="P92">
-        <v>-0.6509999999999999</v>
-      </c>
-      <c r="Q92">
-        <v>197</v>
-      </c>
-      <c r="R92">
-        <v>0.006</v>
-      </c>
-      <c r="S92">
-        <v>101</v>
-      </c>
-      <c r="T92">
-        <v>-0.865</v>
-      </c>
-      <c r="U92">
-        <v>213</v>
-      </c>
-      <c r="V92">
-        <v>-0.532</v>
-      </c>
-      <c r="W92">
-        <v>159</v>
-      </c>
-      <c r="X92">
-        <v>-2.542</v>
-      </c>
-      <c r="Y92">
-        <v>218</v>
-      </c>
-      <c r="Z92">
-        <v>303.4</v>
-      </c>
-      <c r="AA92">
-        <v>39</v>
-      </c>
-      <c r="AB92">
-        <v>288.8</v>
-      </c>
-      <c r="AC92">
-        <v>169</v>
-      </c>
-      <c r="AD92">
-        <v>55.63</v>
-      </c>
-      <c r="AE92">
-        <v>160</v>
-      </c>
-      <c r="AF92">
-        <v>53.58</v>
-      </c>
-      <c r="AG92">
-        <v>184</v>
-      </c>
-      <c r="AH92">
-        <v>3.12</v>
-      </c>
-      <c r="AI92">
-        <v>174</v>
-      </c>
-      <c r="AJ92">
-        <v>3.09</v>
-      </c>
-      <c r="AK92">
-        <v>145.5</v>
-      </c>
-      <c r="AL92">
-        <v>4.07</v>
-      </c>
-      <c r="AM92">
-        <v>175</v>
-      </c>
-      <c r="AN92">
-        <v>4.19</v>
-      </c>
-      <c r="AO92">
-        <v>219</v>
-      </c>
-      <c r="AP92">
-        <v>4.65</v>
-      </c>
-      <c r="AQ92">
-        <v>117</v>
-      </c>
-      <c r="AR92">
-        <v>4.81</v>
-      </c>
-      <c r="AS92">
-        <v>208.5</v>
-      </c>
-      <c r="AT92">
-        <v>65.3</v>
-      </c>
-      <c r="AU92">
-        <v>141</v>
-      </c>
-      <c r="AV92">
-        <v>61.24</v>
-      </c>
-      <c r="AW92">
-        <v>210</v>
-      </c>
-      <c r="AX92">
-        <v>54.17</v>
-      </c>
-      <c r="AY92">
-        <v>174.5</v>
-      </c>
-      <c r="AZ92">
-        <v>47.78</v>
-      </c>
-      <c r="BA92">
-        <v>218</v>
-      </c>
-      <c r="BB92">
-        <v>44.44</v>
-      </c>
-      <c r="BC92">
-        <v>154.5</v>
-      </c>
-      <c r="BD92">
-        <v>46.15</v>
-      </c>
-      <c r="BE92">
-        <v>150.5</v>
-      </c>
-      <c r="BF92">
-        <v>1.786</v>
-      </c>
-      <c r="BG92">
-        <v>157</v>
-      </c>
-      <c r="BH92">
-        <v>1.797</v>
-      </c>
-      <c r="BI92">
-        <v>183</v>
-      </c>
-      <c r="BJ92">
-        <v>249</v>
-      </c>
-      <c r="BK92">
-        <v>137</v>
-      </c>
-      <c r="BL92">
-        <v>421</v>
-      </c>
-      <c r="BM92">
-        <v>215.5</v>
-      </c>
-      <c r="BN92">
-        <v>2</v>
-      </c>
-      <c r="BO92">
-        <v>77.5</v>
-      </c>
-      <c r="BP92">
-        <v>2.051282051282051</v>
-      </c>
-      <c r="BQ92">
-        <v>64.35897435897436</v>
-      </c>
-      <c r="BR92">
-        <v>73.422</v>
-      </c>
-      <c r="BS92">
-        <v>225</v>
-      </c>
-      <c r="BT92">
-        <v>-1.421999999999997</v>
-      </c>
-      <c r="BU92">
-        <v>62.31</v>
-      </c>
-      <c r="BV92">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:74">
-      <c r="A93" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93">
-        <v>0.025</v>
-      </c>
-      <c r="C93">
-        <v>98</v>
-      </c>
-      <c r="D93">
-        <v>0.024</v>
-      </c>
-      <c r="E93">
-        <v>103</v>
-      </c>
-      <c r="F93">
-        <v>-0.053</v>
-      </c>
-      <c r="G93">
-        <v>115</v>
-      </c>
-      <c r="H93">
-        <v>-0.008</v>
-      </c>
-      <c r="I93">
-        <v>125</v>
-      </c>
-      <c r="J93">
-        <v>-0.391</v>
-      </c>
-      <c r="K93">
-        <v>169</v>
-      </c>
-      <c r="L93">
-        <v>-0.39</v>
-      </c>
-      <c r="M93">
-        <v>176</v>
-      </c>
-      <c r="N93">
-        <v>0.6629999999999999</v>
-      </c>
-      <c r="O93">
-        <v>9</v>
-      </c>
-      <c r="P93">
-        <v>-0.046</v>
-      </c>
-      <c r="Q93">
-        <v>124</v>
-      </c>
-      <c r="R93">
-        <v>0.025</v>
-      </c>
-      <c r="S93">
-        <v>98</v>
-      </c>
-      <c r="T93">
-        <v>0.024</v>
-      </c>
-      <c r="U93">
-        <v>103</v>
-      </c>
-      <c r="V93">
-        <v>0.244</v>
-      </c>
-      <c r="W93">
-        <v>92</v>
-      </c>
-      <c r="X93">
-        <v>-0.42</v>
-      </c>
-      <c r="Y93">
-        <v>153</v>
-      </c>
-      <c r="Z93">
-        <v>296.6</v>
-      </c>
-      <c r="AA93">
-        <v>102</v>
-      </c>
-      <c r="AB93">
-        <v>295.5</v>
-      </c>
-      <c r="AC93">
-        <v>102</v>
-      </c>
-      <c r="AD93">
-        <v>58.23</v>
-      </c>
-      <c r="AE93">
-        <v>130</v>
-      </c>
-      <c r="AF93">
-        <v>55.58</v>
-      </c>
-      <c r="AG93">
-        <v>163</v>
-      </c>
-      <c r="AH93">
-        <v>3.03</v>
-      </c>
-      <c r="AI93">
-        <v>62.5</v>
-      </c>
-      <c r="AJ93">
-        <v>3.07</v>
-      </c>
-      <c r="AK93">
-        <v>118</v>
-      </c>
-      <c r="AL93">
-        <v>4</v>
-      </c>
-      <c r="AM93">
-        <v>64</v>
-      </c>
-      <c r="AN93">
-        <v>4.02</v>
-      </c>
-      <c r="AO93">
-        <v>111</v>
-      </c>
-      <c r="AP93">
-        <v>4.61</v>
-      </c>
-      <c r="AQ93">
-        <v>66.5</v>
-      </c>
-      <c r="AR93">
-        <v>4.66</v>
-      </c>
-      <c r="AS93">
-        <v>132</v>
-      </c>
-      <c r="AT93">
-        <v>65.86</v>
-      </c>
-      <c r="AU93">
-        <v>128</v>
-      </c>
-      <c r="AV93">
-        <v>65.69</v>
-      </c>
-      <c r="AW93">
-        <v>135</v>
-      </c>
-      <c r="AX93">
-        <v>62.53</v>
-      </c>
-      <c r="AY93">
-        <v>30</v>
-      </c>
-      <c r="AZ93">
-        <v>59.11</v>
-      </c>
-      <c r="BA93">
-        <v>107</v>
-      </c>
-      <c r="BB93">
-        <v>61.36</v>
-      </c>
-      <c r="BC93">
-        <v>8</v>
-      </c>
-      <c r="BD93">
-        <v>46.77</v>
-      </c>
-      <c r="BE93">
-        <v>142</v>
-      </c>
-      <c r="BF93">
-        <v>1.736</v>
-      </c>
-      <c r="BG93">
-        <v>33.5</v>
-      </c>
-      <c r="BH93">
-        <v>1.74</v>
-      </c>
-      <c r="BI93">
-        <v>58</v>
-      </c>
-      <c r="BJ93">
-        <v>269</v>
-      </c>
-      <c r="BK93">
-        <v>146.5</v>
-      </c>
-      <c r="BL93">
-        <v>299</v>
-      </c>
-      <c r="BM93">
-        <v>157.5</v>
-      </c>
-      <c r="BN93">
-        <v>3</v>
-      </c>
-      <c r="BO93">
-        <v>48</v>
-      </c>
-      <c r="BP93">
-        <v>1</v>
-      </c>
-      <c r="BQ93">
-        <v>101</v>
-      </c>
-      <c r="BR93">
-        <v>70.07300000000001</v>
-      </c>
-      <c r="BS93">
-        <v>33</v>
-      </c>
-      <c r="BT93">
-        <v>1.926999999999992</v>
-      </c>
-      <c r="BU93">
-        <v>62.22</v>
-      </c>
-      <c r="BV93">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:74">
-      <c r="A94" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94">
-        <v>-0.398</v>
-      </c>
-      <c r="C94">
-        <v>176</v>
-      </c>
-      <c r="D94">
-        <v>0.018</v>
-      </c>
-      <c r="E94">
-        <v>104</v>
-      </c>
-      <c r="F94">
-        <v>0.11</v>
-      </c>
-      <c r="G94">
-        <v>60.5</v>
-      </c>
-      <c r="H94">
-        <v>0.34</v>
-      </c>
-      <c r="I94">
-        <v>25</v>
-      </c>
-      <c r="J94">
-        <v>-0.57</v>
-      </c>
-      <c r="K94">
-        <v>185</v>
-      </c>
-      <c r="L94">
-        <v>-0.35</v>
-      </c>
-      <c r="M94">
-        <v>166.5</v>
-      </c>
-      <c r="N94">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="O94">
-        <v>16</v>
-      </c>
-      <c r="P94">
-        <v>0.04</v>
-      </c>
-      <c r="Q94">
-        <v>107.5</v>
-      </c>
-      <c r="R94">
-        <v>-0.398</v>
-      </c>
-      <c r="S94">
-        <v>176</v>
-      </c>
-      <c r="T94">
-        <v>0.018</v>
-      </c>
-      <c r="U94">
-        <v>104</v>
-      </c>
-      <c r="V94">
-        <v>-0.302</v>
-      </c>
-      <c r="W94">
-        <v>143</v>
-      </c>
-      <c r="X94">
-        <v>0.048</v>
-      </c>
-      <c r="Y94">
-        <v>101</v>
-      </c>
-      <c r="Z94">
-        <v>305.1</v>
-      </c>
-      <c r="AA94">
-        <v>32</v>
-      </c>
-      <c r="AB94">
-        <v>318.5</v>
-      </c>
-      <c r="AC94">
-        <v>3</v>
-      </c>
-      <c r="AD94">
-        <v>52.18</v>
-      </c>
-      <c r="AE94">
-        <v>180</v>
-      </c>
-      <c r="AF94">
-        <v>45.7</v>
-      </c>
-      <c r="AG94">
-        <v>216</v>
-      </c>
-      <c r="AH94">
-        <v>3.07</v>
-      </c>
-      <c r="AI94">
-        <v>135</v>
-      </c>
-      <c r="AJ94">
-        <v>3.03</v>
-      </c>
-      <c r="AK94">
-        <v>66.5</v>
-      </c>
-      <c r="AL94">
-        <v>4.09</v>
-      </c>
-      <c r="AM94">
-        <v>186.5</v>
-      </c>
-      <c r="AN94">
-        <v>4.01</v>
-      </c>
-      <c r="AO94">
-        <v>94.5</v>
-      </c>
-      <c r="AP94">
-        <v>4.52</v>
-      </c>
-      <c r="AQ94">
-        <v>7.5</v>
-      </c>
-      <c r="AR94">
-        <v>4.6</v>
-      </c>
-      <c r="AS94">
-        <v>72.5</v>
-      </c>
-      <c r="AT94">
-        <v>62.57</v>
-      </c>
-      <c r="AU94">
-        <v>187.5</v>
-      </c>
-      <c r="AV94">
-        <v>66.81</v>
-      </c>
-      <c r="AW94">
-        <v>105</v>
-      </c>
-      <c r="AX94">
-        <v>57.66</v>
-      </c>
-      <c r="AY94">
-        <v>127</v>
-      </c>
-      <c r="AZ94">
-        <v>62.76</v>
-      </c>
-      <c r="BA94">
-        <v>43</v>
-      </c>
-      <c r="BB94">
-        <v>53.4</v>
-      </c>
-      <c r="BC94">
-        <v>54.5</v>
-      </c>
-      <c r="BD94">
-        <v>62.9</v>
-      </c>
-      <c r="BE94">
-        <v>12</v>
-      </c>
-      <c r="BF94">
-        <v>1.739</v>
-      </c>
-      <c r="BG94">
-        <v>43</v>
-      </c>
-      <c r="BH94">
-        <v>1.732</v>
-      </c>
-      <c r="BI94">
-        <v>45.5</v>
-      </c>
-      <c r="BJ94">
-        <v>308</v>
-      </c>
-      <c r="BK94">
-        <v>162</v>
-      </c>
-      <c r="BL94">
-        <v>220</v>
-      </c>
-      <c r="BM94">
-        <v>106</v>
-      </c>
-      <c r="BN94">
-        <v>1</v>
-      </c>
-      <c r="BO94">
-        <v>129</v>
-      </c>
-      <c r="BP94">
-        <v>2</v>
-      </c>
-      <c r="BQ94">
-        <v>52.5</v>
-      </c>
-      <c r="BR94">
-        <v>70.524</v>
-      </c>
-      <c r="BS94">
-        <v>52</v>
-      </c>
-      <c r="BT94">
-        <v>1.475999999999999</v>
-      </c>
-      <c r="BU94">
-        <v>61.79</v>
-      </c>
-      <c r="BV94">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:74">
-      <c r="A95" t="s">
-        <v>167</v>
-      </c>
-      <c r="B95">
-        <v>0.211</v>
-      </c>
-      <c r="C95">
-        <v>56</v>
-      </c>
-      <c r="D95">
-        <v>0.493</v>
-      </c>
-      <c r="E95">
-        <v>17</v>
-      </c>
-      <c r="F95">
-        <v>0.131</v>
-      </c>
-      <c r="G95">
-        <v>50</v>
-      </c>
-      <c r="H95">
-        <v>-0.199</v>
-      </c>
-      <c r="I95">
-        <v>175</v>
-      </c>
-      <c r="J95">
-        <v>0.213</v>
-      </c>
-      <c r="K95">
-        <v>68</v>
-      </c>
-      <c r="L95">
-        <v>0.413</v>
-      </c>
-      <c r="M95">
-        <v>42</v>
-      </c>
-      <c r="N95">
-        <v>0.005</v>
-      </c>
-      <c r="O95">
-        <v>104</v>
-      </c>
-      <c r="P95">
-        <v>0.027</v>
-      </c>
-      <c r="Q95">
-        <v>111</v>
-      </c>
-      <c r="R95">
-        <v>0.211</v>
-      </c>
-      <c r="S95">
-        <v>56</v>
-      </c>
-      <c r="T95">
-        <v>0.493</v>
-      </c>
-      <c r="U95">
-        <v>17</v>
-      </c>
-      <c r="V95">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W95">
-        <v>44</v>
-      </c>
-      <c r="X95">
-        <v>0.7340000000000001</v>
-      </c>
-      <c r="Y95">
-        <v>48</v>
-      </c>
-      <c r="Z95">
-        <v>308</v>
-      </c>
-      <c r="AA95">
-        <v>20</v>
-      </c>
-      <c r="AB95">
-        <v>310.3</v>
-      </c>
-      <c r="AC95">
-        <v>11</v>
-      </c>
-      <c r="AD95">
-        <v>58.82</v>
-      </c>
-      <c r="AE95">
-        <v>122</v>
-      </c>
-      <c r="AF95">
-        <v>53.77</v>
-      </c>
-      <c r="AG95">
-        <v>180</v>
-      </c>
-      <c r="AH95">
-        <v>3.04</v>
-      </c>
-      <c r="AI95">
-        <v>80</v>
-      </c>
-      <c r="AJ95">
-        <v>3.09</v>
-      </c>
-      <c r="AK95">
-        <v>145.5</v>
-      </c>
-      <c r="AL95">
-        <v>4</v>
-      </c>
-      <c r="AM95">
-        <v>64</v>
-      </c>
-      <c r="AN95">
-        <v>3.97</v>
-      </c>
-      <c r="AO95">
-        <v>27.5</v>
-      </c>
-      <c r="AP95">
-        <v>4.55</v>
-      </c>
-      <c r="AQ95">
-        <v>24</v>
-      </c>
-      <c r="AR95">
-        <v>4.59</v>
-      </c>
-      <c r="AS95">
-        <v>64.5</v>
-      </c>
-      <c r="AT95">
-        <v>69.25</v>
-      </c>
-      <c r="AU95">
-        <v>41</v>
-      </c>
-      <c r="AV95">
-        <v>66.67</v>
-      </c>
-      <c r="AW95">
-        <v>108.5</v>
-      </c>
-      <c r="AX95">
-        <v>61.06</v>
-      </c>
-      <c r="AY95">
-        <v>45</v>
-      </c>
-      <c r="AZ95">
-        <v>59.52</v>
-      </c>
-      <c r="BA95">
-        <v>100</v>
-      </c>
-      <c r="BB95">
-        <v>56.99</v>
-      </c>
-      <c r="BC95">
-        <v>28</v>
-      </c>
-      <c r="BD95">
-        <v>45.59</v>
-      </c>
-      <c r="BE95">
-        <v>158</v>
-      </c>
-      <c r="BF95">
-        <v>1.779</v>
-      </c>
-      <c r="BG95">
-        <v>145</v>
-      </c>
-      <c r="BH95">
-        <v>1.75</v>
-      </c>
-      <c r="BI95">
-        <v>83</v>
-      </c>
-      <c r="BJ95">
-        <v>75</v>
-      </c>
-      <c r="BK95">
-        <v>24</v>
-      </c>
-      <c r="BL95">
-        <v>183</v>
-      </c>
-      <c r="BM95">
-        <v>89</v>
-      </c>
-      <c r="BN95">
-        <v>2</v>
-      </c>
-      <c r="BO95">
-        <v>77.5</v>
-      </c>
-      <c r="BP95">
-        <v>2</v>
-      </c>
-      <c r="BQ95">
-        <v>52.5</v>
-      </c>
-      <c r="BR95">
-        <v>71.123</v>
-      </c>
-      <c r="BS95">
-        <v>99</v>
-      </c>
-      <c r="BT95">
-        <v>0.8769999999999953</v>
-      </c>
-      <c r="BU95">
-        <v>61.39</v>
-      </c>
-      <c r="BV95">
-        <v>125</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PGA_Database.xlsx
+++ b/PGA_Database.xlsx
@@ -1448,13 +1448,13 @@
         <v>5</v>
       </c>
       <c r="BR3">
-        <v>69.94566666666667</v>
+        <v>70.2045</v>
       </c>
       <c r="BS3">
-        <v>11.66666666666667</v>
+        <v>14.75</v>
       </c>
       <c r="BT3">
-        <v>2.054333333333332</v>
+        <v>1.795500000000004</v>
       </c>
       <c r="BU3">
         <v>453.66</v>
@@ -1672,13 +1672,13 @@
         <v>1</v>
       </c>
       <c r="BR4">
-        <v>69.34166666666665</v>
+        <v>69.81399999999999</v>
       </c>
       <c r="BS4">
-        <v>8.333333333333334</v>
+        <v>13.5</v>
       </c>
       <c r="BT4">
-        <v>2.658333333333346</v>
+        <v>2.186000000000007</v>
       </c>
       <c r="BU4">
         <v>433.96</v>
@@ -3016,13 +3016,13 @@
         <v>14.5</v>
       </c>
       <c r="BR10">
-        <v>69.98733333333332</v>
+        <v>69.92325</v>
       </c>
       <c r="BS10">
-        <v>16.66666666666667</v>
+        <v>14.375</v>
       </c>
       <c r="BT10">
-        <v>2.012666666666675</v>
+        <v>2.076750000000004</v>
       </c>
       <c r="BU10">
         <v>285.1</v>
@@ -3688,13 +3688,13 @@
         <v>14.5</v>
       </c>
       <c r="BR13">
-        <v>69.361</v>
+        <v>69.65100000000001</v>
       </c>
       <c r="BS13">
-        <v>6</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="BT13">
-        <v>2.638999999999996</v>
+        <v>2.34899999999999</v>
       </c>
       <c r="BU13">
         <v>250.15</v>
@@ -4584,13 +4584,13 @@
         <v>14.5</v>
       </c>
       <c r="BR17">
-        <v>71.124</v>
+        <v>71.15966666666667</v>
       </c>
       <c r="BS17">
-        <v>43.25</v>
+        <v>38.5</v>
       </c>
       <c r="BT17">
-        <v>0.8760000000000048</v>
+        <v>0.8403333333333336</v>
       </c>
       <c r="BU17">
         <v>230.24</v>
@@ -5032,13 +5032,13 @@
         <v>14.5</v>
       </c>
       <c r="BR19">
-        <v>70.8605</v>
+        <v>70.40066666666667</v>
       </c>
       <c r="BS19">
-        <v>72.75</v>
+        <v>50.5</v>
       </c>
       <c r="BT19">
-        <v>1.139499999999998</v>
+        <v>1.599333333333334</v>
       </c>
       <c r="BU19">
         <v>216.56</v>
@@ -5928,13 +5928,13 @@
         <v>114</v>
       </c>
       <c r="BR23">
-        <v>70.61799999999999</v>
+        <v>70.52124999999999</v>
       </c>
       <c r="BS23">
-        <v>22.5</v>
+        <v>20.125</v>
       </c>
       <c r="BT23">
-        <v>1.382000000000005</v>
+        <v>1.478750000000005</v>
       </c>
       <c r="BU23">
         <v>185.04</v>
@@ -7496,13 +7496,13 @@
         <v>65</v>
       </c>
       <c r="BR30">
-        <v>70.343</v>
+        <v>70.815</v>
       </c>
       <c r="BS30">
-        <v>22.33333333333333</v>
+        <v>27.125</v>
       </c>
       <c r="BT30">
-        <v>1.656999999999996</v>
+        <v>1.185000000000002</v>
       </c>
       <c r="BU30">
         <v>165.07</v>
@@ -7944,13 +7944,13 @@
         <v>114</v>
       </c>
       <c r="BR32">
-        <v>71.47333333333334</v>
+        <v>71.72525</v>
       </c>
       <c r="BS32">
-        <v>74</v>
+        <v>66.5</v>
       </c>
       <c r="BT32">
-        <v>0.5266666666666566</v>
+        <v>0.2747499999999974</v>
       </c>
       <c r="BU32">
         <v>153.79</v>
@@ -8392,13 +8392,13 @@
         <v>33.5</v>
       </c>
       <c r="BR34">
-        <v>70.70699999999999</v>
+        <v>69.46899999999999</v>
       </c>
       <c r="BS34">
-        <v>66</v>
+        <v>33.75</v>
       </c>
       <c r="BT34">
-        <v>1.293000000000006</v>
+        <v>2.531000000000006</v>
       </c>
       <c r="BU34">
         <v>140.03</v>
@@ -8616,13 +8616,13 @@
         <v>114</v>
       </c>
       <c r="BR35">
-        <v>70.84133333333334</v>
+        <v>70.62625</v>
       </c>
       <c r="BS35">
-        <v>28.16666666666667</v>
+        <v>23.5</v>
       </c>
       <c r="BT35">
-        <v>1.158666666666662</v>
+        <v>1.373750000000001</v>
       </c>
       <c r="BU35">
         <v>139.53</v>
@@ -8840,13 +8840,13 @@
         <v>114</v>
       </c>
       <c r="BR36">
-        <v>71.42899999999999</v>
+        <v>71.69199999999999</v>
       </c>
       <c r="BS36">
-        <v>82.16666666666667</v>
+        <v>72.625</v>
       </c>
       <c r="BT36">
-        <v>0.5710000000000122</v>
+        <v>0.3080000000000069</v>
       </c>
       <c r="BU36">
         <v>137.38</v>
@@ -9512,13 +9512,13 @@
         <v>70.40873015873017</v>
       </c>
       <c r="BR39">
-        <v>70.76049999999999</v>
+        <v>69.91733333333333</v>
       </c>
       <c r="BS39">
-        <v>74</v>
+        <v>49.83333333333334</v>
       </c>
       <c r="BT39">
-        <v>1.239500000000007</v>
+        <v>2.082666666666668</v>
       </c>
       <c r="BU39">
         <v>129.78</v>
@@ -9736,13 +9736,13 @@
         <v>114</v>
       </c>
       <c r="BR40">
-        <v>71.206</v>
+        <v>70.71225</v>
       </c>
       <c r="BS40">
-        <v>69.16666666666667</v>
+        <v>53</v>
       </c>
       <c r="BT40">
-        <v>0.7939999999999969</v>
+        <v>1.287750000000003</v>
       </c>
       <c r="BU40">
         <v>127.24</v>
@@ -10856,13 +10856,13 @@
         <v>14.5</v>
       </c>
       <c r="BR45">
-        <v>70.426</v>
+        <v>70.37725</v>
       </c>
       <c r="BS45">
-        <v>68.16666666666667</v>
+        <v>54.375</v>
       </c>
       <c r="BT45">
-        <v>1.573999999999998</v>
+        <v>1.622749999999996</v>
       </c>
       <c r="BU45">
         <v>112.04</v>
@@ -11528,13 +11528,13 @@
         <v>65</v>
       </c>
       <c r="BR48">
-        <v>70.38200000000001</v>
+        <v>70.53175</v>
       </c>
       <c r="BS48">
-        <v>31</v>
+        <v>29.25</v>
       </c>
       <c r="BT48">
-        <v>1.617999999999995</v>
+        <v>1.468249999999998</v>
       </c>
       <c r="BU48">
         <v>106.27</v>
@@ -13992,13 +13992,13 @@
         <v>70.40873015873017</v>
       </c>
       <c r="BR59">
-        <v>71.93866666666666</v>
+        <v>71.69924999999999</v>
       </c>
       <c r="BS59">
-        <v>91.16666666666667</v>
+        <v>74.375</v>
       </c>
       <c r="BT59">
-        <v>0.06133333333333724</v>
+        <v>0.3007500000000078</v>
       </c>
       <c r="BU59">
         <v>62.96</v>
@@ -15336,13 +15336,13 @@
         <v>70.40873015873017</v>
       </c>
       <c r="BR65">
-        <v>71.98033333333332</v>
+        <v>71.66799999999999</v>
       </c>
       <c r="BS65">
-        <v>93.5</v>
+        <v>75</v>
       </c>
       <c r="BT65">
-        <v>0.01966666666668004</v>
+        <v>0.3320000000000078</v>
       </c>
       <c r="BU65">
         <v>11.42</v>
